--- a/Prubes.xlsx
+++ b/Prubes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Avisar Visor</t>
   </si>
@@ -160,15 +160,22 @@
   <si>
     <t>4ta renta de 6 de $3,640.36</t>
   </si>
+  <si>
+    <t>Retencion</t>
+  </si>
+  <si>
+    <t>SaldoFinalAcumulado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,6 +274,14 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
     <font>
@@ -276,7 +291,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -305,6 +320,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF01558B"/>
+        <bgColor rgb="FF01558B"/>
       </patternFill>
     </fill>
     <fill>
@@ -343,7 +364,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -436,6 +457,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
@@ -454,9 +476,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1223,10 +1245,10 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="I128" xSplit="2" ySplit="11"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="I101" xSplit="2" ySplit="11"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A11" pane="bottomLeft" sqref="A11"/>
-      <selection activeCell="N131" pane="bottomRight" sqref="N131"/>
+      <selection activeCell="B124" pane="bottomRight" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -1256,7 +1278,7 @@
         <f>+C1/6</f>
         <v/>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="47">
         <f>+D1+C4</f>
         <v/>
       </c>
@@ -1344,44 +1366,44 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="47" t="n"/>
+      <c r="A4" s="48" t="n"/>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="48" t="n">
+      <c r="C4" s="49" t="n">
         <v>2730.2688</v>
       </c>
-      <c r="D4" s="48" t="n">
+      <c r="D4" s="49" t="n">
         <v>3100</v>
       </c>
-      <c r="E4" s="48" t="n">
+      <c r="E4" s="49" t="n">
         <v>2500</v>
       </c>
-      <c r="F4" s="49" t="n">
+      <c r="F4" s="50" t="n">
         <v>1860</v>
       </c>
-      <c r="G4" s="49" t="n">
+      <c r="G4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="H4" s="48" t="n">
+      <c r="H4" s="49" t="n">
         <v>2500</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="50" t="n">
         <v>1860</v>
       </c>
-      <c r="J4" s="49" t="n">
+      <c r="J4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="K4" s="49" t="n">
+      <c r="K4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="L4" s="49" t="n">
+      <c r="L4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="M4" s="49" t="n">
+      <c r="M4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="N4" s="49" t="n">
+      <c r="N4" s="50" t="n">
         <v>2500</v>
       </c>
       <c r="S4" s="39">
@@ -1393,32 +1415,32 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="48" t="n"/>
-      <c r="D5" s="48" t="n">
+      <c r="C5" s="49" t="n"/>
+      <c r="D5" s="49" t="n">
         <v>1860</v>
       </c>
-      <c r="E5" s="48" t="n">
+      <c r="E5" s="49" t="n">
         <v>2000</v>
       </c>
       <c r="G5" s="39" t="n">
         <v>2000</v>
       </c>
-      <c r="H5" s="48" t="n">
+      <c r="H5" s="49" t="n">
         <v>2000</v>
       </c>
-      <c r="J5" s="49" t="n">
+      <c r="J5" s="50" t="n">
         <v>2000</v>
       </c>
-      <c r="K5" s="49" t="n">
+      <c r="K5" s="50" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" s="49" t="n">
+      <c r="L5" s="50" t="n">
         <v>2000</v>
       </c>
-      <c r="M5" s="49" t="n">
+      <c r="M5" s="50" t="n">
         <v>2000</v>
       </c>
-      <c r="N5" s="49" t="n">
+      <c r="N5" s="50" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1506,40 +1528,40 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50" t="n">
+      <c r="C9" s="51" t="n">
         <v>567895.55</v>
       </c>
-      <c r="D9" s="50" t="n">
+      <c r="D9" s="51" t="n">
         <v>386880</v>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="51" t="n">
         <v>444000</v>
       </c>
-      <c r="F9" s="51" t="n">
+      <c r="F9" s="52" t="n">
         <v>386880</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="52" t="n">
         <v>444000</v>
       </c>
-      <c r="H9" s="50" t="n">
+      <c r="H9" s="51" t="n">
         <v>444000</v>
       </c>
-      <c r="I9" s="51" t="n">
+      <c r="I9" s="52" t="n">
         <v>386880</v>
       </c>
-      <c r="J9" s="51" t="n">
+      <c r="J9" s="52" t="n">
         <v>444000</v>
       </c>
-      <c r="K9" s="51" t="n">
+      <c r="K9" s="52" t="n">
         <v>444000</v>
       </c>
-      <c r="L9" s="51" t="n">
+      <c r="L9" s="52" t="n">
         <v>444000</v>
       </c>
-      <c r="M9" s="51" t="n">
+      <c r="M9" s="52" t="n">
         <v>444000</v>
       </c>
-      <c r="N9" s="51" t="n">
+      <c r="N9" s="52" t="n">
         <v>428000</v>
       </c>
     </row>
@@ -1547,50 +1569,50 @@
       <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="53">
         <f>+SUM(C17+C24+C31+C38+C45+C52+C59+C66+C73+C80+C87+C94+C101+C108+C115)</f>
         <v/>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="53">
         <f>+SUM(D17+D24+D31+D38+D45+D52+D59+D66+D73+D80+D87+D94+D101+D108+D115)</f>
         <v/>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="53">
         <f>+SUM(E17+E24+E31+E38+E45+E52+E59+E66+E73+E80+E87+E94+E101+E108+E115)</f>
         <v/>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="53">
         <f>+SUM(F17+F24+F31+F38+F45+F52+F59+F66+F73+F80+F87+F94+F101+F108+F115)</f>
         <v/>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="53">
         <f>+SUM(G17+G24+G31+G38+G45+G52+G59+G66+G73+G80+G87+G94+G101+G108+G115)</f>
         <v/>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="53">
         <f>+SUM(H17+H24+H31+H38+H45+H52+H59+H66+H73+H80+H87+H94+H101+H108+H115)</f>
         <v/>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="53">
         <f>+SUM(I17+I24+I31+I38+I45+I52+I59+I66+I73+I80+I87+I94+I101+I108+I115)</f>
         <v/>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="53">
         <f>+SUM(J17+J24+J31+J38+J45+J52+J59+J66+J73+J80+J87+J94+J101+J108+J115)</f>
         <v/>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="53">
         <f>+SUM(K17+K24+K31+K38+K45+K52+K59+K66+K73+K80+K87+K94+K101+K108+K115)</f>
         <v/>
       </c>
-      <c r="L10" s="52" t="n">
+      <c r="L10" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="53">
         <f>+SUM(M17+M24+M31+M38+M45+M52+M59+M66+M73+M80+M87+M94+M101+M108+M115)</f>
         <v/>
       </c>
-      <c r="N10" s="52" t="n">
+      <c r="N10" s="53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1598,51 +1620,51 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="54">
         <f>+C9-C10</f>
         <v/>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="54">
         <f>+D9-D10</f>
         <v/>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="54">
         <f>+E9-E10</f>
         <v/>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="54">
         <f>+F9-F10</f>
         <v/>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="54">
         <f>+G9-G10</f>
         <v/>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="54">
         <f>+H9-H10</f>
         <v/>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="54">
         <f>+I9-I10</f>
         <v/>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="54">
         <f>+J9-J10</f>
         <v/>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="54">
         <f>+K9-K10</f>
         <v/>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="54">
         <f>+L9-L10</f>
         <v/>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="54">
         <f>+M9-M10</f>
         <v/>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="54">
         <f>+N9-N10</f>
         <v/>
       </c>
@@ -1654,51 +1676,51 @@
       <c r="D12" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="50" t="n"/>
-      <c r="J12" s="50" t="n"/>
+      <c r="F12" s="51" t="n"/>
+      <c r="J12" s="51" t="n"/>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="10" t="n">
         <v>43007</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="51">
         <f>IF(C12&lt;&gt;0, C$4, 0)</f>
         <v/>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="51">
         <f>IF(D12&lt;&gt;0, D$4, 0)</f>
         <v/>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="51">
         <f>IF(E12&lt;&gt;0, E$4, 0)</f>
         <v/>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="51">
         <f>IF(F12&lt;&gt;0, F$4, 0)</f>
         <v/>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="51">
         <f>IF(G12&lt;&gt;0, G$4, 0)</f>
         <v/>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="51">
         <f>IF(H12&lt;&gt;0, H$4, 0)</f>
         <v/>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="51">
         <f>IF(I12&lt;&gt;0, I$4, 0)</f>
         <v/>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <f>IF(J12&lt;&gt;0, J$4, 0)</f>
         <v/>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="51">
         <f>IF(K12&lt;&gt;0, K$4, 0)</f>
         <v/>
       </c>
-      <c r="L13" s="50" t="n"/>
-      <c r="M13" s="50">
+      <c r="L13" s="51" t="n"/>
+      <c r="M13" s="51">
         <f>IF(M12&lt;&gt;0, M$4, 0)</f>
         <v/>
       </c>
@@ -1710,35 +1732,35 @@
       <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="55" t="n">
         <v>2353.68</v>
       </c>
-      <c r="D14" s="54" t="n">
+      <c r="D14" s="55" t="n">
         <v>3100</v>
       </c>
-      <c r="E14" s="54" t="n">
+      <c r="E14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="54" t="n">
+      <c r="G14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="54" t="n">
+      <c r="H14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="54" t="n">
+      <c r="I14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="54" t="n">
+      <c r="J14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="54" t="n">
+      <c r="K14" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="54" t="n"/>
-      <c r="M14" s="54" t="n">
+      <c r="L14" s="55" t="n"/>
+      <c r="M14" s="55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1747,37 +1769,37 @@
       <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="51">
         <f>+$C$4-C14</f>
         <v/>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="51">
         <f>+D4-D14</f>
         <v/>
       </c>
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="50" t="n">
+      <c r="G15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="50" t="n">
+      <c r="H15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="50" t="n">
+      <c r="I15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="50" t="n">
+      <c r="J15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="50" t="n">
+      <c r="K15" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="50" t="n"/>
-      <c r="M15" s="50" t="n">
+      <c r="L15" s="51" t="n"/>
+      <c r="M15" s="51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,35 +1810,35 @@
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="54" t="n">
+      <c r="C16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="54" t="n">
+      <c r="D16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="54" t="n">
+      <c r="E16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="54" t="n">
+      <c r="F16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="54" t="n">
+      <c r="G16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="54" t="n">
+      <c r="H16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="54" t="n">
+      <c r="I16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="54" t="n">
+      <c r="J16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="54" t="n">
+      <c r="K16" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="54" t="n"/>
-      <c r="M16" s="54" t="n">
+      <c r="L16" s="55" t="n"/>
+      <c r="M16" s="55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,44 +1847,44 @@
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="54">
         <f>+C14+C16</f>
         <v/>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="54">
         <f>+D14+D16</f>
         <v/>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="54">
         <f>+SUM(E13:E15)</f>
         <v/>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="54">
         <f>+SUM(F13:F15)</f>
         <v/>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="54">
         <f>+SUM(G13:G15)</f>
         <v/>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="54">
         <f>+SUM(H13:H15)</f>
         <v/>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="54">
         <f>+SUM(I13:I15)</f>
         <v/>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="54">
         <f>+SUM(J13:J15)</f>
         <v/>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="54">
         <f>+SUM(K13:K15)</f>
         <v/>
       </c>
-      <c r="L17" s="53" t="n"/>
-      <c r="M17" s="53">
+      <c r="L17" s="54" t="n"/>
+      <c r="M17" s="54">
         <f>+SUM(M13:M15)</f>
         <v/>
       </c>
@@ -1872,44 +1894,44 @@
       <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="56">
         <f>+C13-C17</f>
         <v/>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="56">
         <f>+D13-D17</f>
         <v/>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="56">
         <f>+E13-E17</f>
         <v/>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="56">
         <f>+F13-F17</f>
         <v/>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="56">
         <f>+G13-G17</f>
         <v/>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="56">
         <f>+H13-H17</f>
         <v/>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="56">
         <f>+I13-I17</f>
         <v/>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="56">
         <f>+J13-J17</f>
         <v/>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="56">
         <f>+K13-K17</f>
         <v/>
       </c>
-      <c r="L18" s="55" t="n"/>
-      <c r="M18" s="55">
+      <c r="L18" s="56" t="n"/>
+      <c r="M18" s="56">
         <f>+M13-M17</f>
         <v/>
       </c>
@@ -1924,54 +1946,54 @@
         <f>+D12+1</f>
         <v/>
       </c>
-      <c r="G19" s="47" t="n"/>
+      <c r="G19" s="48" t="n"/>
       <c r="H19" s="22" t="n"/>
-      <c r="I19" s="47" t="n"/>
-      <c r="J19" s="47" t="n"/>
+      <c r="I19" s="48" t="n"/>
+      <c r="J19" s="48" t="n"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="15" t="n"/>
       <c r="B20" s="10" t="n">
         <v>43014</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="51">
         <f>IF(C12&lt;&gt;0, C$4+C18,0)</f>
         <v/>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="51">
         <f>IF(D12&lt;&gt;0, D$4+D18,0)</f>
         <v/>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="51">
         <f>IF(E12&lt;&gt;0, E$4+E18,0)</f>
         <v/>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="51">
         <f>IF(F12&lt;&gt;0, F$4+F18,0)</f>
         <v/>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="51">
         <f>IF(G12&lt;&gt;0, G$4+G18,0)</f>
         <v/>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="51">
         <f>IF(H12&lt;&gt;0, H$4+H18,0)</f>
         <v/>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="51">
         <f>IF(I12&lt;&gt;0, I$4+I18,0)</f>
         <v/>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="51">
         <f>IF(J12&lt;&gt;0, J$4+J18,0)</f>
         <v/>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="51">
         <f>IF(K12&lt;&gt;0, K$4+K18,0)</f>
         <v/>
       </c>
-      <c r="L20" s="50" t="n"/>
-      <c r="M20" s="50">
+      <c r="L20" s="51" t="n"/>
+      <c r="M20" s="51">
         <f>IF(M12&lt;&gt;0, M$4+M18,0)</f>
         <v/>
       </c>
@@ -1983,69 +2005,69 @@
       <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="54" t="n">
+      <c r="C21" s="55" t="n">
         <v>1397.54</v>
       </c>
-      <c r="D21" s="54" t="n">
+      <c r="D21" s="55" t="n">
         <v>2353.68</v>
       </c>
-      <c r="E21" s="54" t="n">
+      <c r="E21" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="54" t="n"/>
-      <c r="G21" s="54" t="n">
+      <c r="F21" s="55" t="n"/>
+      <c r="G21" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="54" t="n"/>
-      <c r="I21" s="54" t="n"/>
-      <c r="J21" s="54" t="n"/>
-      <c r="K21" s="54" t="n"/>
-      <c r="L21" s="54" t="n"/>
-      <c r="M21" s="54" t="n"/>
+      <c r="H21" s="55" t="n"/>
+      <c r="I21" s="55" t="n"/>
+      <c r="J21" s="55" t="n"/>
+      <c r="K21" s="55" t="n"/>
+      <c r="L21" s="55" t="n"/>
+      <c r="M21" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="22" s="26" spans="1:19">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="51">
         <f>+C20-C21</f>
         <v/>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="51">
         <f>+D20-D21</f>
         <v/>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="51">
         <f>+E20-E21</f>
         <v/>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="51">
         <f>+F20-F21</f>
         <v/>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="51">
         <f>+G20-G21</f>
         <v/>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="51">
         <f>+H20-H21</f>
         <v/>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="51">
         <f>+I20-I21</f>
         <v/>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="51">
         <f>+J20-J21</f>
         <v/>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="51">
         <f>+K20-K21</f>
         <v/>
       </c>
-      <c r="L22" s="50" t="n"/>
-      <c r="M22" s="50">
+      <c r="L22" s="51" t="n"/>
+      <c r="M22" s="51">
         <f>+M20-M21</f>
         <v/>
       </c>
@@ -2057,69 +2079,69 @@
       <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="54" t="n">
+      <c r="C23" s="55" t="n">
         <v>954.78</v>
       </c>
-      <c r="D23" s="54" t="n">
+      <c r="D23" s="55" t="n">
         <v>746.5</v>
       </c>
-      <c r="E23" s="54" t="n">
+      <c r="E23" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="54" t="n"/>
-      <c r="G23" s="54" t="n">
+      <c r="F23" s="55" t="n"/>
+      <c r="G23" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="54" t="n"/>
-      <c r="I23" s="54" t="n"/>
-      <c r="J23" s="54" t="n"/>
-      <c r="K23" s="54" t="n"/>
-      <c r="L23" s="54" t="n"/>
-      <c r="M23" s="54" t="n"/>
+      <c r="H23" s="55" t="n"/>
+      <c r="I23" s="55" t="n"/>
+      <c r="J23" s="55" t="n"/>
+      <c r="K23" s="55" t="n"/>
+      <c r="L23" s="55" t="n"/>
+      <c r="M23" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="24" s="26" spans="1:19">
       <c r="A24" s="15" t="n"/>
       <c r="B24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="54">
         <f>+C21+C23</f>
         <v/>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="54">
         <f>+D21+D23</f>
         <v/>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="54">
         <f>+E21+E23</f>
         <v/>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="54">
         <f>+F21+F23</f>
         <v/>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="54">
         <f>+G21+G23</f>
         <v/>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="54">
         <f>+H21+H23</f>
         <v/>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="54">
         <f>+I21+I23</f>
         <v/>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="54">
         <f>+J21+J23</f>
         <v/>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="54">
         <f>+K21+K23</f>
         <v/>
       </c>
-      <c r="L24" s="53" t="n"/>
-      <c r="M24" s="53">
+      <c r="L24" s="54" t="n"/>
+      <c r="M24" s="54">
         <f>+M21+M23</f>
         <v/>
       </c>
@@ -2128,44 +2150,44 @@
       <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="56">
         <f>+C20-C24</f>
         <v/>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="56">
         <f>+D20-D24</f>
         <v/>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="56">
         <f>+E20-E24</f>
         <v/>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="56">
         <f>+F20-F24</f>
         <v/>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="56">
         <f>+G20-G24</f>
         <v/>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="56">
         <f>+H20-H24</f>
         <v/>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="56">
         <f>+I20-I24</f>
         <v/>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="56">
         <f>+J20-J24</f>
         <v/>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="56">
         <f>+K20-K24</f>
         <v/>
       </c>
-      <c r="L25" s="55" t="n"/>
-      <c r="M25" s="55">
+      <c r="L25" s="56" t="n"/>
+      <c r="M25" s="56">
         <f>+M20-M24</f>
         <v/>
       </c>
@@ -2179,52 +2201,52 @@
         <f>+D19+1</f>
         <v/>
       </c>
-      <c r="G26" s="47" t="n"/>
-      <c r="H26" s="56" t="n"/>
-      <c r="I26" s="47" t="n"/>
+      <c r="G26" s="48" t="n"/>
+      <c r="H26" s="57" t="n"/>
+      <c r="I26" s="48" t="n"/>
     </row>
     <row r="27" spans="1:19">
       <c r="B27" s="10" t="n">
         <v>43021</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="48">
         <f>IF(C26&lt;&gt;0, C$4+C25,0)</f>
         <v/>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="48">
         <f>IF(D26&lt;&gt;0, D$4+D25,0)</f>
         <v/>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="48">
         <f>IF(E26&lt;&gt;0, E$4+E25,0)</f>
         <v/>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="48">
         <f>IF(F26&lt;&gt;0, F$4+F25,0)</f>
         <v/>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="48">
         <f>IF(G26&lt;&gt;0, G$4+G25,0)</f>
         <v/>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="48">
         <f>IF(H26&lt;&gt;0, H$4+H25,0)</f>
         <v/>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="48">
         <f>IF(I26&lt;&gt;0, I$4+I25,0)</f>
         <v/>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="48">
         <f>IF(J26&lt;&gt;0, J$4+J25,0)</f>
         <v/>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="48">
         <f>IF(K26&lt;&gt;0, K$4+K25,0)</f>
         <v/>
       </c>
-      <c r="L27" s="47" t="n"/>
-      <c r="M27" s="47">
+      <c r="L27" s="48" t="n"/>
+      <c r="M27" s="48">
         <f>IF(M26&lt;&gt;0, M$4+M25,0)</f>
         <v/>
       </c>
@@ -2236,68 +2258,68 @@
       <c r="B28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="54" t="n">
+      <c r="C28" s="55" t="n">
         <v>2219.97</v>
       </c>
-      <c r="D28" s="54" t="n">
+      <c r="D28" s="55" t="n">
         <v>2381.27</v>
       </c>
-      <c r="E28" s="54" t="n">
+      <c r="E28" s="55" t="n">
         <v>1930.85</v>
       </c>
-      <c r="F28" s="54" t="n"/>
-      <c r="G28" s="54" t="n">
+      <c r="F28" s="55" t="n"/>
+      <c r="G28" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="54" t="n"/>
-      <c r="I28" s="54" t="n"/>
-      <c r="J28" s="54" t="n"/>
-      <c r="K28" s="54" t="n"/>
-      <c r="L28" s="54" t="n"/>
-      <c r="M28" s="54" t="n"/>
+      <c r="H28" s="55" t="n"/>
+      <c r="I28" s="55" t="n"/>
+      <c r="J28" s="55" t="n"/>
+      <c r="K28" s="55" t="n"/>
+      <c r="L28" s="55" t="n"/>
+      <c r="M28" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="29" s="26" spans="1:19">
       <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="51">
         <f>+C27-C28</f>
         <v/>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="51">
         <f>+D27-D28</f>
         <v/>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="51">
         <f>+E27-E28</f>
         <v/>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="51">
         <f>+F27-F28</f>
         <v/>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="51">
         <f>+G27-G28</f>
         <v/>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="51">
         <f>+H27-H28</f>
         <v/>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="51">
         <f>+I27-I28</f>
         <v/>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="51">
         <f>+J27-J28</f>
         <v/>
       </c>
-      <c r="K29" s="50">
+      <c r="K29" s="51">
         <f>+K27-K28</f>
         <v/>
       </c>
-      <c r="L29" s="50" t="n"/>
-      <c r="M29" s="50">
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51">
         <f>+M27-M28</f>
         <v/>
       </c>
@@ -2309,68 +2331,68 @@
       <c r="B30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="54" t="n">
+      <c r="C30" s="55" t="n">
         <v>1264.8</v>
       </c>
-      <c r="D30" s="54" t="n">
+      <c r="D30" s="55" t="n">
         <v>718.73</v>
       </c>
-      <c r="E30" s="54" t="n">
+      <c r="E30" s="55" t="n">
         <v>-1930.85</v>
       </c>
-      <c r="F30" s="54" t="n"/>
-      <c r="G30" s="54" t="n">
+      <c r="F30" s="55" t="n"/>
+      <c r="G30" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="54" t="n"/>
-      <c r="I30" s="54" t="n"/>
-      <c r="J30" s="54" t="n"/>
-      <c r="K30" s="54" t="n"/>
-      <c r="L30" s="54" t="n"/>
-      <c r="M30" s="54" t="n"/>
+      <c r="H30" s="55" t="n"/>
+      <c r="I30" s="55" t="n"/>
+      <c r="J30" s="55" t="n"/>
+      <c r="K30" s="55" t="n"/>
+      <c r="L30" s="55" t="n"/>
+      <c r="M30" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="31" s="26" spans="1:19">
       <c r="B31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="54">
         <f>+C28+C30</f>
         <v/>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="54">
         <f>+D28+D30</f>
         <v/>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="54">
         <f>+E28+E30</f>
         <v/>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="54">
         <f>+F28+F30</f>
         <v/>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="54">
         <f>+G28+G30</f>
         <v/>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="54">
         <f>+H28+H30</f>
         <v/>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="54">
         <f>+I28+I30</f>
         <v/>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="54">
         <f>+J28+J30</f>
         <v/>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="54">
         <f>+K28+K30</f>
         <v/>
       </c>
-      <c r="L31" s="53" t="n"/>
-      <c r="M31" s="53">
+      <c r="L31" s="54" t="n"/>
+      <c r="M31" s="54">
         <f>+M28+M30</f>
         <v/>
       </c>
@@ -2379,44 +2401,44 @@
       <c r="B32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="56">
         <f>+C27-C31</f>
         <v/>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="56">
         <f>+D27-D31</f>
         <v/>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="56">
         <f>+E27-E31</f>
         <v/>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="56">
         <f>+F27-F31</f>
         <v/>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="56">
         <f>+G27-G31</f>
         <v/>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="56">
         <f>+H27-H31</f>
         <v/>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="56">
         <f>+I27-I31</f>
         <v/>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="56">
         <f>+J27-J31</f>
         <v/>
       </c>
-      <c r="K32" s="55">
+      <c r="K32" s="56">
         <f>+K27-K31</f>
         <v/>
       </c>
-      <c r="L32" s="55" t="n"/>
-      <c r="M32" s="55">
+      <c r="L32" s="56" t="n"/>
+      <c r="M32" s="56">
         <f>+M27-M31</f>
         <v/>
       </c>
@@ -2433,53 +2455,53 @@
       <c r="E33" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="47" t="n">
+      <c r="G33" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="47" t="n"/>
+      <c r="I33" s="48" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="34" s="26" spans="1:19">
       <c r="B34" s="10" t="n">
         <v>43028</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="48">
         <f>IF(C33&lt;&gt;0, C$4+C32,0)</f>
         <v/>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="48">
         <f>IF(D33&lt;&gt;0, D$4+D32,0)</f>
         <v/>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="48">
         <f>IF(E33&lt;&gt;0, E$4+E32,0)</f>
         <v/>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="48">
         <f>IF(F33&lt;&gt;0, F$4+F32,0)</f>
         <v/>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="48">
         <f>IF(G33&lt;&gt;0, G$4+G32,0)</f>
         <v/>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="48">
         <f>IF(H33&lt;&gt;0, H$4+H32,0)</f>
         <v/>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="48">
         <f>IF(I33&lt;&gt;0, I$4+I32,0)</f>
         <v/>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="48">
         <f>IF(J33&lt;&gt;0, J$4+J32,0)</f>
         <v/>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="48">
         <f>IF(K33&lt;&gt;0, K$4+K32,0)</f>
         <v/>
       </c>
-      <c r="L34" s="47" t="n"/>
-      <c r="M34" s="47">
+      <c r="L34" s="48" t="n"/>
+      <c r="M34" s="48">
         <f>IF(M33&lt;&gt;0, M$4+M32,0)</f>
         <v/>
       </c>
@@ -2491,68 +2513,68 @@
       <c r="B35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="54" t="n">
+      <c r="C35" s="55" t="n">
         <v>2504.57</v>
       </c>
-      <c r="D35" s="54" t="n">
+      <c r="D35" s="55" t="n">
         <v>2224.09</v>
       </c>
-      <c r="E35" s="54" t="n">
+      <c r="E35" s="55" t="n">
         <v>2391.43</v>
       </c>
-      <c r="F35" s="54" t="n"/>
-      <c r="G35" s="54" t="n">
+      <c r="F35" s="55" t="n"/>
+      <c r="G35" s="55" t="n">
         <v>2500</v>
       </c>
-      <c r="H35" s="54" t="n"/>
-      <c r="I35" s="54" t="n"/>
-      <c r="J35" s="54" t="n"/>
-      <c r="K35" s="54" t="n"/>
-      <c r="L35" s="54" t="n"/>
-      <c r="M35" s="54" t="n"/>
+      <c r="H35" s="55" t="n"/>
+      <c r="I35" s="55" t="n"/>
+      <c r="J35" s="55" t="n"/>
+      <c r="K35" s="55" t="n"/>
+      <c r="L35" s="55" t="n"/>
+      <c r="M35" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="36" s="26" spans="1:19">
       <c r="B36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="51">
         <f>+C34-C35</f>
         <v/>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="51">
         <f>+D34-D35</f>
         <v/>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="51">
         <f>+E34-E35</f>
         <v/>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="51">
         <f>+F34-F35</f>
         <v/>
       </c>
-      <c r="G36" s="50">
+      <c r="G36" s="51">
         <f>+G34-G35</f>
         <v/>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="51">
         <f>+H34-H35</f>
         <v/>
       </c>
-      <c r="I36" s="50">
+      <c r="I36" s="51">
         <f>+I34-I35</f>
         <v/>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="51">
         <f>+J34-J35</f>
         <v/>
       </c>
-      <c r="K36" s="50">
+      <c r="K36" s="51">
         <f>+K34-K35</f>
         <v/>
       </c>
-      <c r="L36" s="50" t="n"/>
-      <c r="M36" s="50">
+      <c r="L36" s="51" t="n"/>
+      <c r="M36" s="51">
         <f>+M34-M35</f>
         <v/>
       </c>
@@ -2564,64 +2586,64 @@
       <c r="B37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="54" t="n">
+      <c r="C37" s="55" t="n">
         <v>225.74</v>
       </c>
-      <c r="D37" s="54" t="n"/>
-      <c r="E37" s="54" t="n">
+      <c r="D37" s="55" t="n"/>
+      <c r="E37" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="54" t="n"/>
-      <c r="G37" s="54" t="n"/>
-      <c r="H37" s="54" t="n"/>
-      <c r="I37" s="54" t="n"/>
-      <c r="J37" s="54" t="n"/>
-      <c r="K37" s="54" t="n"/>
-      <c r="L37" s="54" t="n"/>
-      <c r="M37" s="54" t="n"/>
+      <c r="F37" s="55" t="n"/>
+      <c r="G37" s="55" t="n"/>
+      <c r="H37" s="55" t="n"/>
+      <c r="I37" s="55" t="n"/>
+      <c r="J37" s="55" t="n"/>
+      <c r="K37" s="55" t="n"/>
+      <c r="L37" s="55" t="n"/>
+      <c r="M37" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="38" s="26" spans="1:19">
       <c r="B38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="54">
         <f>+C35+C37</f>
         <v/>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="54">
         <f>+D35+D37</f>
         <v/>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="54">
         <f>+E35+E37</f>
         <v/>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="54">
         <f>+F35+F37</f>
         <v/>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="54">
         <f>+G35+G37</f>
         <v/>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="54">
         <f>+H35+H37</f>
         <v/>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="54">
         <f>+I35+I37</f>
         <v/>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="54">
         <f>+J35+J37</f>
         <v/>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="54">
         <f>+K35+K37</f>
         <v/>
       </c>
-      <c r="L38" s="53" t="n"/>
-      <c r="M38" s="53">
+      <c r="L38" s="54" t="n"/>
+      <c r="M38" s="54">
         <f>+M35+M37</f>
         <v/>
       </c>
@@ -2630,44 +2652,44 @@
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="56">
         <f>+C34-C38</f>
         <v/>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="56">
         <f>+D34-D38</f>
         <v/>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="56">
         <f>+E34-E38</f>
         <v/>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="56">
         <f>+F34-F38</f>
         <v/>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="56">
         <f>+G34-G38</f>
         <v/>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="56">
         <f>+H34-H38</f>
         <v/>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="56">
         <f>+I34-I38</f>
         <v/>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="56">
         <f>+J34-J38</f>
         <v/>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="56">
         <f>+K34-K38</f>
         <v/>
       </c>
-      <c r="L39" s="55" t="n"/>
-      <c r="M39" s="55">
+      <c r="L39" s="56" t="n"/>
+      <c r="M39" s="56">
         <f>+M34-M38</f>
         <v/>
       </c>
@@ -2697,29 +2719,29 @@
       <c r="B41" s="10" t="n">
         <v>43035</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="48">
         <f>+IF(C40&lt;&gt;0, C39+C4,0)</f>
         <v/>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="48">
         <f>2480+D39</f>
         <v/>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="48">
         <f>+IF(E40&lt;&gt;0, E39+E4,0)</f>
         <v/>
       </c>
-      <c r="F41" s="47" t="n"/>
-      <c r="G41" s="47">
+      <c r="F41" s="48" t="n"/>
+      <c r="G41" s="48">
         <f>+IF(G40&lt;&gt;0, G39+G4,0)</f>
         <v/>
       </c>
-      <c r="H41" s="47" t="n"/>
-      <c r="I41" s="47" t="n"/>
-      <c r="J41" s="47" t="n"/>
-      <c r="K41" s="47" t="n"/>
-      <c r="L41" s="47" t="n"/>
-      <c r="M41" s="47" t="n"/>
+      <c r="H41" s="48" t="n"/>
+      <c r="I41" s="48" t="n"/>
+      <c r="J41" s="48" t="n"/>
+      <c r="K41" s="48" t="n"/>
+      <c r="L41" s="48" t="n"/>
+      <c r="M41" s="48" t="n"/>
     </row>
     <row outlineLevel="1" r="42" s="26" spans="1:19">
       <c r="A42" s="23" t="n">
@@ -2728,53 +2750,53 @@
       <c r="B42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="54" t="n">
+      <c r="C42" s="55" t="n">
         <v>2241.16</v>
       </c>
-      <c r="D42" s="54" t="n">
+      <c r="D42" s="55" t="n">
         <v>408.89</v>
       </c>
-      <c r="E42" s="54" t="n">
+      <c r="E42" s="55" t="n">
         <v>933.38</v>
       </c>
-      <c r="F42" s="54" t="n"/>
-      <c r="G42" s="54" t="n">
+      <c r="F42" s="55" t="n"/>
+      <c r="G42" s="55" t="n">
         <v>2443.48</v>
       </c>
-      <c r="H42" s="54" t="n"/>
-      <c r="I42" s="54" t="n"/>
-      <c r="J42" s="54" t="n"/>
-      <c r="K42" s="54" t="n"/>
-      <c r="L42" s="54" t="n"/>
-      <c r="M42" s="54" t="n"/>
+      <c r="H42" s="55" t="n"/>
+      <c r="I42" s="55" t="n"/>
+      <c r="J42" s="55" t="n"/>
+      <c r="K42" s="55" t="n"/>
+      <c r="L42" s="55" t="n"/>
+      <c r="M42" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="43" s="26" spans="1:19">
       <c r="B43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="51">
         <f>+C41-C42</f>
         <v/>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="51">
         <f>+D41-D42</f>
         <v/>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="51">
         <f>+E41-E42</f>
         <v/>
       </c>
-      <c r="F43" s="50" t="n"/>
-      <c r="G43" s="50">
+      <c r="F43" s="51" t="n"/>
+      <c r="G43" s="51">
         <f>+G41-G42</f>
         <v/>
       </c>
-      <c r="H43" s="50" t="n"/>
-      <c r="I43" s="50" t="n"/>
-      <c r="J43" s="50" t="n"/>
-      <c r="K43" s="50" t="n"/>
-      <c r="L43" s="50" t="n"/>
-      <c r="M43" s="50" t="n"/>
+      <c r="H43" s="51" t="n"/>
+      <c r="I43" s="51" t="n"/>
+      <c r="J43" s="51" t="n"/>
+      <c r="K43" s="51" t="n"/>
+      <c r="L43" s="51" t="n"/>
+      <c r="M43" s="51" t="n"/>
     </row>
     <row outlineLevel="1" r="44" s="26" spans="1:19">
       <c r="A44" s="28" t="s">
@@ -2783,66 +2805,66 @@
       <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="54" t="n">
+      <c r="C44" s="55" t="n">
         <v>714.88</v>
       </c>
-      <c r="D44" s="54" t="n">
+      <c r="D44" s="55" t="n">
         <v>2947.02</v>
       </c>
-      <c r="E44" s="54" t="n">
+      <c r="E44" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="54" t="n"/>
-      <c r="G44" s="54" t="n"/>
-      <c r="H44" s="54" t="n"/>
-      <c r="I44" s="54" t="n"/>
-      <c r="J44" s="54" t="n"/>
-      <c r="K44" s="54" t="n"/>
-      <c r="L44" s="54" t="n"/>
-      <c r="M44" s="54" t="n"/>
+      <c r="F44" s="55" t="n"/>
+      <c r="G44" s="55" t="n"/>
+      <c r="H44" s="55" t="n"/>
+      <c r="I44" s="55" t="n"/>
+      <c r="J44" s="55" t="n"/>
+      <c r="K44" s="55" t="n"/>
+      <c r="L44" s="55" t="n"/>
+      <c r="M44" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="45" s="26" spans="1:19">
       <c r="B45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="54">
         <f>+C42+C44</f>
         <v/>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="54">
         <f>+D42+D44</f>
         <v/>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="54">
         <f>+E42+E44</f>
         <v/>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="54">
         <f>+F42+F44</f>
         <v/>
       </c>
-      <c r="G45" s="53">
+      <c r="G45" s="54">
         <f>+G42+G44</f>
         <v/>
       </c>
-      <c r="H45" s="53">
+      <c r="H45" s="54">
         <f>+H42+H44</f>
         <v/>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="54">
         <f>+I42+I44</f>
         <v/>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="54">
         <f>+J42+J44</f>
         <v/>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="54">
         <f>+K42+K44</f>
         <v/>
       </c>
-      <c r="L45" s="53" t="n"/>
-      <c r="M45" s="53">
+      <c r="L45" s="54" t="n"/>
+      <c r="M45" s="54">
         <f>+M42+M44</f>
         <v/>
       </c>
@@ -2851,44 +2873,44 @@
       <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="56">
         <f>+C41-C45</f>
         <v/>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="56">
         <f>+D41-D45</f>
         <v/>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="56">
         <f>+E41-E45</f>
         <v/>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="56">
         <f>+F41-F45</f>
         <v/>
       </c>
-      <c r="G46" s="55">
+      <c r="G46" s="56">
         <f>+G41-G45</f>
         <v/>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="56">
         <f>+H41-H45</f>
         <v/>
       </c>
-      <c r="I46" s="55">
+      <c r="I46" s="56">
         <f>+I41-I45</f>
         <v/>
       </c>
-      <c r="J46" s="55">
+      <c r="J46" s="56">
         <f>+J41-J45</f>
         <v/>
       </c>
-      <c r="K46" s="55">
+      <c r="K46" s="56">
         <f>+K41-K45</f>
         <v/>
       </c>
-      <c r="L46" s="55" t="n"/>
-      <c r="M46" s="55">
+      <c r="L46" s="56" t="n"/>
+      <c r="M46" s="56">
         <f>+M41-M45</f>
         <v/>
       </c>
@@ -2917,44 +2939,44 @@
       <c r="B48" s="10" t="n">
         <v>43038</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="48">
         <f>+IF(C47&lt;&gt;0, C$4+C46)</f>
         <v/>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="48">
         <f>+IF(D47&lt;&gt;0, D$5+D46)</f>
         <v/>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="48">
         <f>+IF(E47&lt;&gt;0, E$4+E46,0)</f>
         <v/>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="48">
         <f>+IF(F47&lt;&gt;0, F$4+F46,0)</f>
         <v/>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="48">
         <f>+IF(G47&lt;&gt;0, G$4+G46,0)</f>
         <v/>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="48">
         <f>+IF(H47&lt;&gt;0, H$4+H46,0)</f>
         <v/>
       </c>
-      <c r="I48" s="47">
+      <c r="I48" s="48">
         <f>+IF(I47&lt;&gt;0, I$4+I46,0)</f>
         <v/>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="48">
         <f>+IF(J47&lt;&gt;0, J$4+J46,0)</f>
         <v/>
       </c>
-      <c r="K48" s="47">
+      <c r="K48" s="48">
         <f>+IF(K47&lt;&gt;0, K$4+K46,0)</f>
         <v/>
       </c>
-      <c r="L48" s="47" t="n"/>
-      <c r="M48" s="47">
+      <c r="L48" s="48" t="n"/>
+      <c r="M48" s="48">
         <f>+IF(M47&lt;&gt;0, M$4+M46,0)</f>
         <v/>
       </c>
@@ -2966,68 +2988,68 @@
       <c r="B49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="54" t="n">
+      <c r="C49" s="55" t="n">
         <v>2525.2</v>
       </c>
-      <c r="D49" s="54" t="n">
+      <c r="D49" s="55" t="n">
         <v>1554.53</v>
       </c>
-      <c r="E49" s="54" t="n">
+      <c r="E49" s="55" t="n">
         <v>1650.25</v>
       </c>
-      <c r="F49" s="54" t="n"/>
-      <c r="G49" s="54" t="n">
+      <c r="F49" s="55" t="n"/>
+      <c r="G49" s="55" t="n">
         <v>2380.36</v>
       </c>
-      <c r="H49" s="54" t="n"/>
-      <c r="I49" s="54" t="n"/>
-      <c r="J49" s="54" t="n"/>
-      <c r="K49" s="54" t="n"/>
-      <c r="L49" s="54" t="n"/>
-      <c r="M49" s="54" t="n"/>
+      <c r="H49" s="55" t="n"/>
+      <c r="I49" s="55" t="n"/>
+      <c r="J49" s="55" t="n"/>
+      <c r="K49" s="55" t="n"/>
+      <c r="L49" s="55" t="n"/>
+      <c r="M49" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="50" s="26" spans="1:19">
       <c r="B50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="51">
         <f>+C48-C49</f>
         <v/>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="51">
         <f>+D48-D49</f>
         <v/>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="51">
         <f>+E48-E49</f>
         <v/>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="51">
         <f>+F48-F49</f>
         <v/>
       </c>
-      <c r="G50" s="50">
+      <c r="G50" s="51">
         <f>+G48-G49</f>
         <v/>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="51">
         <f>+H48-H49</f>
         <v/>
       </c>
-      <c r="I50" s="50">
+      <c r="I50" s="51">
         <f>+I48-I49</f>
         <v/>
       </c>
-      <c r="J50" s="50">
+      <c r="J50" s="51">
         <f>+J48-J49</f>
         <v/>
       </c>
-      <c r="K50" s="50">
+      <c r="K50" s="51">
         <f>+K48-K49</f>
         <v/>
       </c>
-      <c r="L50" s="50" t="n"/>
-      <c r="M50" s="50">
+      <c r="L50" s="51" t="n"/>
+      <c r="M50" s="51">
         <f>+M48-M49</f>
         <v/>
       </c>
@@ -3036,62 +3058,62 @@
       <c r="B51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="54" t="n"/>
-      <c r="D51" s="54" t="n"/>
-      <c r="E51" s="54" t="n">
+      <c r="C51" s="55" t="n"/>
+      <c r="D51" s="55" t="n"/>
+      <c r="E51" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F51" s="54" t="n"/>
-      <c r="G51" s="54" t="n"/>
-      <c r="H51" s="54" t="n"/>
-      <c r="I51" s="54" t="n"/>
-      <c r="J51" s="54" t="n"/>
-      <c r="K51" s="54" t="n"/>
-      <c r="L51" s="54" t="n"/>
-      <c r="M51" s="54" t="n"/>
+      <c r="F51" s="55" t="n"/>
+      <c r="G51" s="55" t="n"/>
+      <c r="H51" s="55" t="n"/>
+      <c r="I51" s="55" t="n"/>
+      <c r="J51" s="55" t="n"/>
+      <c r="K51" s="55" t="n"/>
+      <c r="L51" s="55" t="n"/>
+      <c r="M51" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="52" s="26" spans="1:19">
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>+C49+C51</f>
         <v/>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="54">
         <f>+D49+D51</f>
         <v/>
       </c>
-      <c r="E52" s="53">
+      <c r="E52" s="54">
         <f>+E49+E51</f>
         <v/>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="54">
         <f>+F49+F51</f>
         <v/>
       </c>
-      <c r="G52" s="53">
+      <c r="G52" s="54">
         <f>+G49+G51</f>
         <v/>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="54">
         <f>+H49+H51</f>
         <v/>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="54">
         <f>+I49+I51</f>
         <v/>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="54">
         <f>+J49+J51</f>
         <v/>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="54">
         <f>+K49+K51</f>
         <v/>
       </c>
-      <c r="L52" s="53" t="n"/>
-      <c r="M52" s="53">
+      <c r="L52" s="54" t="n"/>
+      <c r="M52" s="54">
         <f>+M49+M51</f>
         <v/>
       </c>
@@ -3100,44 +3122,44 @@
       <c r="B53" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="56">
         <f>+C48-C52</f>
         <v/>
       </c>
-      <c r="D53" s="55">
+      <c r="D53" s="56">
         <f>+D48-D52</f>
         <v/>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="56">
         <f>+E48-E52</f>
         <v/>
       </c>
-      <c r="F53" s="55">
+      <c r="F53" s="56">
         <f>+F48-F52</f>
         <v/>
       </c>
-      <c r="G53" s="55">
+      <c r="G53" s="56">
         <f>+G48-G52</f>
         <v/>
       </c>
-      <c r="H53" s="55">
+      <c r="H53" s="56">
         <f>+H48-H52</f>
         <v/>
       </c>
-      <c r="I53" s="55">
+      <c r="I53" s="56">
         <f>+I48-I52</f>
         <v/>
       </c>
-      <c r="J53" s="55">
+      <c r="J53" s="56">
         <f>+J48-J52</f>
         <v/>
       </c>
-      <c r="K53" s="55">
+      <c r="K53" s="56">
         <f>+K48-K52</f>
         <v/>
       </c>
-      <c r="L53" s="55" t="n"/>
-      <c r="M53" s="55">
+      <c r="L53" s="56" t="n"/>
+      <c r="M53" s="56">
         <f>+M48-M52</f>
         <v/>
       </c>
@@ -3169,44 +3191,44 @@
       <c r="B55" s="10" t="n">
         <v>43045</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="48">
         <f>+IF(C54&lt;&gt;0, C$4+C53)</f>
         <v/>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="48">
         <f>+IF(D54&lt;&gt;0, D$5+D53)</f>
         <v/>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="48">
         <f>+IF(E54&lt;&gt;0, E$4+E53,0)</f>
         <v/>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="48">
         <f>+IF(F54&lt;&gt;0, F$4+F53,0)</f>
         <v/>
       </c>
-      <c r="G55" s="47">
+      <c r="G55" s="48">
         <f>+IF(G54&lt;&gt;0, G$4+G53,0)</f>
         <v/>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <f>+IF(H54&lt;&gt;0, H$4+H53,0)</f>
         <v/>
       </c>
-      <c r="I55" s="47">
+      <c r="I55" s="48">
         <f>+IF(I54&lt;&gt;0, I$4+I53,0)</f>
         <v/>
       </c>
-      <c r="J55" s="47">
+      <c r="J55" s="48">
         <f>+IF(J54&lt;&gt;0, J$4+J53,0)</f>
         <v/>
       </c>
-      <c r="K55" s="47">
+      <c r="K55" s="48">
         <f>+IF(K54&lt;&gt;0, K$4+K53,0)</f>
         <v/>
       </c>
-      <c r="L55" s="47" t="n"/>
-      <c r="M55" s="47">
+      <c r="L55" s="48" t="n"/>
+      <c r="M55" s="48">
         <f>+IF(M54&lt;&gt;0, M$4+M53,0)</f>
         <v/>
       </c>
@@ -3215,68 +3237,68 @@
       <c r="B56" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="54" t="n">
+      <c r="C56" s="55" t="n">
         <v>253.9</v>
       </c>
-      <c r="D56" s="54" t="n">
+      <c r="D56" s="55" t="n">
         <v>1478.66</v>
       </c>
-      <c r="E56" s="54" t="n">
+      <c r="E56" s="55" t="n">
         <v>146.83</v>
       </c>
-      <c r="F56" s="54" t="n"/>
-      <c r="G56" s="54" t="n">
+      <c r="F56" s="55" t="n"/>
+      <c r="G56" s="55" t="n">
         <v>1067.04</v>
       </c>
-      <c r="H56" s="54" t="n"/>
-      <c r="I56" s="54" t="n"/>
-      <c r="J56" s="54" t="n"/>
-      <c r="K56" s="54" t="n"/>
-      <c r="L56" s="54" t="n"/>
-      <c r="M56" s="54" t="n"/>
+      <c r="H56" s="55" t="n"/>
+      <c r="I56" s="55" t="n"/>
+      <c r="J56" s="55" t="n"/>
+      <c r="K56" s="55" t="n"/>
+      <c r="L56" s="55" t="n"/>
+      <c r="M56" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="57" s="26" spans="1:19">
       <c r="B57" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="51">
         <f>+C55-C56</f>
         <v/>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="51">
         <f>+D55-D56</f>
         <v/>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="51">
         <f>+E55-E56</f>
         <v/>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="51">
         <f>+F55-F56</f>
         <v/>
       </c>
-      <c r="G57" s="50">
+      <c r="G57" s="51">
         <f>+G55-G56</f>
         <v/>
       </c>
-      <c r="H57" s="50">
+      <c r="H57" s="51">
         <f>+H55-H56</f>
         <v/>
       </c>
-      <c r="I57" s="50">
+      <c r="I57" s="51">
         <f>+I55-I56</f>
         <v/>
       </c>
-      <c r="J57" s="50">
+      <c r="J57" s="51">
         <f>+J55-J56</f>
         <v/>
       </c>
-      <c r="K57" s="50">
+      <c r="K57" s="51">
         <f>+K55-K56</f>
         <v/>
       </c>
-      <c r="L57" s="50" t="n"/>
-      <c r="M57" s="50">
+      <c r="L57" s="51" t="n"/>
+      <c r="M57" s="51">
         <f>+M55-M56</f>
         <v/>
       </c>
@@ -3288,64 +3310,64 @@
       <c r="B58" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="54" t="n">
+      <c r="C58" s="55" t="n">
         <v>2681.37</v>
       </c>
-      <c r="D58" s="54" t="n"/>
-      <c r="E58" s="54" t="n">
+      <c r="D58" s="55" t="n"/>
+      <c r="E58" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F58" s="54" t="n"/>
-      <c r="G58" s="54" t="n"/>
-      <c r="H58" s="54" t="n"/>
-      <c r="I58" s="54" t="n"/>
-      <c r="J58" s="54" t="n"/>
-      <c r="K58" s="54" t="n"/>
-      <c r="L58" s="54" t="n"/>
-      <c r="M58" s="54" t="n"/>
+      <c r="F58" s="55" t="n"/>
+      <c r="G58" s="55" t="n"/>
+      <c r="H58" s="55" t="n"/>
+      <c r="I58" s="55" t="n"/>
+      <c r="J58" s="55" t="n"/>
+      <c r="K58" s="55" t="n"/>
+      <c r="L58" s="55" t="n"/>
+      <c r="M58" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="59" s="26" spans="1:19">
       <c r="B59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="54">
         <f>+C56+C58</f>
         <v/>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="54">
         <f>+D56+D58</f>
         <v/>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="54">
         <f>+E56+E58</f>
         <v/>
       </c>
-      <c r="F59" s="53">
+      <c r="F59" s="54">
         <f>+F56+F58</f>
         <v/>
       </c>
-      <c r="G59" s="53">
+      <c r="G59" s="54">
         <f>+G56+G58</f>
         <v/>
       </c>
-      <c r="H59" s="53">
+      <c r="H59" s="54">
         <f>+H56+H58</f>
         <v/>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="54">
         <f>+I56+I58</f>
         <v/>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="54">
         <f>+J56+J58</f>
         <v/>
       </c>
-      <c r="K59" s="53">
+      <c r="K59" s="54">
         <f>+K56+K58</f>
         <v/>
       </c>
-      <c r="L59" s="53" t="n"/>
-      <c r="M59" s="53">
+      <c r="L59" s="54" t="n"/>
+      <c r="M59" s="54">
         <f>+M56+M58</f>
         <v/>
       </c>
@@ -3354,44 +3376,44 @@
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="56">
         <f>+C55-C59</f>
         <v/>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="56">
         <f>+D55-D59</f>
         <v/>
       </c>
-      <c r="E60" s="55">
+      <c r="E60" s="56">
         <f>+E55-E59</f>
         <v/>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="56">
         <f>+F55-F59</f>
         <v/>
       </c>
-      <c r="G60" s="55">
+      <c r="G60" s="56">
         <f>+G55-G59</f>
         <v/>
       </c>
-      <c r="H60" s="55">
+      <c r="H60" s="56">
         <f>+H55-H59</f>
         <v/>
       </c>
-      <c r="I60" s="55">
+      <c r="I60" s="56">
         <f>+I55-I59</f>
         <v/>
       </c>
-      <c r="J60" s="55">
+      <c r="J60" s="56">
         <f>+J55-J59</f>
         <v/>
       </c>
-      <c r="K60" s="55">
+      <c r="K60" s="56">
         <f>+K55-K59</f>
         <v/>
       </c>
-      <c r="L60" s="55" t="n"/>
-      <c r="M60" s="55">
+      <c r="L60" s="56" t="n"/>
+      <c r="M60" s="56">
         <f>+M55-M59</f>
         <v/>
       </c>
@@ -3421,44 +3443,44 @@
       <c r="B62" s="10" t="n">
         <v>43052</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="48">
         <f>+IF(C61&lt;&gt;0, C$4+C60)</f>
         <v/>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="48">
         <f>+IF(D61&lt;&gt;0, D$5+D60)</f>
         <v/>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="48">
         <f>+IF(E61&lt;&gt;0, E$4+E60,0)</f>
         <v/>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="48">
         <f>+IF(F61&lt;&gt;0, F$4+F60,0)</f>
         <v/>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="48">
         <f>+IF(G61&lt;&gt;0, G$4+G60,0)</f>
         <v/>
       </c>
-      <c r="H62" s="47">
+      <c r="H62" s="48">
         <f>+IF(H61&lt;&gt;0, H$4+H60,0)</f>
         <v/>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="48">
         <f>+IF(I61&lt;&gt;0, I$4+I60,0)</f>
         <v/>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="48">
         <f>+IF(J61&lt;&gt;0, J$4+J60,0)</f>
         <v/>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="48">
         <f>+IF(K61&lt;&gt;0, K$4+K60,0)</f>
         <v/>
       </c>
-      <c r="L62" s="47" t="n"/>
-      <c r="M62" s="47">
+      <c r="L62" s="48" t="n"/>
+      <c r="M62" s="48">
         <f>+IF(M61&lt;&gt;0, M$4+M60,0)</f>
         <v/>
       </c>
@@ -3467,68 +3489,68 @@
       <c r="B63" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="54" t="n">
+      <c r="C63" s="55" t="n">
         <v>1634.55</v>
       </c>
-      <c r="D63" s="54" t="n">
+      <c r="D63" s="55" t="n">
         <v>2578.88</v>
       </c>
-      <c r="E63" s="54" t="n">
+      <c r="E63" s="55" t="n">
         <v>1265.63</v>
       </c>
-      <c r="F63" s="54" t="n"/>
-      <c r="G63" s="54" t="n">
+      <c r="F63" s="55" t="n"/>
+      <c r="G63" s="55" t="n">
         <v>3532.46</v>
       </c>
-      <c r="H63" s="54" t="n"/>
-      <c r="I63" s="54" t="n"/>
-      <c r="J63" s="54" t="n"/>
-      <c r="K63" s="54" t="n"/>
-      <c r="L63" s="54" t="n"/>
-      <c r="M63" s="54" t="n"/>
+      <c r="H63" s="55" t="n"/>
+      <c r="I63" s="55" t="n"/>
+      <c r="J63" s="55" t="n"/>
+      <c r="K63" s="55" t="n"/>
+      <c r="L63" s="55" t="n"/>
+      <c r="M63" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="64" s="26" spans="1:19">
       <c r="B64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="51">
         <f>+C62-C63</f>
         <v/>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="51">
         <f>+D62-D63</f>
         <v/>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="51">
         <f>+E62-E63</f>
         <v/>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="51">
         <f>+F62-F63</f>
         <v/>
       </c>
-      <c r="G64" s="50">
+      <c r="G64" s="51">
         <f>+G62-G63</f>
         <v/>
       </c>
-      <c r="H64" s="50">
+      <c r="H64" s="51">
         <f>+H62-H63</f>
         <v/>
       </c>
-      <c r="I64" s="50">
+      <c r="I64" s="51">
         <f>+I62-I63</f>
         <v/>
       </c>
-      <c r="J64" s="50">
+      <c r="J64" s="51">
         <f>+J62-J63</f>
         <v/>
       </c>
-      <c r="K64" s="50">
+      <c r="K64" s="51">
         <f>+K62-K63</f>
         <v/>
       </c>
-      <c r="L64" s="50" t="n"/>
-      <c r="M64" s="50">
+      <c r="L64" s="51" t="n"/>
+      <c r="M64" s="51">
         <f>+M62-M63</f>
         <v/>
       </c>
@@ -3540,92 +3562,92 @@
       <c r="B65" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="54" t="n">
+      <c r="C65" s="55" t="n">
         <v>1095.72</v>
       </c>
-      <c r="D65" s="54" t="n"/>
-      <c r="E65" s="54" t="n">
+      <c r="D65" s="55" t="n"/>
+      <c r="E65" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="54" t="n"/>
-      <c r="G65" s="54" t="n"/>
-      <c r="H65" s="54" t="n"/>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="n"/>
-      <c r="K65" s="54" t="n"/>
-      <c r="L65" s="54" t="n"/>
-      <c r="M65" s="54" t="n"/>
+      <c r="F65" s="55" t="n"/>
+      <c r="G65" s="55" t="n"/>
+      <c r="H65" s="55" t="n"/>
+      <c r="I65" s="55" t="n"/>
+      <c r="J65" s="55" t="n"/>
+      <c r="K65" s="55" t="n"/>
+      <c r="L65" s="55" t="n"/>
+      <c r="M65" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="66" s="26" spans="1:19">
       <c r="B66" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="53">
+      <c r="C66" s="54">
         <f>+C63+C65</f>
         <v/>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="54">
         <f>+D63+D65</f>
         <v/>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="54">
         <f>+E63+E65</f>
         <v/>
       </c>
-      <c r="F66" s="53" t="n"/>
-      <c r="G66" s="53">
+      <c r="F66" s="54" t="n"/>
+      <c r="G66" s="54">
         <f>+G63+G65</f>
         <v/>
       </c>
-      <c r="H66" s="53" t="n"/>
-      <c r="I66" s="53" t="n"/>
-      <c r="J66" s="53" t="n"/>
-      <c r="K66" s="53" t="n"/>
-      <c r="L66" s="53" t="n"/>
-      <c r="M66" s="53" t="n"/>
+      <c r="H66" s="54" t="n"/>
+      <c r="I66" s="54" t="n"/>
+      <c r="J66" s="54" t="n"/>
+      <c r="K66" s="54" t="n"/>
+      <c r="L66" s="54" t="n"/>
+      <c r="M66" s="54" t="n"/>
     </row>
     <row r="67" spans="1:19">
       <c r="B67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="55">
+      <c r="C67" s="56">
         <f>+C62-C66</f>
         <v/>
       </c>
-      <c r="D67" s="55">
+      <c r="D67" s="56">
         <f>+D62-D66</f>
         <v/>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="56">
         <f>+E62-E66</f>
         <v/>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="56">
         <f>+F62-F66</f>
         <v/>
       </c>
-      <c r="G67" s="55">
+      <c r="G67" s="56">
         <f>+G62-G66</f>
         <v/>
       </c>
-      <c r="H67" s="55">
+      <c r="H67" s="56">
         <f>+H62-H66</f>
         <v/>
       </c>
-      <c r="I67" s="55">
+      <c r="I67" s="56">
         <f>+I62-I66</f>
         <v/>
       </c>
-      <c r="J67" s="55">
+      <c r="J67" s="56">
         <f>+J62-J66</f>
         <v/>
       </c>
-      <c r="K67" s="55">
+      <c r="K67" s="56">
         <f>+K62-K66</f>
         <v/>
       </c>
-      <c r="L67" s="55" t="n"/>
-      <c r="M67" s="55">
+      <c r="L67" s="56" t="n"/>
+      <c r="M67" s="56">
         <f>+M62-M66</f>
         <v/>
       </c>
@@ -3660,44 +3682,44 @@
       <c r="B69" s="10" t="n">
         <v>43059</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="48">
         <f>+IF(C68&lt;&gt;0, C$4+C67)</f>
         <v/>
       </c>
-      <c r="D69" s="47">
+      <c r="D69" s="48">
         <f>+IF(D68&lt;&gt;0, D$5+D67)</f>
         <v/>
       </c>
-      <c r="E69" s="47">
+      <c r="E69" s="48">
         <f>+IF(E68&lt;&gt;0, E$4+E67,0)</f>
         <v/>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="48">
         <f>+IF(F68&lt;&gt;0, F$4+F67,0)</f>
         <v/>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="48">
         <f>+IF(G68&lt;&gt;0, G$4+G67,0)</f>
         <v/>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <f>+IF(H68&lt;&gt;0, H$4+H67,0)</f>
         <v/>
       </c>
-      <c r="I69" s="47">
+      <c r="I69" s="48">
         <f>+IF(I68&lt;&gt;0, I$4+I67,0)</f>
         <v/>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="48">
         <f>+IF(J68&lt;&gt;0, J$4+J67,0)</f>
         <v/>
       </c>
-      <c r="K69" s="47">
+      <c r="K69" s="48">
         <f>+IF(K68&lt;&gt;0, K$4+K67,0)</f>
         <v/>
       </c>
-      <c r="L69" s="47" t="n"/>
-      <c r="M69" s="47">
+      <c r="L69" s="48" t="n"/>
+      <c r="M69" s="48">
         <f>+IF(M68&lt;&gt;0, M$4+M67,0)</f>
         <v/>
       </c>
@@ -3706,70 +3728,70 @@
       <c r="B70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="54" t="n">
+      <c r="C70" s="55" t="n">
         <v>804.38</v>
       </c>
-      <c r="D70" s="54" t="n">
+      <c r="D70" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="E70" s="54" t="n">
+      <c r="E70" s="55" t="n">
         <v>73.04000000000001</v>
       </c>
-      <c r="F70" s="54" t="n"/>
-      <c r="G70" s="54" t="n">
+      <c r="F70" s="55" t="n"/>
+      <c r="G70" s="55" t="n">
         <v>1228.41</v>
       </c>
-      <c r="H70" s="54" t="n"/>
-      <c r="I70" s="54" t="n">
+      <c r="H70" s="55" t="n"/>
+      <c r="I70" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="J70" s="54" t="n"/>
-      <c r="K70" s="54" t="n"/>
-      <c r="L70" s="54" t="n"/>
-      <c r="M70" s="54" t="n"/>
+      <c r="J70" s="55" t="n"/>
+      <c r="K70" s="55" t="n"/>
+      <c r="L70" s="55" t="n"/>
+      <c r="M70" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="71" s="26" spans="1:19">
       <c r="B71" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="51">
         <f>+C69-C70</f>
         <v/>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="51">
         <f>+D69-D70</f>
         <v/>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="51">
         <f>+E69-E70</f>
         <v/>
       </c>
-      <c r="F71" s="50">
+      <c r="F71" s="51">
         <f>+F69-F70</f>
         <v/>
       </c>
-      <c r="G71" s="50">
+      <c r="G71" s="51">
         <f>+G69-G70</f>
         <v/>
       </c>
-      <c r="H71" s="50">
+      <c r="H71" s="51">
         <f>+H69-H70</f>
         <v/>
       </c>
-      <c r="I71" s="50">
+      <c r="I71" s="51">
         <f>+I69-I70</f>
         <v/>
       </c>
-      <c r="J71" s="50">
+      <c r="J71" s="51">
         <f>+J69-J70</f>
         <v/>
       </c>
-      <c r="K71" s="50">
+      <c r="K71" s="51">
         <f>+K69-K70</f>
         <v/>
       </c>
-      <c r="L71" s="50" t="n"/>
-      <c r="M71" s="50">
+      <c r="L71" s="51" t="n"/>
+      <c r="M71" s="51">
         <f>+M69-M70</f>
         <v/>
       </c>
@@ -3781,64 +3803,64 @@
       <c r="B72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="54" t="n">
+      <c r="C72" s="55" t="n">
         <v>1928.89</v>
       </c>
-      <c r="D72" s="54" t="n"/>
-      <c r="E72" s="54" t="n">
+      <c r="D72" s="55" t="n"/>
+      <c r="E72" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F72" s="54" t="n"/>
-      <c r="G72" s="54" t="n"/>
-      <c r="H72" s="54" t="n"/>
-      <c r="I72" s="54" t="n"/>
-      <c r="J72" s="54" t="n"/>
-      <c r="K72" s="54" t="n"/>
-      <c r="L72" s="54" t="n"/>
-      <c r="M72" s="54" t="n"/>
+      <c r="F72" s="55" t="n"/>
+      <c r="G72" s="55" t="n"/>
+      <c r="H72" s="55" t="n"/>
+      <c r="I72" s="55" t="n"/>
+      <c r="J72" s="55" t="n"/>
+      <c r="K72" s="55" t="n"/>
+      <c r="L72" s="55" t="n"/>
+      <c r="M72" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="73" s="26" spans="1:19">
       <c r="B73" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="54">
         <f>+C70+C72</f>
         <v/>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="54">
         <f>+D70+D72</f>
         <v/>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="54">
         <f>+E70+E72</f>
         <v/>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="54">
         <f>+F70+F72</f>
         <v/>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="54">
         <f>+G70+G72</f>
         <v/>
       </c>
-      <c r="H73" s="53">
+      <c r="H73" s="54">
         <f>+H70+H72</f>
         <v/>
       </c>
-      <c r="I73" s="53">
+      <c r="I73" s="54">
         <f>+I70+I72</f>
         <v/>
       </c>
-      <c r="J73" s="53">
+      <c r="J73" s="54">
         <f>+J70+J72</f>
         <v/>
       </c>
-      <c r="K73" s="53">
+      <c r="K73" s="54">
         <f>+K70+K72</f>
         <v/>
       </c>
-      <c r="L73" s="53" t="n"/>
-      <c r="M73" s="53">
+      <c r="L73" s="54" t="n"/>
+      <c r="M73" s="54">
         <f>+M70+M72</f>
         <v/>
       </c>
@@ -3847,44 +3869,44 @@
       <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="47">
+      <c r="C74" s="48">
         <f>+C69-C73</f>
         <v/>
       </c>
-      <c r="D74" s="47">
+      <c r="D74" s="48">
         <f>+D69-D73</f>
         <v/>
       </c>
-      <c r="E74" s="47">
+      <c r="E74" s="48">
         <f>+E69-E73</f>
         <v/>
       </c>
-      <c r="F74" s="47">
+      <c r="F74" s="48">
         <f>+F69-F73</f>
         <v/>
       </c>
-      <c r="G74" s="47">
+      <c r="G74" s="48">
         <f>+G69-G73</f>
         <v/>
       </c>
-      <c r="H74" s="47">
+      <c r="H74" s="48">
         <f>+H69-H73</f>
         <v/>
       </c>
-      <c r="I74" s="47">
+      <c r="I74" s="48">
         <f>+I69-I73</f>
         <v/>
       </c>
-      <c r="J74" s="47">
+      <c r="J74" s="48">
         <f>+J69-J73</f>
         <v/>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="48">
         <f>+K69-K73</f>
         <v/>
       </c>
-      <c r="L74" s="47" t="n"/>
-      <c r="M74" s="47">
+      <c r="L74" s="48" t="n"/>
+      <c r="M74" s="48">
         <f>+M69-M73</f>
         <v/>
       </c>
@@ -3915,44 +3937,44 @@
       <c r="B76" s="10" t="n">
         <v>43066</v>
       </c>
-      <c r="C76" s="47">
+      <c r="C76" s="48">
         <f>+IF(C75&lt;&gt;0, C$4+C74)</f>
         <v/>
       </c>
-      <c r="D76" s="47">
+      <c r="D76" s="48">
         <f>+IF(D75&lt;&gt;0, D$5+D74)</f>
         <v/>
       </c>
-      <c r="E76" s="47">
+      <c r="E76" s="48">
         <f>+IF(E75&lt;&gt;0, E$4+E74,0)</f>
         <v/>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="48">
         <f>+IF(F75&lt;&gt;0, F$4+F74,0)</f>
         <v/>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="48">
         <f>+IF(G75&lt;&gt;0, G$4+G74,0)</f>
         <v/>
       </c>
-      <c r="H76" s="47">
+      <c r="H76" s="48">
         <f>+IF(H75&lt;&gt;0, H$4+H74,0)</f>
         <v/>
       </c>
-      <c r="I76" s="47">
+      <c r="I76" s="48">
         <f>+IF(I75&lt;&gt;0, I$4+I74,0)</f>
         <v/>
       </c>
-      <c r="J76" s="47">
+      <c r="J76" s="48">
         <f>+IF(J75&lt;&gt;0, J$4+J74,0)</f>
         <v/>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="48">
         <f>+IF(K75&lt;&gt;0, K$4+K74,0)</f>
         <v/>
       </c>
-      <c r="L76" s="47" t="n"/>
-      <c r="M76" s="47">
+      <c r="L76" s="48" t="n"/>
+      <c r="M76" s="48">
         <f>+IF(M75&lt;&gt;0, M$4+M74,0)</f>
         <v/>
       </c>
@@ -3961,70 +3983,70 @@
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="54" t="n">
+      <c r="C77" s="55" t="n">
         <v>820.75</v>
       </c>
-      <c r="D77" s="54" t="n">
+      <c r="D77" s="55" t="n">
         <v>3720</v>
       </c>
-      <c r="E77" s="54" t="n">
+      <c r="E77" s="55" t="n">
         <v>789.76</v>
       </c>
-      <c r="F77" s="54" t="n"/>
-      <c r="G77" s="54" t="n">
+      <c r="F77" s="55" t="n"/>
+      <c r="G77" s="55" t="n">
         <v>2093.76</v>
       </c>
-      <c r="H77" s="54" t="n"/>
-      <c r="I77" s="54" t="n">
+      <c r="H77" s="55" t="n"/>
+      <c r="I77" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="J77" s="54" t="n"/>
-      <c r="K77" s="54" t="n"/>
-      <c r="L77" s="54" t="n"/>
-      <c r="M77" s="54" t="n"/>
+      <c r="J77" s="55" t="n"/>
+      <c r="K77" s="55" t="n"/>
+      <c r="L77" s="55" t="n"/>
+      <c r="M77" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="78" s="26" spans="1:19">
       <c r="B78" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="51">
         <f>+C76-C77</f>
         <v/>
       </c>
-      <c r="D78" s="50">
+      <c r="D78" s="51">
         <f>+D76-D77</f>
         <v/>
       </c>
-      <c r="E78" s="50">
+      <c r="E78" s="51">
         <f>+E76-E77</f>
         <v/>
       </c>
-      <c r="F78" s="50">
+      <c r="F78" s="51">
         <f>+F76-F77</f>
         <v/>
       </c>
-      <c r="G78" s="50">
+      <c r="G78" s="51">
         <f>+G76-G77</f>
         <v/>
       </c>
-      <c r="H78" s="50">
+      <c r="H78" s="51">
         <f>+H76-H77</f>
         <v/>
       </c>
-      <c r="I78" s="50">
+      <c r="I78" s="51">
         <f>+I76-I77</f>
         <v/>
       </c>
-      <c r="J78" s="50">
+      <c r="J78" s="51">
         <f>+J76-J77</f>
         <v/>
       </c>
-      <c r="K78" s="50">
+      <c r="K78" s="51">
         <f>+K76-K77</f>
         <v/>
       </c>
-      <c r="L78" s="50" t="n"/>
-      <c r="M78" s="50">
+      <c r="L78" s="51" t="n"/>
+      <c r="M78" s="51">
         <f>+M76-M77</f>
         <v/>
       </c>
@@ -4036,64 +4058,64 @@
       <c r="B79" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="54" t="n">
+      <c r="C79" s="55" t="n">
         <v>1906.52</v>
       </c>
-      <c r="D79" s="54" t="n"/>
-      <c r="E79" s="54" t="n">
+      <c r="D79" s="55" t="n"/>
+      <c r="E79" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F79" s="54" t="n"/>
-      <c r="G79" s="54" t="n"/>
-      <c r="H79" s="54" t="n"/>
-      <c r="I79" s="54" t="n"/>
-      <c r="J79" s="54" t="n"/>
-      <c r="K79" s="54" t="n"/>
-      <c r="L79" s="54" t="n"/>
-      <c r="M79" s="54" t="n"/>
+      <c r="F79" s="55" t="n"/>
+      <c r="G79" s="55" t="n"/>
+      <c r="H79" s="55" t="n"/>
+      <c r="I79" s="55" t="n"/>
+      <c r="J79" s="55" t="n"/>
+      <c r="K79" s="55" t="n"/>
+      <c r="L79" s="55" t="n"/>
+      <c r="M79" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="80" s="26" spans="1:19">
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="53">
+      <c r="C80" s="54">
         <f>+C77+C79</f>
         <v/>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="54">
         <f>+D77+D79</f>
         <v/>
       </c>
-      <c r="E80" s="53">
+      <c r="E80" s="54">
         <f>+E77+E79</f>
         <v/>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="54">
         <f>+F77+F79</f>
         <v/>
       </c>
-      <c r="G80" s="53">
+      <c r="G80" s="54">
         <f>+G77+G79</f>
         <v/>
       </c>
-      <c r="H80" s="53">
+      <c r="H80" s="54">
         <f>+H77+H79</f>
         <v/>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="54">
         <f>+I77+I79</f>
         <v/>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="54">
         <f>+J77+J79</f>
         <v/>
       </c>
-      <c r="K80" s="53">
+      <c r="K80" s="54">
         <f>+K77+K79</f>
         <v/>
       </c>
-      <c r="L80" s="53" t="n"/>
-      <c r="M80" s="53">
+      <c r="L80" s="54" t="n"/>
+      <c r="M80" s="54">
         <f>+M77+M79</f>
         <v/>
       </c>
@@ -4102,44 +4124,44 @@
       <c r="B81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="47">
+      <c r="C81" s="48">
         <f>+C76-C80</f>
         <v/>
       </c>
-      <c r="D81" s="47">
+      <c r="D81" s="48">
         <f>+D76-D80</f>
         <v/>
       </c>
-      <c r="E81" s="47">
+      <c r="E81" s="48">
         <f>+E76-E80</f>
         <v/>
       </c>
-      <c r="F81" s="47">
+      <c r="F81" s="48">
         <f>+F76-F80</f>
         <v/>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="48">
         <f>+G76-G80</f>
         <v/>
       </c>
-      <c r="H81" s="47">
+      <c r="H81" s="48">
         <f>+H76-H80</f>
         <v/>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="48">
         <f>+I76-I80</f>
         <v/>
       </c>
-      <c r="J81" s="47">
+      <c r="J81" s="48">
         <f>+J76-J80</f>
         <v/>
       </c>
-      <c r="K81" s="47">
+      <c r="K81" s="48">
         <f>+K76-K80</f>
         <v/>
       </c>
-      <c r="L81" s="47" t="n"/>
-      <c r="M81" s="47">
+      <c r="L81" s="48" t="n"/>
+      <c r="M81" s="48">
         <f>+M76-M80</f>
         <v/>
       </c>
@@ -4174,120 +4196,120 @@
       <c r="B83" s="10" t="n">
         <v>43073</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="48">
         <f>+IF(C82&lt;&gt;0, C$4+C81)</f>
         <v/>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="48">
         <f>+IF(D82&lt;&gt;0, D$5+D81)</f>
         <v/>
       </c>
-      <c r="E83" s="47">
+      <c r="E83" s="48">
         <f>+IF(E82&lt;&gt;0, E$4+E81,0)</f>
         <v/>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="48">
         <f>+IF(F82&lt;&gt;0, F$4+F81,0)</f>
         <v/>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="48">
         <f>+IF(G82&lt;&gt;0, G$4+G81,0)</f>
         <v/>
       </c>
-      <c r="H83" s="47">
+      <c r="H83" s="48">
         <f>+IF(H82&lt;&gt;0, H$4+H81,0)</f>
         <v/>
       </c>
-      <c r="I83" s="47">
+      <c r="I83" s="48">
         <f>+IF(I82&lt;&gt;0, I$4+I81,0)</f>
         <v/>
       </c>
-      <c r="J83" s="47">
+      <c r="J83" s="48">
         <f>+IF(J82&lt;&gt;0, J$4+J81,0)</f>
         <v/>
       </c>
-      <c r="K83" s="47">
+      <c r="K83" s="48">
         <f>+IF(K82&lt;&gt;0, K$4+K81,0)</f>
         <v/>
       </c>
-      <c r="L83" s="47" t="n"/>
-      <c r="M83" s="47">
+      <c r="L83" s="48" t="n"/>
+      <c r="M83" s="48">
         <f>+IF(M82&lt;&gt;0, M$4+M81,0)</f>
         <v/>
       </c>
     </row>
     <row outlineLevel="1" r="84" s="26" spans="1:19">
-      <c r="A84" s="47">
+      <c r="A84" s="48">
         <f>+E84-1112.48</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="54" t="n"/>
-      <c r="D84" s="54" t="n">
+      <c r="C84" s="55" t="n"/>
+      <c r="D84" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="E84" s="54" t="n">
+      <c r="E84" s="55" t="n">
         <v>1267.43</v>
       </c>
-      <c r="F84" s="54" t="n">
+      <c r="F84" s="55" t="n">
         <v>2001.96</v>
       </c>
-      <c r="G84" s="54" t="n">
+      <c r="G84" s="55" t="n">
         <v>2012.57</v>
       </c>
-      <c r="H84" s="54" t="n"/>
-      <c r="I84" s="54" t="n">
+      <c r="H84" s="55" t="n"/>
+      <c r="I84" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="J84" s="54" t="n"/>
-      <c r="K84" s="54" t="n"/>
-      <c r="L84" s="54" t="n"/>
-      <c r="M84" s="54" t="n"/>
+      <c r="J84" s="55" t="n"/>
+      <c r="K84" s="55" t="n"/>
+      <c r="L84" s="55" t="n"/>
+      <c r="M84" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="85" s="26" spans="1:19">
       <c r="B85" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="51">
         <f>+C83-C84</f>
         <v/>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="51">
         <f>+D83-D84</f>
         <v/>
       </c>
-      <c r="E85" s="50">
+      <c r="E85" s="51">
         <f>+E83-E84</f>
         <v/>
       </c>
-      <c r="F85" s="50">
+      <c r="F85" s="51">
         <f>+F83-F84</f>
         <v/>
       </c>
-      <c r="G85" s="50">
+      <c r="G85" s="51">
         <f>+G83-G84</f>
         <v/>
       </c>
-      <c r="H85" s="50">
+      <c r="H85" s="51">
         <f>+H83-H84</f>
         <v/>
       </c>
-      <c r="I85" s="50">
+      <c r="I85" s="51">
         <f>+I83-I84</f>
         <v/>
       </c>
-      <c r="J85" s="50">
+      <c r="J85" s="51">
         <f>+J83-J84</f>
         <v/>
       </c>
-      <c r="K85" s="50">
+      <c r="K85" s="51">
         <f>+K83-K84</f>
         <v/>
       </c>
-      <c r="L85" s="50" t="n"/>
-      <c r="M85" s="50">
+      <c r="L85" s="51" t="n"/>
+      <c r="M85" s="51">
         <f>+M83-M84</f>
         <v/>
       </c>
@@ -4296,62 +4318,62 @@
       <c r="B86" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="54" t="n"/>
-      <c r="D86" s="54" t="n"/>
-      <c r="E86" s="54" t="n">
+      <c r="C86" s="55" t="n"/>
+      <c r="D86" s="55" t="n"/>
+      <c r="E86" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F86" s="54" t="n"/>
-      <c r="G86" s="54" t="n"/>
-      <c r="H86" s="54" t="n"/>
-      <c r="I86" s="54" t="n"/>
-      <c r="J86" s="54" t="n"/>
-      <c r="K86" s="54" t="n"/>
-      <c r="L86" s="54" t="n"/>
-      <c r="M86" s="54" t="n"/>
+      <c r="F86" s="55" t="n"/>
+      <c r="G86" s="55" t="n"/>
+      <c r="H86" s="55" t="n"/>
+      <c r="I86" s="55" t="n"/>
+      <c r="J86" s="55" t="n"/>
+      <c r="K86" s="55" t="n"/>
+      <c r="L86" s="55" t="n"/>
+      <c r="M86" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="87" s="26" spans="1:19">
       <c r="B87" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C87" s="54">
         <f>+C84+C86</f>
         <v/>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="54">
         <f>+D84+D86</f>
         <v/>
       </c>
-      <c r="E87" s="53">
+      <c r="E87" s="54">
         <f>+E84+E86</f>
         <v/>
       </c>
-      <c r="F87" s="53">
+      <c r="F87" s="54">
         <f>+F84+F86</f>
         <v/>
       </c>
-      <c r="G87" s="53">
+      <c r="G87" s="54">
         <f>+G84+G86</f>
         <v/>
       </c>
-      <c r="H87" s="53">
+      <c r="H87" s="54">
         <f>+H84+H86</f>
         <v/>
       </c>
-      <c r="I87" s="53">
+      <c r="I87" s="54">
         <f>+I84+I86</f>
         <v/>
       </c>
-      <c r="J87" s="53">
+      <c r="J87" s="54">
         <f>+J84+J86</f>
         <v/>
       </c>
-      <c r="K87" s="53">
+      <c r="K87" s="54">
         <f>+K84+K86</f>
         <v/>
       </c>
-      <c r="L87" s="53" t="n"/>
-      <c r="M87" s="53">
+      <c r="L87" s="54" t="n"/>
+      <c r="M87" s="54">
         <f>+M84+M86</f>
         <v/>
       </c>
@@ -4360,44 +4382,44 @@
       <c r="B88" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="47">
+      <c r="C88" s="48">
         <f>+C83-C87</f>
         <v/>
       </c>
-      <c r="D88" s="47">
+      <c r="D88" s="48">
         <f>+D83-D87</f>
         <v/>
       </c>
-      <c r="E88" s="47">
+      <c r="E88" s="48">
         <f>+E83-E87</f>
         <v/>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="48">
         <f>+F83-F87</f>
         <v/>
       </c>
-      <c r="G88" s="47">
+      <c r="G88" s="48">
         <f>+G83-G87</f>
         <v/>
       </c>
-      <c r="H88" s="47">
+      <c r="H88" s="48">
         <f>+H83-H87</f>
         <v/>
       </c>
-      <c r="I88" s="47">
+      <c r="I88" s="48">
         <f>+I83-I87</f>
         <v/>
       </c>
-      <c r="J88" s="47">
+      <c r="J88" s="48">
         <f>+J83-J87</f>
         <v/>
       </c>
-      <c r="K88" s="47">
+      <c r="K88" s="48">
         <f>+K83-K87</f>
         <v/>
       </c>
-      <c r="L88" s="47" t="n"/>
-      <c r="M88" s="47">
+      <c r="L88" s="48" t="n"/>
+      <c r="M88" s="48">
         <f>+M83-M87</f>
         <v/>
       </c>
@@ -4440,41 +4462,41 @@
       <c r="B90" s="10" t="n">
         <v>43080</v>
       </c>
-      <c r="C90" s="47" t="n"/>
-      <c r="D90" s="47">
+      <c r="C90" s="48" t="n"/>
+      <c r="D90" s="48">
         <f>+IF(D89&lt;&gt;0, D$5+D88)</f>
         <v/>
       </c>
-      <c r="E90" s="47">
+      <c r="E90" s="48">
         <f>+IF(E89&lt;&gt;0, E$4+E88,0)</f>
         <v/>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="48">
         <f>+IF(F89&lt;&gt;0, F$4+F88,0)</f>
         <v/>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="48">
         <f>+IF(G89&lt;&gt;0, G$4+G88,0)</f>
         <v/>
       </c>
-      <c r="H90" s="47">
+      <c r="H90" s="48">
         <f>+IF(H89&lt;&gt;0, H$4+H88,0)</f>
         <v/>
       </c>
-      <c r="I90" s="47">
+      <c r="I90" s="48">
         <f>+IF(I89&lt;&gt;0, I$4+I88,0)</f>
         <v/>
       </c>
-      <c r="J90" s="47">
+      <c r="J90" s="48">
         <f>+IF(J89&lt;&gt;0, J$4+J88,0)</f>
         <v/>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="48">
         <f>+IF(K89&lt;&gt;0, K$4+K88,0)</f>
         <v/>
       </c>
-      <c r="L90" s="47" t="n"/>
-      <c r="M90" s="47">
+      <c r="L90" s="48" t="n"/>
+      <c r="M90" s="48">
         <f>+IF(M89&lt;&gt;0, M$4+M88,0)</f>
         <v/>
       </c>
@@ -4483,67 +4505,67 @@
       <c r="B91" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="54" t="n">
+      <c r="C91" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="54" t="n">
+      <c r="D91" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="E91" s="54" t="n">
+      <c r="E91" s="55" t="n">
         <v>2620.09</v>
       </c>
-      <c r="F91" s="54" t="n">
+      <c r="F91" s="55" t="n">
         <v>1718.04</v>
       </c>
-      <c r="G91" s="54" t="n">
+      <c r="G91" s="55" t="n">
         <v>477.66</v>
       </c>
-      <c r="H91" s="54" t="n"/>
-      <c r="I91" s="54" t="n"/>
-      <c r="J91" s="54" t="n"/>
-      <c r="K91" s="54" t="n"/>
-      <c r="L91" s="54" t="n"/>
-      <c r="M91" s="54" t="n"/>
+      <c r="H91" s="55" t="n"/>
+      <c r="I91" s="55" t="n"/>
+      <c r="J91" s="55" t="n"/>
+      <c r="K91" s="55" t="n"/>
+      <c r="L91" s="55" t="n"/>
+      <c r="M91" s="55" t="n"/>
     </row>
     <row r="92" spans="1:19">
       <c r="B92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92" s="51">
         <f>+C90-C91</f>
         <v/>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="51">
         <f>+D90-D91</f>
         <v/>
       </c>
-      <c r="E92" s="50">
+      <c r="E92" s="51">
         <f>+E90-E91</f>
         <v/>
       </c>
-      <c r="F92" s="50">
+      <c r="F92" s="51">
         <f>+F90-F91</f>
         <v/>
       </c>
-      <c r="G92" s="50">
+      <c r="G92" s="51">
         <f>+G90-G91</f>
         <v/>
       </c>
-      <c r="H92" s="50" t="n"/>
-      <c r="I92" s="50">
+      <c r="H92" s="51" t="n"/>
+      <c r="I92" s="51">
         <f>+I90-I91</f>
         <v/>
       </c>
-      <c r="J92" s="50">
+      <c r="J92" s="51">
         <f>+J90-J91</f>
         <v/>
       </c>
-      <c r="K92" s="50">
+      <c r="K92" s="51">
         <f>+K90-K91</f>
         <v/>
       </c>
-      <c r="L92" s="50" t="n"/>
-      <c r="M92" s="50">
+      <c r="L92" s="51" t="n"/>
+      <c r="M92" s="51">
         <f>+M90-M91</f>
         <v/>
       </c>
@@ -4552,65 +4574,65 @@
       <c r="B93" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="54" t="n"/>
-      <c r="D93" s="54" t="n"/>
-      <c r="E93" s="54" t="n">
+      <c r="C93" s="55" t="n"/>
+      <c r="D93" s="55" t="n"/>
+      <c r="E93" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F93" s="54" t="n"/>
-      <c r="G93" s="54" t="n"/>
-      <c r="H93" s="54" t="n"/>
-      <c r="I93" s="54" t="n">
+      <c r="F93" s="55" t="n"/>
+      <c r="G93" s="55" t="n"/>
+      <c r="H93" s="55" t="n"/>
+      <c r="I93" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="J93" s="54" t="n"/>
-      <c r="K93" s="54" t="n"/>
-      <c r="L93" s="54" t="n"/>
-      <c r="M93" s="54" t="n"/>
+      <c r="J93" s="55" t="n"/>
+      <c r="K93" s="55" t="n"/>
+      <c r="L93" s="55" t="n"/>
+      <c r="M93" s="55" t="n"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="47">
+      <c r="A94" s="48">
         <f>+G94-241.92</f>
         <v/>
       </c>
       <c r="B94" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="54">
         <f>+C91+C93</f>
         <v/>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="54">
         <f>+D91+D93</f>
         <v/>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="54">
         <f>+E91+E93</f>
         <v/>
       </c>
-      <c r="F94" s="53">
+      <c r="F94" s="54">
         <f>+F91+F93</f>
         <v/>
       </c>
-      <c r="G94" s="53">
+      <c r="G94" s="54">
         <f>+G91+G93</f>
         <v/>
       </c>
-      <c r="H94" s="53" t="n"/>
-      <c r="I94" s="53">
+      <c r="H94" s="54" t="n"/>
+      <c r="I94" s="54">
         <f>+I91+I93</f>
         <v/>
       </c>
-      <c r="J94" s="53">
+      <c r="J94" s="54">
         <f>+J91+J93</f>
         <v/>
       </c>
-      <c r="K94" s="53">
+      <c r="K94" s="54">
         <f>+K91+K93</f>
         <v/>
       </c>
-      <c r="L94" s="53" t="n"/>
-      <c r="M94" s="53">
+      <c r="L94" s="54" t="n"/>
+      <c r="M94" s="54">
         <f>+M91+M93</f>
         <v/>
       </c>
@@ -4619,41 +4641,41 @@
       <c r="B95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="47">
+      <c r="C95" s="48">
         <f>+C90-C94</f>
         <v/>
       </c>
-      <c r="D95" s="47">
+      <c r="D95" s="48">
         <f>+D90-D94</f>
         <v/>
       </c>
-      <c r="E95" s="47">
+      <c r="E95" s="48">
         <f>+E90-E94</f>
         <v/>
       </c>
-      <c r="F95" s="47">
+      <c r="F95" s="48">
         <f>+F90-F94</f>
         <v/>
       </c>
-      <c r="G95" s="47">
+      <c r="G95" s="48">
         <f>+G90-G94</f>
         <v/>
       </c>
-      <c r="H95" s="47" t="n"/>
-      <c r="I95" s="47">
+      <c r="H95" s="48" t="n"/>
+      <c r="I95" s="48">
         <f>+I90-I94</f>
         <v/>
       </c>
-      <c r="J95" s="47">
+      <c r="J95" s="48">
         <f>+J90-J94</f>
         <v/>
       </c>
-      <c r="K95" s="47">
+      <c r="K95" s="48">
         <f>+K90-K94</f>
         <v/>
       </c>
-      <c r="L95" s="47" t="n"/>
-      <c r="M95" s="47">
+      <c r="L95" s="48" t="n"/>
+      <c r="M95" s="48">
         <f>+M90-M94</f>
         <v/>
       </c>
@@ -4694,109 +4716,109 @@
       <c r="M96" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="O96" s="57" t="n"/>
+      <c r="O96" s="58" t="n"/>
     </row>
     <row r="97" spans="1:19">
       <c r="B97" s="10" t="n">
         <v>43087</v>
       </c>
-      <c r="C97" s="47" t="n">
+      <c r="C97" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D97" s="47">
+      <c r="D97" s="48">
         <f>+IF(D96&lt;&gt;0, D$5+D95)</f>
         <v/>
       </c>
-      <c r="E97" s="47">
+      <c r="E97" s="48">
         <f>+IF(E96&lt;&gt;0, E$4+E95,0)</f>
         <v/>
       </c>
-      <c r="F97" s="47">
+      <c r="F97" s="48">
         <f>+IF(F96&lt;&gt;0, F$4+F95,0)</f>
         <v/>
       </c>
-      <c r="G97" s="47">
+      <c r="G97" s="48">
         <f>+IF(G96&lt;&gt;0, G$4+G95,0)</f>
         <v/>
       </c>
-      <c r="H97" s="47" t="n"/>
-      <c r="I97" s="47">
+      <c r="H97" s="48" t="n"/>
+      <c r="I97" s="48">
         <f>+IF(I96&lt;&gt;0, I$4+I95,0)</f>
         <v/>
       </c>
-      <c r="J97" s="47">
+      <c r="J97" s="48">
         <f>+IF(J96&lt;&gt;0, J$4+J95,0)</f>
         <v/>
       </c>
-      <c r="K97" s="47">
+      <c r="K97" s="48">
         <f>+IF(K96&lt;&gt;0, K$4+K95,0)</f>
         <v/>
       </c>
-      <c r="L97" s="47" t="n"/>
-      <c r="M97" s="47">
+      <c r="L97" s="48" t="n"/>
+      <c r="M97" s="48">
         <f>+IF(M96&lt;&gt;0, M$4+M95,0)</f>
         <v/>
       </c>
-      <c r="O97" s="47" t="n"/>
+      <c r="O97" s="48" t="n"/>
     </row>
     <row outlineLevel="1" r="98" s="26" spans="1:19">
       <c r="B98" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="54" t="n">
+      <c r="C98" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="54" t="n"/>
-      <c r="E98" s="54" t="n"/>
-      <c r="F98" s="54" t="n"/>
-      <c r="G98" s="54" t="n"/>
-      <c r="H98" s="54" t="n"/>
-      <c r="I98" s="54" t="n"/>
-      <c r="J98" s="54" t="n"/>
-      <c r="K98" s="54" t="n"/>
-      <c r="L98" s="54" t="n"/>
-      <c r="M98" s="54" t="n"/>
-      <c r="N98" s="47" t="n"/>
+      <c r="D98" s="55" t="n"/>
+      <c r="E98" s="55" t="n"/>
+      <c r="F98" s="55" t="n"/>
+      <c r="G98" s="55" t="n"/>
+      <c r="H98" s="55" t="n"/>
+      <c r="I98" s="55" t="n"/>
+      <c r="J98" s="55" t="n"/>
+      <c r="K98" s="55" t="n"/>
+      <c r="L98" s="55" t="n"/>
+      <c r="M98" s="55" t="n"/>
+      <c r="N98" s="48" t="n"/>
     </row>
     <row outlineLevel="1" r="99" s="26" spans="1:19">
       <c r="B99" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99" s="51">
         <f>+C97-C98</f>
         <v/>
       </c>
-      <c r="D99" s="50">
+      <c r="D99" s="51">
         <f>+D97-D98</f>
         <v/>
       </c>
-      <c r="E99" s="50">
+      <c r="E99" s="51">
         <f>+E97-E98</f>
         <v/>
       </c>
-      <c r="F99" s="50">
+      <c r="F99" s="51">
         <f>+F97-F98</f>
         <v/>
       </c>
-      <c r="G99" s="50">
+      <c r="G99" s="51">
         <f>+G97-G98</f>
         <v/>
       </c>
-      <c r="H99" s="50" t="n"/>
-      <c r="I99" s="50">
+      <c r="H99" s="51" t="n"/>
+      <c r="I99" s="51">
         <f>+I97-I98</f>
         <v/>
       </c>
-      <c r="J99" s="50">
+      <c r="J99" s="51">
         <f>+J97-J98</f>
         <v/>
       </c>
-      <c r="K99" s="50">
+      <c r="K99" s="51">
         <f>+K97-K98</f>
         <v/>
       </c>
-      <c r="L99" s="50" t="n"/>
-      <c r="M99" s="50" t="n"/>
+      <c r="L99" s="51" t="n"/>
+      <c r="M99" s="51" t="n"/>
     </row>
     <row outlineLevel="1" r="100" s="26" spans="1:19">
       <c r="A100" s="25" t="n">
@@ -4805,27 +4827,27 @@
       <c r="B100" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="54" t="n">
+      <c r="C100" s="55" t="n">
         <v>3640.36</v>
       </c>
-      <c r="D100" s="54" t="n"/>
-      <c r="E100" s="54" t="n">
+      <c r="D100" s="55" t="n"/>
+      <c r="E100" s="55" t="n">
         <v>2000</v>
       </c>
-      <c r="F100" s="54" t="n"/>
-      <c r="G100" s="54" t="n">
+      <c r="F100" s="55" t="n"/>
+      <c r="G100" s="55" t="n">
         <v>2500</v>
       </c>
-      <c r="H100" s="54" t="n"/>
-      <c r="I100" s="54" t="n">
+      <c r="H100" s="55" t="n"/>
+      <c r="I100" s="55" t="n">
         <v>3720</v>
       </c>
-      <c r="J100" s="54" t="n">
+      <c r="J100" s="55" t="n">
         <v>2500</v>
       </c>
-      <c r="K100" s="54" t="n"/>
-      <c r="L100" s="54" t="n"/>
-      <c r="M100" s="54" t="n"/>
+      <c r="K100" s="55" t="n"/>
+      <c r="L100" s="55" t="n"/>
+      <c r="M100" s="55" t="n"/>
       <c r="O100" t="s">
         <v>46</v>
       </c>
@@ -4834,41 +4856,41 @@
       <c r="B101" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="53">
+      <c r="C101" s="54">
         <f>+C98+C100</f>
         <v/>
       </c>
-      <c r="D101" s="53">
+      <c r="D101" s="54">
         <f>+D98+D100</f>
         <v/>
       </c>
-      <c r="E101" s="53">
+      <c r="E101" s="54">
         <f>+E98+E100</f>
         <v/>
       </c>
-      <c r="F101" s="53">
+      <c r="F101" s="54">
         <f>+F98+F100</f>
         <v/>
       </c>
-      <c r="G101" s="53">
+      <c r="G101" s="54">
         <f>+G98+G100</f>
         <v/>
       </c>
-      <c r="H101" s="53" t="n"/>
-      <c r="I101" s="53">
+      <c r="H101" s="54" t="n"/>
+      <c r="I101" s="54">
         <f>+I98+I100</f>
         <v/>
       </c>
-      <c r="J101" s="53">
+      <c r="J101" s="54">
         <f>+J98+J100</f>
         <v/>
       </c>
-      <c r="K101" s="53">
+      <c r="K101" s="54">
         <f>+K98+K100</f>
         <v/>
       </c>
-      <c r="L101" s="53" t="n"/>
-      <c r="M101" s="53">
+      <c r="L101" s="54" t="n"/>
+      <c r="M101" s="54">
         <f>+M98+M100</f>
         <v/>
       </c>
@@ -4877,41 +4899,41 @@
       <c r="B102" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="47">
+      <c r="C102" s="48">
         <f>+C97-C101</f>
         <v/>
       </c>
-      <c r="D102" s="47">
+      <c r="D102" s="48">
         <f>+D97-D101</f>
         <v/>
       </c>
-      <c r="E102" s="47">
+      <c r="E102" s="48">
         <f>+E97-E101</f>
         <v/>
       </c>
-      <c r="F102" s="47">
+      <c r="F102" s="48">
         <f>+F97-F101</f>
         <v/>
       </c>
-      <c r="G102" s="47">
+      <c r="G102" s="48">
         <f>+G97-G101</f>
         <v/>
       </c>
-      <c r="H102" s="47" t="n"/>
-      <c r="I102" s="47">
+      <c r="H102" s="48" t="n"/>
+      <c r="I102" s="48">
         <f>+I97-I101</f>
         <v/>
       </c>
-      <c r="J102" s="47">
+      <c r="J102" s="48">
         <f>+J97-J101</f>
         <v/>
       </c>
-      <c r="K102" s="47">
+      <c r="K102" s="48">
         <f>+K97-K101</f>
         <v/>
       </c>
-      <c r="L102" s="47" t="n"/>
-      <c r="M102" s="47">
+      <c r="L102" s="48" t="n"/>
+      <c r="M102" s="48">
         <f>+M97-M101</f>
         <v/>
       </c>
@@ -4963,40 +4985,40 @@
       <c r="B104" s="10" t="n">
         <v>43094</v>
       </c>
-      <c r="C104" s="47" t="n">
+      <c r="C104" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D104" s="47">
+      <c r="D104" s="48">
         <f>+IF(D103&lt;&gt;0, D$5+D102)</f>
         <v/>
       </c>
-      <c r="E104" s="47">
+      <c r="E104" s="48">
         <f>+IF(E103&lt;&gt;0, E$4+E102,0)</f>
         <v/>
       </c>
-      <c r="F104" s="47">
+      <c r="F104" s="48">
         <f>+IF(F103&lt;&gt;0, F$4+F102,0)</f>
         <v/>
       </c>
-      <c r="G104" s="47">
+      <c r="G104" s="48">
         <f>+IF(G103&lt;&gt;0, G$4+G102,0)</f>
         <v/>
       </c>
-      <c r="H104" s="47" t="n"/>
-      <c r="I104" s="47">
+      <c r="H104" s="48" t="n"/>
+      <c r="I104" s="48">
         <f>+IF(I103&lt;&gt;0, I$4+I102,0)</f>
         <v/>
       </c>
-      <c r="J104" s="47">
+      <c r="J104" s="48">
         <f>+IF(J103&lt;&gt;0, J$4+J102,0)</f>
         <v/>
       </c>
-      <c r="K104" s="47">
+      <c r="K104" s="48">
         <f>+IF(K103&lt;&gt;0, K$4+K102,0)</f>
         <v/>
       </c>
-      <c r="L104" s="47" t="n"/>
-      <c r="M104" s="47">
+      <c r="L104" s="48" t="n"/>
+      <c r="M104" s="48">
         <f>+IF(M103&lt;&gt;0, M$4+M102,0)</f>
         <v/>
       </c>
@@ -5005,85 +5027,85 @@
       <c r="B105" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="54" t="n">
+      <c r="C105" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="54" t="n"/>
-      <c r="E105" s="54" t="n"/>
-      <c r="F105" s="54" t="n"/>
-      <c r="G105" s="54" t="n"/>
-      <c r="H105" s="54" t="n"/>
-      <c r="I105" s="54" t="n"/>
-      <c r="J105" s="54" t="n"/>
-      <c r="K105" s="54" t="n"/>
-      <c r="L105" s="54" t="n"/>
-      <c r="M105" s="54" t="n"/>
+      <c r="D105" s="55" t="n"/>
+      <c r="E105" s="55" t="n"/>
+      <c r="F105" s="55" t="n"/>
+      <c r="G105" s="55" t="n"/>
+      <c r="H105" s="55" t="n"/>
+      <c r="I105" s="55" t="n"/>
+      <c r="J105" s="55" t="n"/>
+      <c r="K105" s="55" t="n"/>
+      <c r="L105" s="55" t="n"/>
+      <c r="M105" s="55" t="n"/>
     </row>
     <row outlineLevel="1" r="106" s="26" spans="1:19">
       <c r="B106" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="51">
         <f>+C104-C105</f>
         <v/>
       </c>
-      <c r="D106" s="50">
+      <c r="D106" s="51">
         <f>+D104-D105</f>
         <v/>
       </c>
-      <c r="E106" s="50">
+      <c r="E106" s="51">
         <f>+E104-E105</f>
         <v/>
       </c>
-      <c r="F106" s="50">
+      <c r="F106" s="51">
         <f>+F104-F105</f>
         <v/>
       </c>
-      <c r="G106" s="50">
+      <c r="G106" s="51">
         <f>+G104-G105</f>
         <v/>
       </c>
-      <c r="H106" s="50" t="n"/>
-      <c r="I106" s="50">
+      <c r="H106" s="51" t="n"/>
+      <c r="I106" s="51">
         <f>+I104-I105</f>
         <v/>
       </c>
-      <c r="J106" s="50">
+      <c r="J106" s="51">
         <f>+J104-J105</f>
         <v/>
       </c>
-      <c r="K106" s="50">
+      <c r="K106" s="51">
         <f>+K104-K105</f>
         <v/>
       </c>
-      <c r="L106" s="50" t="n"/>
-      <c r="M106" s="50" t="n"/>
+      <c r="L106" s="51" t="n"/>
+      <c r="M106" s="51" t="n"/>
     </row>
     <row outlineLevel="1" r="107" s="26" spans="1:19">
       <c r="B107" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="54" t="n">
+      <c r="C107" s="55" t="n">
         <v>3640.36</v>
       </c>
-      <c r="D107" s="54" t="n"/>
-      <c r="E107" s="54" t="n">
+      <c r="D107" s="55" t="n"/>
+      <c r="E107" s="55" t="n">
         <v>2000</v>
       </c>
-      <c r="F107" s="54" t="n"/>
-      <c r="G107" s="54" t="n">
+      <c r="F107" s="55" t="n"/>
+      <c r="G107" s="55" t="n">
         <v>2500</v>
       </c>
-      <c r="H107" s="54" t="n"/>
-      <c r="I107" s="54" t="n">
+      <c r="H107" s="55" t="n"/>
+      <c r="I107" s="55" t="n">
         <v>3720</v>
       </c>
-      <c r="J107" s="54" t="n">
+      <c r="J107" s="55" t="n">
         <v>2500</v>
       </c>
-      <c r="K107" s="54" t="n"/>
-      <c r="L107" s="54" t="n"/>
-      <c r="M107" s="54" t="n">
+      <c r="K107" s="55" t="n"/>
+      <c r="L107" s="55" t="n"/>
+      <c r="M107" s="55" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -5091,41 +5113,41 @@
       <c r="B108" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="53">
+      <c r="C108" s="54">
         <f>+C105+C107</f>
         <v/>
       </c>
-      <c r="D108" s="53">
+      <c r="D108" s="54">
         <f>+D105+D107</f>
         <v/>
       </c>
-      <c r="E108" s="53">
+      <c r="E108" s="54">
         <f>+E105+E107</f>
         <v/>
       </c>
-      <c r="F108" s="53">
+      <c r="F108" s="54">
         <f>+F105+F107</f>
         <v/>
       </c>
-      <c r="G108" s="53">
+      <c r="G108" s="54">
         <f>+G105+G107</f>
         <v/>
       </c>
-      <c r="H108" s="53" t="n"/>
-      <c r="I108" s="53">
+      <c r="H108" s="54" t="n"/>
+      <c r="I108" s="54">
         <f>+I105+I107</f>
         <v/>
       </c>
-      <c r="J108" s="53">
+      <c r="J108" s="54">
         <f>+J105+J107</f>
         <v/>
       </c>
-      <c r="K108" s="53">
+      <c r="K108" s="54">
         <f>+K105+K107</f>
         <v/>
       </c>
-      <c r="L108" s="53" t="n"/>
-      <c r="M108" s="53">
+      <c r="L108" s="54" t="n"/>
+      <c r="M108" s="54">
         <f>+M105+M107</f>
         <v/>
       </c>
@@ -5134,44 +5156,44 @@
       <c r="B109" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="47">
+      <c r="C109" s="48">
         <f>+C104-C108</f>
         <v/>
       </c>
-      <c r="D109" s="47">
+      <c r="D109" s="48">
         <f>+D104-D108</f>
         <v/>
       </c>
-      <c r="E109" s="47">
+      <c r="E109" s="48">
         <f>+E104-E108</f>
         <v/>
       </c>
-      <c r="F109" s="47">
+      <c r="F109" s="48">
         <f>+F104-F108</f>
         <v/>
       </c>
-      <c r="G109" s="47">
+      <c r="G109" s="48">
         <f>+G104-G108</f>
         <v/>
       </c>
-      <c r="H109" s="47">
+      <c r="H109" s="48">
         <f>+H104-H108</f>
         <v/>
       </c>
-      <c r="I109" s="47">
+      <c r="I109" s="48">
         <f>+I104-I108</f>
         <v/>
       </c>
-      <c r="J109" s="47">
+      <c r="J109" s="48">
         <f>+J104-J108</f>
         <v/>
       </c>
-      <c r="K109" s="47">
+      <c r="K109" s="48">
         <f>+K104-K108</f>
         <v/>
       </c>
-      <c r="L109" s="47" t="n"/>
-      <c r="M109" s="47">
+      <c r="L109" s="48" t="n"/>
+      <c r="M109" s="48">
         <f>+M104-M108</f>
         <v/>
       </c>
@@ -5223,40 +5245,40 @@
       <c r="B111" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C111" s="47" t="n">
+      <c r="C111" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D111" s="47">
+      <c r="D111" s="48">
         <f>+IF(D110&lt;&gt;0, D$5+D109)</f>
         <v/>
       </c>
-      <c r="E111" s="47">
+      <c r="E111" s="48">
         <f>+IF(E110&lt;&gt;0, E$4+E109,0)</f>
         <v/>
       </c>
-      <c r="F111" s="47">
+      <c r="F111" s="48">
         <f>+IF(F110&lt;&gt;0, F$4+F109,0)</f>
         <v/>
       </c>
-      <c r="G111" s="47">
+      <c r="G111" s="48">
         <f>+IF(G110&lt;&gt;0, G$4+G109,0)</f>
         <v/>
       </c>
-      <c r="H111" s="47" t="n"/>
-      <c r="I111" s="47">
+      <c r="H111" s="48" t="n"/>
+      <c r="I111" s="48">
         <f>+IF(I110&lt;&gt;0, I$4+I109,0)</f>
         <v/>
       </c>
-      <c r="J111" s="47">
+      <c r="J111" s="48">
         <f>+IF(J110&lt;&gt;0, J$4+J109,0)</f>
         <v/>
       </c>
-      <c r="K111" s="47">
+      <c r="K111" s="48">
         <f>+IF(K110&lt;&gt;0, K$4+K109,0)</f>
         <v/>
       </c>
-      <c r="L111" s="47" t="n"/>
-      <c r="M111" s="47">
+      <c r="L111" s="48" t="n"/>
+      <c r="M111" s="48">
         <f>+IF(M110&lt;&gt;0, M$4+M109,0)</f>
         <v/>
       </c>
@@ -5265,132 +5287,132 @@
       <c r="B112" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="54" t="n">
+      <c r="C112" s="55" t="n">
         <v>1302.6</v>
       </c>
-      <c r="D112" s="54" t="n">
+      <c r="D112" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="E112" s="54" t="n">
+      <c r="E112" s="55" t="n">
         <v>279.91</v>
       </c>
-      <c r="F112" s="54" t="n">
+      <c r="F112" s="55" t="n">
         <v>1129.25</v>
       </c>
-      <c r="G112" s="54" t="n">
+      <c r="G112" s="55" t="n">
         <v>435.66</v>
       </c>
-      <c r="H112" s="54" t="n"/>
-      <c r="I112" s="54" t="n">
+      <c r="H112" s="55" t="n"/>
+      <c r="I112" s="55" t="n">
         <v>1860</v>
       </c>
-      <c r="J112" s="54" t="n">
+      <c r="J112" s="55" t="n">
         <v>1130.49</v>
       </c>
-      <c r="K112" s="54" t="n">
+      <c r="K112" s="55" t="n">
         <v>245.28</v>
       </c>
-      <c r="L112" s="54" t="n"/>
-      <c r="M112" s="54" t="n">
+      <c r="L112" s="55" t="n"/>
+      <c r="M112" s="55" t="n">
         <v>2585.76</v>
       </c>
-      <c r="N112" s="47" t="n"/>
+      <c r="N112" s="48" t="n"/>
     </row>
     <row r="113" spans="1:19">
       <c r="B113" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="51">
         <f>+C111-C112</f>
         <v/>
       </c>
-      <c r="D113" s="50">
+      <c r="D113" s="51">
         <f>+D111-D112</f>
         <v/>
       </c>
-      <c r="E113" s="50">
+      <c r="E113" s="51">
         <f>+E111-E112</f>
         <v/>
       </c>
-      <c r="F113" s="50">
+      <c r="F113" s="51">
         <f>+F111-F112</f>
         <v/>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="51">
         <f>+G111-G112</f>
         <v/>
       </c>
-      <c r="H113" s="50" t="n"/>
-      <c r="I113" s="50">
+      <c r="H113" s="51" t="n"/>
+      <c r="I113" s="51">
         <f>+I111-I112</f>
         <v/>
       </c>
-      <c r="J113" s="50">
+      <c r="J113" s="51">
         <f>+J111-J112</f>
         <v/>
       </c>
-      <c r="K113" s="50">
+      <c r="K113" s="51">
         <f>+K111-K112</f>
         <v/>
       </c>
-      <c r="L113" s="50" t="n"/>
-      <c r="M113" s="50" t="n"/>
+      <c r="L113" s="51" t="n"/>
+      <c r="M113" s="51" t="n"/>
     </row>
     <row r="114" spans="1:19">
       <c r="B114" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="54" t="n"/>
-      <c r="D114" s="54" t="n"/>
-      <c r="E114" s="54" t="n"/>
-      <c r="F114" s="54" t="n"/>
-      <c r="G114" s="54" t="n"/>
-      <c r="H114" s="54" t="n"/>
-      <c r="I114" s="54" t="n"/>
-      <c r="J114" s="54" t="n"/>
-      <c r="K114" s="54" t="n"/>
-      <c r="L114" s="54" t="n"/>
-      <c r="M114" s="54" t="n"/>
+      <c r="C114" s="55" t="n"/>
+      <c r="D114" s="55" t="n"/>
+      <c r="E114" s="55" t="n"/>
+      <c r="F114" s="55" t="n"/>
+      <c r="G114" s="55" t="n"/>
+      <c r="H114" s="55" t="n"/>
+      <c r="I114" s="55" t="n"/>
+      <c r="J114" s="55" t="n"/>
+      <c r="K114" s="55" t="n"/>
+      <c r="L114" s="55" t="n"/>
+      <c r="M114" s="55" t="n"/>
     </row>
     <row r="115" spans="1:19">
       <c r="B115" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="53">
+      <c r="C115" s="54">
         <f>+C112+C114</f>
         <v/>
       </c>
-      <c r="D115" s="53">
+      <c r="D115" s="54">
         <f>+D112+D114</f>
         <v/>
       </c>
-      <c r="E115" s="53">
+      <c r="E115" s="54">
         <f>+E112+E114</f>
         <v/>
       </c>
-      <c r="F115" s="53">
+      <c r="F115" s="54">
         <f>+F112+F114</f>
         <v/>
       </c>
-      <c r="G115" s="53">
+      <c r="G115" s="54">
         <f>+G112+G114</f>
         <v/>
       </c>
-      <c r="H115" s="53" t="n"/>
-      <c r="I115" s="53">
+      <c r="H115" s="54" t="n"/>
+      <c r="I115" s="54">
         <f>+I112+I114</f>
         <v/>
       </c>
-      <c r="J115" s="53">
+      <c r="J115" s="54">
         <f>+J112+J114</f>
         <v/>
       </c>
-      <c r="K115" s="53">
+      <c r="K115" s="54">
         <f>+K112+K114</f>
         <v/>
       </c>
-      <c r="L115" s="53" t="n"/>
-      <c r="M115" s="53">
+      <c r="L115" s="54" t="n"/>
+      <c r="M115" s="54">
         <f>+M112+M114</f>
         <v/>
       </c>
@@ -5399,41 +5421,41 @@
       <c r="B116" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="47">
+      <c r="C116" s="48">
         <f>+C111-C115</f>
         <v/>
       </c>
-      <c r="D116" s="47">
+      <c r="D116" s="48">
         <f>+D111-D115</f>
         <v/>
       </c>
-      <c r="E116" s="47">
+      <c r="E116" s="48">
         <f>+E111-E115</f>
         <v/>
       </c>
-      <c r="F116" s="47">
+      <c r="F116" s="48">
         <f>+F111-F115</f>
         <v/>
       </c>
-      <c r="G116" s="47">
+      <c r="G116" s="48">
         <f>+G111-G115</f>
         <v/>
       </c>
-      <c r="H116" s="47" t="n"/>
-      <c r="I116" s="47">
+      <c r="H116" s="48" t="n"/>
+      <c r="I116" s="48">
         <f>+I111-I115</f>
         <v/>
       </c>
-      <c r="J116" s="47">
+      <c r="J116" s="48">
         <f>+J111-J115</f>
         <v/>
       </c>
-      <c r="K116" s="47">
+      <c r="K116" s="48">
         <f>+K111-K115</f>
         <v/>
       </c>
-      <c r="L116" s="47" t="n"/>
-      <c r="M116" s="47">
+      <c r="L116" s="48" t="n"/>
+      <c r="M116" s="48">
         <f>+M111-M115</f>
         <v/>
       </c>
@@ -5490,50 +5512,50 @@
       <c r="A118" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="10" t="n">
+      <c r="B118" s="46" t="n">
         <v>43108</v>
       </c>
-      <c r="C118" s="47" t="n">
+      <c r="C118" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D118" s="47">
+      <c r="D118" s="48">
         <f>+IF(D117&lt;&gt;0, D$5+D116)</f>
         <v/>
       </c>
-      <c r="E118" s="47">
+      <c r="E118" s="48">
         <f>+IF(E117&lt;&gt;0, E$4+E116,0)</f>
         <v/>
       </c>
-      <c r="F118" s="47">
+      <c r="F118" s="48">
         <f>+IF(F117&lt;&gt;0, F$4+F116,0)</f>
         <v/>
       </c>
-      <c r="G118" s="47">
+      <c r="G118" s="48">
         <f>+IF(G117&lt;&gt;0, G$4+G116,0)</f>
         <v/>
       </c>
-      <c r="H118" s="47" t="n"/>
-      <c r="I118" s="47">
+      <c r="H118" s="48" t="n"/>
+      <c r="I118" s="48">
         <f>+IF(I117&lt;&gt;0, I$4+I116,0)</f>
         <v/>
       </c>
-      <c r="J118" s="47">
+      <c r="J118" s="48">
         <f>+IF(J117&lt;&gt;0, J$4+J116,0)</f>
         <v/>
       </c>
-      <c r="K118" s="47">
+      <c r="K118" s="48">
         <f>+IF(K117&lt;&gt;0, K$4+K116,0)</f>
         <v/>
       </c>
-      <c r="L118" s="47">
+      <c r="L118" s="48">
         <f>+IF(L117&lt;&gt;0, L$4+L116,0)</f>
         <v/>
       </c>
-      <c r="M118" s="47">
+      <c r="M118" s="48">
         <f>+IF(M117&lt;&gt;0, M$4+M116,0)</f>
         <v/>
       </c>
-      <c r="N118" s="47">
+      <c r="N118" s="48">
         <f>+IF(N117&lt;&gt;0, N$4+N116,0)</f>
         <v/>
       </c>
@@ -5542,123 +5564,123 @@
       <c r="B119" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="54" t="n"/>
-      <c r="D119" s="54" t="n"/>
-      <c r="E119" s="54" t="n"/>
-      <c r="F119" s="54" t="n"/>
-      <c r="G119" s="54" t="n"/>
-      <c r="H119" s="54" t="n"/>
-      <c r="I119" s="54" t="n"/>
-      <c r="J119" s="54" t="n"/>
-      <c r="K119" s="54" t="n"/>
-      <c r="L119" s="54" t="n"/>
-      <c r="M119" s="54" t="n"/>
-      <c r="N119" s="54" t="n"/>
+      <c r="C119" s="55" t="n"/>
+      <c r="D119" s="55" t="n"/>
+      <c r="E119" s="55" t="n"/>
+      <c r="F119" s="55" t="n"/>
+      <c r="G119" s="55" t="n"/>
+      <c r="H119" s="55" t="n"/>
+      <c r="I119" s="55" t="n"/>
+      <c r="J119" s="55" t="n"/>
+      <c r="K119" s="55" t="n"/>
+      <c r="L119" s="55" t="n"/>
+      <c r="M119" s="55" t="n"/>
+      <c r="N119" s="55" t="n"/>
     </row>
     <row r="120" spans="1:19">
       <c r="B120" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="50">
+      <c r="C120" s="51">
         <f>+C118-C119</f>
         <v/>
       </c>
-      <c r="D120" s="50">
+      <c r="D120" s="51">
         <f>+D118-D119</f>
         <v/>
       </c>
-      <c r="E120" s="50">
+      <c r="E120" s="51">
         <f>+E118-E119</f>
         <v/>
       </c>
-      <c r="F120" s="50">
+      <c r="F120" s="51">
         <f>+F118-F119</f>
         <v/>
       </c>
-      <c r="G120" s="50">
+      <c r="G120" s="51">
         <f>+G118-G119</f>
         <v/>
       </c>
-      <c r="H120" s="50" t="n"/>
-      <c r="I120" s="50">
+      <c r="H120" s="51" t="n"/>
+      <c r="I120" s="51">
         <f>+I118-I119</f>
         <v/>
       </c>
-      <c r="J120" s="50">
+      <c r="J120" s="51">
         <f>+J118-J119</f>
         <v/>
       </c>
-      <c r="K120" s="50">
+      <c r="K120" s="51">
         <f>+K118-K119</f>
         <v/>
       </c>
-      <c r="L120" s="50" t="n"/>
-      <c r="M120" s="50" t="n"/>
-      <c r="N120" s="50" t="n"/>
+      <c r="L120" s="51" t="n"/>
+      <c r="M120" s="51" t="n"/>
+      <c r="N120" s="51" t="n"/>
     </row>
     <row r="121" spans="1:19">
       <c r="B121" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="54" t="n"/>
-      <c r="D121" s="54" t="n"/>
-      <c r="E121" s="54" t="n"/>
-      <c r="F121" s="54" t="n"/>
-      <c r="G121" s="54" t="n"/>
-      <c r="H121" s="54" t="n"/>
-      <c r="I121" s="54" t="n"/>
-      <c r="J121" s="54" t="n"/>
-      <c r="K121" s="54" t="n"/>
-      <c r="L121" s="54" t="n"/>
-      <c r="M121" s="54" t="n"/>
-      <c r="N121" s="54" t="n"/>
+      <c r="C121" s="55" t="n"/>
+      <c r="D121" s="55" t="n"/>
+      <c r="E121" s="55" t="n"/>
+      <c r="F121" s="55" t="n"/>
+      <c r="G121" s="55" t="n"/>
+      <c r="H121" s="55" t="n"/>
+      <c r="I121" s="55" t="n"/>
+      <c r="J121" s="55" t="n"/>
+      <c r="K121" s="55" t="n"/>
+      <c r="L121" s="55" t="n"/>
+      <c r="M121" s="55" t="n"/>
+      <c r="N121" s="55" t="n"/>
     </row>
     <row r="122" spans="1:19">
       <c r="B122" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="53">
+      <c r="C122" s="54">
         <f>+C119+C121</f>
         <v/>
       </c>
-      <c r="D122" s="53">
+      <c r="D122" s="54">
         <f>+D119+D121</f>
         <v/>
       </c>
-      <c r="E122" s="53">
+      <c r="E122" s="54">
         <f>+E119+E121</f>
         <v/>
       </c>
-      <c r="F122" s="53">
+      <c r="F122" s="54">
         <f>+F119+F121</f>
         <v/>
       </c>
-      <c r="G122" s="53">
+      <c r="G122" s="54">
         <f>+G119+G121</f>
         <v/>
       </c>
-      <c r="H122" s="53" t="n"/>
-      <c r="I122" s="53">
+      <c r="H122" s="54" t="n"/>
+      <c r="I122" s="54">
         <f>+I119+I121</f>
         <v/>
       </c>
-      <c r="J122" s="53">
+      <c r="J122" s="54">
         <f>+J119+J121</f>
         <v/>
       </c>
-      <c r="K122" s="53">
+      <c r="K122" s="54">
         <f>+K119+K121</f>
         <v/>
       </c>
-      <c r="L122" s="53">
+      <c r="L122" s="54">
         <f>+L119+L121</f>
         <v/>
       </c>
-      <c r="M122" s="53">
+      <c r="M122" s="54">
         <f>+M119+M121</f>
         <v/>
       </c>
-      <c r="N122" s="53">
+      <c r="N122" s="54">
         <f>+N119+N121</f>
         <v/>
       </c>
@@ -5667,69 +5689,135 @@
       <c r="B123" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="47">
+      <c r="C123" s="48">
         <f>+C118-C122</f>
         <v/>
       </c>
-      <c r="D123" s="47">
+      <c r="D123" s="48">
         <f>+D118-D122</f>
         <v/>
       </c>
-      <c r="E123" s="47">
+      <c r="E123" s="48">
         <f>+E118-E122</f>
         <v/>
       </c>
-      <c r="F123" s="47">
+      <c r="F123" s="48">
         <f>+F118-F122</f>
         <v/>
       </c>
-      <c r="G123" s="47">
+      <c r="G123" s="48">
         <f>+G118-G122</f>
         <v/>
       </c>
-      <c r="H123" s="47" t="n"/>
-      <c r="I123" s="47">
+      <c r="H123" s="48" t="n"/>
+      <c r="I123" s="48">
         <f>+I118-I122</f>
         <v/>
       </c>
-      <c r="J123" s="47">
+      <c r="J123" s="48">
         <f>+J118-J122</f>
         <v/>
       </c>
-      <c r="K123" s="47">
+      <c r="K123" s="48">
         <f>+K118-K122</f>
         <v/>
       </c>
-      <c r="L123" s="47">
+      <c r="L123" s="48">
         <f>+L118-L122</f>
         <v/>
       </c>
-      <c r="M123" s="47">
+      <c r="M123" s="48">
         <f>+M118-M122</f>
         <v/>
       </c>
-      <c r="N123" s="47">
+      <c r="N123" s="48">
         <f>+N118-N122</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:19">
-      <c r="B125" s="58" t="n"/>
+      <c r="B125" s="59" t="n">
+        <v>43115</v>
+      </c>
+      <c r="C125" t="n">
+        <v>804.38</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1228.41</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1860</v>
+      </c>
     </row>
     <row r="126" spans="1:19">
-      <c r="C126" s="59" t="n"/>
-      <c r="N126" s="59" t="n"/>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="60" t="n"/>
+      <c r="D126" s="60" t="n"/>
+      <c r="E126" s="60" t="n"/>
+      <c r="F126" s="60" t="n"/>
+      <c r="G126" s="60" t="n"/>
+      <c r="H126" s="60" t="n"/>
+      <c r="I126" s="60" t="n"/>
+      <c r="J126" s="60" t="n"/>
+      <c r="K126" s="60" t="n"/>
+      <c r="L126" s="60" t="n"/>
+      <c r="M126" s="60" t="n"/>
+      <c r="N126" s="60" t="n"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="128" spans="1:19">
-      <c r="C128" s="59" t="n"/>
-      <c r="N128" s="59" t="n"/>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="60" t="n"/>
+      <c r="D128" s="60" t="n"/>
+      <c r="E128" s="60" t="n"/>
+      <c r="F128" s="60" t="n"/>
+      <c r="G128" s="60" t="n"/>
+      <c r="H128" s="60" t="n"/>
+      <c r="I128" s="60" t="n"/>
+      <c r="J128" s="60" t="n"/>
+      <c r="K128" s="60" t="n"/>
+      <c r="L128" s="60" t="n"/>
+      <c r="M128" s="60" t="n"/>
+      <c r="N128" s="60" t="n"/>
     </row>
     <row r="129" spans="1:19">
-      <c r="C129" s="60" t="n"/>
-      <c r="N129" s="60" t="n"/>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="61" t="n"/>
+      <c r="D129" s="61" t="n"/>
+      <c r="E129" s="61" t="n"/>
+      <c r="F129" s="61" t="n"/>
+      <c r="G129" s="61" t="n"/>
+      <c r="H129" s="61" t="n"/>
+      <c r="I129" s="61" t="n"/>
+      <c r="J129" s="61" t="n"/>
+      <c r="K129" s="61" t="n"/>
+      <c r="L129" s="61" t="n"/>
+      <c r="M129" s="61" t="n"/>
+      <c r="N129" s="61" t="n"/>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="131" spans="1:19">
-      <c r="B131" s="60" t="n"/>
+      <c r="B131" s="61" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H26 C74:D74 C95:D95 C25:F25 F95 H95:M95 H25:M25">
@@ -6005,7 +6093,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967294" orientation="portrait" verticalDpi="0"/>
+  <pageSetup horizontalDpi="4294967294" orientation="portrait"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -6158,10 +6246,10 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="22" s="26" spans="1:11">
+    <row r="22" spans="1:11">
       <c r="H22" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="23" s="26" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="H23" s="43" t="n"/>
     </row>
   </sheetData>

--- a/Prubes.xlsx
+++ b/Prubes.xlsx
@@ -1270,17 +1270,14 @@
   <sheetData>
     <row customFormat="1" r="1" s="27" spans="1:19">
       <c r="B1" s="36" t="n"/>
-      <c r="C1" s="27">
-        <f>2730.27*2</f>
-        <v/>
-      </c>
-      <c r="D1" s="27">
-        <f>+C1/6</f>
-        <v/>
-      </c>
-      <c r="E1" s="47">
-        <f>+D1+C4</f>
-        <v/>
+      <c r="C1" s="27" t="n">
+        <v>5460.54</v>
+      </c>
+      <c r="D1" s="27" t="n">
+        <v>910.09</v>
+      </c>
+      <c r="E1" s="47" t="n">
+        <v>3640.3588</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>0</v>
@@ -1406,9 +1403,8 @@
       <c r="N4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="S4" s="39">
-        <f>208-24</f>
-        <v/>
+      <c r="S4" s="39" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1569,48 +1565,38 @@
       <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="53">
-        <f>+SUM(C17+C24+C31+C38+C45+C52+C59+C66+C73+C80+C87+C94+C101+C108+C115)</f>
-        <v/>
-      </c>
-      <c r="D10" s="53">
-        <f>+SUM(D17+D24+D31+D38+D45+D52+D59+D66+D73+D80+D87+D94+D101+D108+D115)</f>
-        <v/>
-      </c>
-      <c r="E10" s="53">
-        <f>+SUM(E17+E24+E31+E38+E45+E52+E59+E66+E73+E80+E87+E94+E101+E108+E115)</f>
-        <v/>
-      </c>
-      <c r="F10" s="53">
-        <f>+SUM(F17+F24+F31+F38+F45+F52+F59+F66+F73+F80+F87+F94+F101+F108+F115)</f>
-        <v/>
-      </c>
-      <c r="G10" s="53">
-        <f>+SUM(G17+G24+G31+G38+G45+G52+G59+G66+G73+G80+G87+G94+G101+G108+G115)</f>
-        <v/>
-      </c>
-      <c r="H10" s="53">
-        <f>+SUM(H17+H24+H31+H38+H45+H52+H59+H66+H73+H80+H87+H94+H101+H108+H115)</f>
-        <v/>
-      </c>
-      <c r="I10" s="53">
-        <f>+SUM(I17+I24+I31+I38+I45+I52+I59+I66+I73+I80+I87+I94+I101+I108+I115)</f>
-        <v/>
-      </c>
-      <c r="J10" s="53">
-        <f>+SUM(J17+J24+J31+J38+J45+J52+J59+J66+J73+J80+J87+J94+J101+J108+J115)</f>
-        <v/>
-      </c>
-      <c r="K10" s="53">
-        <f>+SUM(K17+K24+K31+K38+K45+K52+K59+K66+K73+K80+K87+K94+K101+K108+K115)</f>
-        <v/>
+      <c r="C10" s="53" t="n">
+        <v>36111.72</v>
+      </c>
+      <c r="D10" s="53" t="n">
+        <v>27932.25</v>
+      </c>
+      <c r="E10" s="53" t="n">
+        <v>15417.75</v>
+      </c>
+      <c r="F10" s="53" t="n">
+        <v>4849.25</v>
+      </c>
+      <c r="G10" s="53" t="n">
+        <v>23171.4</v>
+      </c>
+      <c r="H10" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53" t="n">
+        <v>16740</v>
+      </c>
+      <c r="J10" s="53" t="n">
+        <v>6130.49</v>
+      </c>
+      <c r="K10" s="53" t="n">
+        <v>245.28</v>
       </c>
       <c r="L10" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="53">
-        <f>+SUM(M17+M24+M31+M38+M45+M52+M59+M66+M73+M80+M87+M94+M101+M108+M115)</f>
-        <v/>
+      <c r="M10" s="53" t="n">
+        <v>5085.76</v>
       </c>
       <c r="N10" s="53" t="n">
         <v>0</v>
@@ -1620,53 +1606,41 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="54">
-        <f>+C9-C10</f>
-        <v/>
-      </c>
-      <c r="D11" s="54">
-        <f>+D9-D10</f>
-        <v/>
-      </c>
-      <c r="E11" s="54">
-        <f>+E9-E10</f>
-        <v/>
-      </c>
-      <c r="F11" s="54">
-        <f>+F9-F10</f>
-        <v/>
-      </c>
-      <c r="G11" s="54">
-        <f>+G9-G10</f>
-        <v/>
-      </c>
-      <c r="H11" s="54">
-        <f>+H9-H10</f>
-        <v/>
-      </c>
-      <c r="I11" s="54">
-        <f>+I9-I10</f>
-        <v/>
-      </c>
-      <c r="J11" s="54">
-        <f>+J9-J10</f>
-        <v/>
-      </c>
-      <c r="K11" s="54">
-        <f>+K9-K10</f>
-        <v/>
-      </c>
-      <c r="L11" s="54">
-        <f>+L9-L10</f>
-        <v/>
-      </c>
-      <c r="M11" s="54">
-        <f>+M9-M10</f>
-        <v/>
-      </c>
-      <c r="N11" s="54">
-        <f>+N9-N10</f>
-        <v/>
+      <c r="C11" s="54" t="n">
+        <v>531783.8300000001</v>
+      </c>
+      <c r="D11" s="54" t="n">
+        <v>358947.75</v>
+      </c>
+      <c r="E11" s="54" t="n">
+        <v>428582.25</v>
+      </c>
+      <c r="F11" s="54" t="n">
+        <v>382030.75</v>
+      </c>
+      <c r="G11" s="54" t="n">
+        <v>420828.6</v>
+      </c>
+      <c r="H11" s="54" t="n">
+        <v>444000</v>
+      </c>
+      <c r="I11" s="54" t="n">
+        <v>370140</v>
+      </c>
+      <c r="J11" s="54" t="n">
+        <v>437869.51</v>
+      </c>
+      <c r="K11" s="54" t="n">
+        <v>443754.72</v>
+      </c>
+      <c r="L11" s="54" t="n">
+        <v>444000</v>
+      </c>
+      <c r="M11" s="54" t="n">
+        <v>438914.24</v>
+      </c>
+      <c r="N11" s="54" t="n">
+        <v>428000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="26" spans="1:19">
@@ -1683,46 +1657,36 @@
       <c r="B13" s="10" t="n">
         <v>43007</v>
       </c>
-      <c r="C13" s="51">
-        <f>IF(C12&lt;&gt;0, C$4, 0)</f>
-        <v/>
-      </c>
-      <c r="D13" s="51">
-        <f>IF(D12&lt;&gt;0, D$4, 0)</f>
-        <v/>
-      </c>
-      <c r="E13" s="51">
-        <f>IF(E12&lt;&gt;0, E$4, 0)</f>
-        <v/>
-      </c>
-      <c r="F13" s="51">
-        <f>IF(F12&lt;&gt;0, F$4, 0)</f>
-        <v/>
-      </c>
-      <c r="G13" s="51">
-        <f>IF(G12&lt;&gt;0, G$4, 0)</f>
-        <v/>
-      </c>
-      <c r="H13" s="51">
-        <f>IF(H12&lt;&gt;0, H$4, 0)</f>
-        <v/>
-      </c>
-      <c r="I13" s="51">
-        <f>IF(I12&lt;&gt;0, I$4, 0)</f>
-        <v/>
-      </c>
-      <c r="J13" s="51">
-        <f>IF(J12&lt;&gt;0, J$4, 0)</f>
-        <v/>
-      </c>
-      <c r="K13" s="51">
-        <f>IF(K12&lt;&gt;0, K$4, 0)</f>
-        <v/>
+      <c r="C13" s="51" t="n">
+        <v>2730.2688</v>
+      </c>
+      <c r="D13" s="51" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L13" s="51" t="n"/>
-      <c r="M13" s="51">
-        <f>IF(M12&lt;&gt;0, M$4, 0)</f>
-        <v/>
+      <c r="M13" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="14" s="26" spans="1:19">
@@ -1769,13 +1733,11 @@
       <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="51">
-        <f>+$C$4-C14</f>
-        <v/>
-      </c>
-      <c r="D15" s="51">
-        <f>+D4-D14</f>
-        <v/>
+      <c r="C15" s="51" t="n">
+        <v>376.5888</v>
+      </c>
+      <c r="D15" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="E15" s="51" t="n">
         <v>0</v>
@@ -1847,46 +1809,36 @@
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54">
-        <f>+C14+C16</f>
-        <v/>
-      </c>
-      <c r="D17" s="54">
-        <f>+D14+D16</f>
-        <v/>
-      </c>
-      <c r="E17" s="54">
-        <f>+SUM(E13:E15)</f>
-        <v/>
-      </c>
-      <c r="F17" s="54">
-        <f>+SUM(F13:F15)</f>
-        <v/>
-      </c>
-      <c r="G17" s="54">
-        <f>+SUM(G13:G15)</f>
-        <v/>
-      </c>
-      <c r="H17" s="54">
-        <f>+SUM(H13:H15)</f>
-        <v/>
-      </c>
-      <c r="I17" s="54">
-        <f>+SUM(I13:I15)</f>
-        <v/>
-      </c>
-      <c r="J17" s="54">
-        <f>+SUM(J13:J15)</f>
-        <v/>
-      </c>
-      <c r="K17" s="54">
-        <f>+SUM(K13:K15)</f>
-        <v/>
+      <c r="C17" s="54" t="n">
+        <v>2353.68</v>
+      </c>
+      <c r="D17" s="54" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L17" s="54" t="n"/>
-      <c r="M17" s="54">
-        <f>+SUM(M13:M15)</f>
-        <v/>
+      <c r="M17" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="18" s="26" spans="1:19">
@@ -1894,57 +1846,45 @@
       <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="56">
-        <f>+C13-C17</f>
-        <v/>
-      </c>
-      <c r="D18" s="56">
-        <f>+D13-D17</f>
-        <v/>
-      </c>
-      <c r="E18" s="56">
-        <f>+E13-E17</f>
-        <v/>
-      </c>
-      <c r="F18" s="56">
-        <f>+F13-F17</f>
-        <v/>
-      </c>
-      <c r="G18" s="56">
-        <f>+G13-G17</f>
-        <v/>
-      </c>
-      <c r="H18" s="56">
-        <f>+H13-H17</f>
-        <v/>
-      </c>
-      <c r="I18" s="56">
-        <f>+I13-I17</f>
-        <v/>
-      </c>
-      <c r="J18" s="56">
-        <f>+J13-J17</f>
-        <v/>
-      </c>
-      <c r="K18" s="56">
-        <f>+K13-K17</f>
-        <v/>
+      <c r="C18" s="56" t="n">
+        <v>376.5888</v>
+      </c>
+      <c r="D18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L18" s="56" t="n"/>
-      <c r="M18" s="56">
-        <f>+M13-M17</f>
-        <v/>
+      <c r="M18" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="15" t="n"/>
-      <c r="C19" s="39">
-        <f>+C12+1</f>
-        <v/>
-      </c>
-      <c r="D19" s="39">
-        <f>+D12+1</f>
-        <v/>
+      <c r="C19" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="39" t="n">
+        <v>2</v>
       </c>
       <c r="G19" s="48" t="n"/>
       <c r="H19" s="22" t="n"/>
@@ -1956,46 +1896,36 @@
       <c r="B20" s="10" t="n">
         <v>43014</v>
       </c>
-      <c r="C20" s="51">
-        <f>IF(C12&lt;&gt;0, C$4+C18,0)</f>
-        <v/>
-      </c>
-      <c r="D20" s="51">
-        <f>IF(D12&lt;&gt;0, D$4+D18,0)</f>
-        <v/>
-      </c>
-      <c r="E20" s="51">
-        <f>IF(E12&lt;&gt;0, E$4+E18,0)</f>
-        <v/>
-      </c>
-      <c r="F20" s="51">
-        <f>IF(F12&lt;&gt;0, F$4+F18,0)</f>
-        <v/>
-      </c>
-      <c r="G20" s="51">
-        <f>IF(G12&lt;&gt;0, G$4+G18,0)</f>
-        <v/>
-      </c>
-      <c r="H20" s="51">
-        <f>IF(H12&lt;&gt;0, H$4+H18,0)</f>
-        <v/>
-      </c>
-      <c r="I20" s="51">
-        <f>IF(I12&lt;&gt;0, I$4+I18,0)</f>
-        <v/>
-      </c>
-      <c r="J20" s="51">
-        <f>IF(J12&lt;&gt;0, J$4+J18,0)</f>
-        <v/>
-      </c>
-      <c r="K20" s="51">
-        <f>IF(K12&lt;&gt;0, K$4+K18,0)</f>
-        <v/>
+      <c r="C20" s="51" t="n">
+        <v>3106.8576</v>
+      </c>
+      <c r="D20" s="51" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L20" s="51" t="n"/>
-      <c r="M20" s="51">
-        <f>IF(M12&lt;&gt;0, M$4+M18,0)</f>
-        <v/>
+      <c r="M20" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="21" s="26" spans="1:19">
@@ -2030,46 +1960,36 @@
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="51">
-        <f>+C20-C21</f>
-        <v/>
-      </c>
-      <c r="D22" s="51">
-        <f>+D20-D21</f>
-        <v/>
-      </c>
-      <c r="E22" s="51">
-        <f>+E20-E21</f>
-        <v/>
-      </c>
-      <c r="F22" s="51">
-        <f>+F20-F21</f>
-        <v/>
-      </c>
-      <c r="G22" s="51">
-        <f>+G20-G21</f>
-        <v/>
-      </c>
-      <c r="H22" s="51">
-        <f>+H20-H21</f>
-        <v/>
-      </c>
-      <c r="I22" s="51">
-        <f>+I20-I21</f>
-        <v/>
-      </c>
-      <c r="J22" s="51">
-        <f>+J20-J21</f>
-        <v/>
-      </c>
-      <c r="K22" s="51">
-        <f>+K20-K21</f>
-        <v/>
+      <c r="C22" s="51" t="n">
+        <v>1709.3176</v>
+      </c>
+      <c r="D22" s="51" t="n">
+        <v>746.3200000000002</v>
+      </c>
+      <c r="E22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L22" s="51" t="n"/>
-      <c r="M22" s="51">
-        <f>+M20-M21</f>
-        <v/>
+      <c r="M22" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="23" s="26" spans="1:19">
@@ -2104,102 +2024,80 @@
       <c r="B24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="54">
-        <f>+C21+C23</f>
-        <v/>
-      </c>
-      <c r="D24" s="54">
-        <f>+D21+D23</f>
-        <v/>
-      </c>
-      <c r="E24" s="54">
-        <f>+E21+E23</f>
-        <v/>
-      </c>
-      <c r="F24" s="54">
-        <f>+F21+F23</f>
-        <v/>
-      </c>
-      <c r="G24" s="54">
-        <f>+G21+G23</f>
-        <v/>
-      </c>
-      <c r="H24" s="54">
-        <f>+H21+H23</f>
-        <v/>
-      </c>
-      <c r="I24" s="54">
-        <f>+I21+I23</f>
-        <v/>
-      </c>
-      <c r="J24" s="54">
-        <f>+J21+J23</f>
-        <v/>
-      </c>
-      <c r="K24" s="54">
-        <f>+K21+K23</f>
-        <v/>
+      <c r="C24" s="54" t="n">
+        <v>2352.32</v>
+      </c>
+      <c r="D24" s="54" t="n">
+        <v>3100.18</v>
+      </c>
+      <c r="E24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L24" s="54" t="n"/>
-      <c r="M24" s="54">
-        <f>+M21+M23</f>
-        <v/>
+      <c r="M24" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="56">
-        <f>+C20-C24</f>
-        <v/>
-      </c>
-      <c r="D25" s="56">
-        <f>+D20-D24</f>
-        <v/>
-      </c>
-      <c r="E25" s="56">
-        <f>+E20-E24</f>
-        <v/>
-      </c>
-      <c r="F25" s="56">
-        <f>+F20-F24</f>
-        <v/>
-      </c>
-      <c r="G25" s="56">
-        <f>+G20-G24</f>
-        <v/>
-      </c>
-      <c r="H25" s="56">
-        <f>+H20-H24</f>
-        <v/>
-      </c>
-      <c r="I25" s="56">
-        <f>+I20-I24</f>
-        <v/>
-      </c>
-      <c r="J25" s="56">
-        <f>+J20-J24</f>
-        <v/>
-      </c>
-      <c r="K25" s="56">
-        <f>+K20-K24</f>
-        <v/>
+      <c r="C25" s="56" t="n">
+        <v>754.5376000000001</v>
+      </c>
+      <c r="D25" s="56" t="n">
+        <v>-0.1799999999998363</v>
+      </c>
+      <c r="E25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L25" s="56" t="n"/>
-      <c r="M25" s="56">
-        <f>+M20-M24</f>
-        <v/>
+      <c r="M25" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="C26" s="39">
-        <f>+C19+1</f>
-        <v/>
-      </c>
-      <c r="D26" s="39">
-        <f>+D19+1</f>
-        <v/>
+      <c r="C26" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="39" t="n">
+        <v>3</v>
       </c>
       <c r="G26" s="48" t="n"/>
       <c r="H26" s="57" t="n"/>
@@ -2209,46 +2107,36 @@
       <c r="B27" s="10" t="n">
         <v>43021</v>
       </c>
-      <c r="C27" s="48">
-        <f>IF(C26&lt;&gt;0, C$4+C25,0)</f>
-        <v/>
-      </c>
-      <c r="D27" s="48">
-        <f>IF(D26&lt;&gt;0, D$4+D25,0)</f>
-        <v/>
-      </c>
-      <c r="E27" s="48">
-        <f>IF(E26&lt;&gt;0, E$4+E25,0)</f>
-        <v/>
-      </c>
-      <c r="F27" s="48">
-        <f>IF(F26&lt;&gt;0, F$4+F25,0)</f>
-        <v/>
-      </c>
-      <c r="G27" s="48">
-        <f>IF(G26&lt;&gt;0, G$4+G25,0)</f>
-        <v/>
-      </c>
-      <c r="H27" s="48">
-        <f>IF(H26&lt;&gt;0, H$4+H25,0)</f>
-        <v/>
-      </c>
-      <c r="I27" s="48">
-        <f>IF(I26&lt;&gt;0, I$4+I25,0)</f>
-        <v/>
-      </c>
-      <c r="J27" s="48">
-        <f>IF(J26&lt;&gt;0, J$4+J25,0)</f>
-        <v/>
-      </c>
-      <c r="K27" s="48">
-        <f>IF(K26&lt;&gt;0, K$4+K25,0)</f>
-        <v/>
+      <c r="C27" s="48" t="n">
+        <v>3484.8064</v>
+      </c>
+      <c r="D27" s="48" t="n">
+        <v>3099.82</v>
+      </c>
+      <c r="E27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n"/>
-      <c r="M27" s="48">
-        <f>IF(M26&lt;&gt;0, M$4+M25,0)</f>
-        <v/>
+      <c r="M27" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="28" s="26" spans="1:19">
@@ -2282,46 +2170,36 @@
       <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="51">
-        <f>+C27-C28</f>
-        <v/>
-      </c>
-      <c r="D29" s="51">
-        <f>+D27-D28</f>
-        <v/>
-      </c>
-      <c r="E29" s="51">
-        <f>+E27-E28</f>
-        <v/>
-      </c>
-      <c r="F29" s="51">
-        <f>+F27-F28</f>
-        <v/>
-      </c>
-      <c r="G29" s="51">
-        <f>+G27-G28</f>
-        <v/>
-      </c>
-      <c r="H29" s="51">
-        <f>+H27-H28</f>
-        <v/>
-      </c>
-      <c r="I29" s="51">
-        <f>+I27-I28</f>
-        <v/>
-      </c>
-      <c r="J29" s="51">
-        <f>+J27-J28</f>
-        <v/>
-      </c>
-      <c r="K29" s="51">
-        <f>+K27-K28</f>
-        <v/>
+      <c r="C29" s="51" t="n">
+        <v>1264.8364</v>
+      </c>
+      <c r="D29" s="51" t="n">
+        <v>718.5500000000002</v>
+      </c>
+      <c r="E29" s="51" t="n">
+        <v>-1930.85</v>
+      </c>
+      <c r="F29" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51">
-        <f>+M27-M28</f>
-        <v/>
+      <c r="M29" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="30" s="26" spans="1:19">
@@ -2355,102 +2233,80 @@
       <c r="B31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="54">
-        <f>+C28+C30</f>
-        <v/>
-      </c>
-      <c r="D31" s="54">
-        <f>+D28+D30</f>
-        <v/>
-      </c>
-      <c r="E31" s="54">
-        <f>+E28+E30</f>
-        <v/>
-      </c>
-      <c r="F31" s="54">
-        <f>+F28+F30</f>
-        <v/>
-      </c>
-      <c r="G31" s="54">
-        <f>+G28+G30</f>
-        <v/>
-      </c>
-      <c r="H31" s="54">
-        <f>+H28+H30</f>
-        <v/>
-      </c>
-      <c r="I31" s="54">
-        <f>+I28+I30</f>
-        <v/>
-      </c>
-      <c r="J31" s="54">
-        <f>+J28+J30</f>
-        <v/>
-      </c>
-      <c r="K31" s="54">
-        <f>+K28+K30</f>
-        <v/>
+      <c r="C31" s="54" t="n">
+        <v>3484.77</v>
+      </c>
+      <c r="D31" s="54" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L31" s="54" t="n"/>
-      <c r="M31" s="54">
-        <f>+M28+M30</f>
-        <v/>
+      <c r="M31" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="B32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="56">
-        <f>+C27-C31</f>
-        <v/>
-      </c>
-      <c r="D32" s="56">
-        <f>+D27-D31</f>
-        <v/>
-      </c>
-      <c r="E32" s="56">
-        <f>+E27-E31</f>
-        <v/>
-      </c>
-      <c r="F32" s="56">
-        <f>+F27-F31</f>
-        <v/>
-      </c>
-      <c r="G32" s="56">
-        <f>+G27-G31</f>
-        <v/>
-      </c>
-      <c r="H32" s="56">
-        <f>+H27-H31</f>
-        <v/>
-      </c>
-      <c r="I32" s="56">
-        <f>+I27-I31</f>
-        <v/>
-      </c>
-      <c r="J32" s="56">
-        <f>+J27-J31</f>
-        <v/>
-      </c>
-      <c r="K32" s="56">
-        <f>+K27-K31</f>
-        <v/>
+      <c r="C32" s="56" t="n">
+        <v>0.03640000000041255</v>
+      </c>
+      <c r="D32" s="56" t="n">
+        <v>-0.1799999999998363</v>
+      </c>
+      <c r="E32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L32" s="56" t="n"/>
-      <c r="M32" s="56">
-        <f>+M27-M31</f>
-        <v/>
+      <c r="M32" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="C33" s="39">
-        <f>+C26+1</f>
-        <v/>
-      </c>
-      <c r="D33" s="39">
-        <f>+D26+1</f>
-        <v/>
+      <c r="C33" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39" t="n">
+        <v>4</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>1</v>
@@ -2464,46 +2320,36 @@
       <c r="B34" s="10" t="n">
         <v>43028</v>
       </c>
-      <c r="C34" s="48">
-        <f>IF(C33&lt;&gt;0, C$4+C32,0)</f>
-        <v/>
-      </c>
-      <c r="D34" s="48">
-        <f>IF(D33&lt;&gt;0, D$4+D32,0)</f>
-        <v/>
-      </c>
-      <c r="E34" s="48">
-        <f>IF(E33&lt;&gt;0, E$4+E32,0)</f>
-        <v/>
-      </c>
-      <c r="F34" s="48">
-        <f>IF(F33&lt;&gt;0, F$4+F32,0)</f>
-        <v/>
-      </c>
-      <c r="G34" s="48">
-        <f>IF(G33&lt;&gt;0, G$4+G32,0)</f>
-        <v/>
-      </c>
-      <c r="H34" s="48">
-        <f>IF(H33&lt;&gt;0, H$4+H32,0)</f>
-        <v/>
-      </c>
-      <c r="I34" s="48">
-        <f>IF(I33&lt;&gt;0, I$4+I32,0)</f>
-        <v/>
-      </c>
-      <c r="J34" s="48">
-        <f>IF(J33&lt;&gt;0, J$4+J32,0)</f>
-        <v/>
-      </c>
-      <c r="K34" s="48">
-        <f>IF(K33&lt;&gt;0, K$4+K32,0)</f>
-        <v/>
+      <c r="C34" s="48" t="n">
+        <v>2730.3052</v>
+      </c>
+      <c r="D34" s="48" t="n">
+        <v>3099.82</v>
+      </c>
+      <c r="E34" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H34" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n"/>
-      <c r="M34" s="48">
-        <f>IF(M33&lt;&gt;0, M$4+M32,0)</f>
-        <v/>
+      <c r="M34" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="35" s="26" spans="1:19">
@@ -2537,46 +2383,36 @@
       <c r="B36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="51">
-        <f>+C34-C35</f>
-        <v/>
-      </c>
-      <c r="D36" s="51">
-        <f>+D34-D35</f>
-        <v/>
-      </c>
-      <c r="E36" s="51">
-        <f>+E34-E35</f>
-        <v/>
-      </c>
-      <c r="F36" s="51">
-        <f>+F34-F35</f>
-        <v/>
-      </c>
-      <c r="G36" s="51">
-        <f>+G34-G35</f>
-        <v/>
-      </c>
-      <c r="H36" s="51">
-        <f>+H34-H35</f>
-        <v/>
-      </c>
-      <c r="I36" s="51">
-        <f>+I34-I35</f>
-        <v/>
-      </c>
-      <c r="J36" s="51">
-        <f>+J34-J35</f>
-        <v/>
-      </c>
-      <c r="K36" s="51">
-        <f>+K34-K35</f>
-        <v/>
+      <c r="C36" s="51" t="n">
+        <v>225.7352000000001</v>
+      </c>
+      <c r="D36" s="51" t="n">
+        <v>875.73</v>
+      </c>
+      <c r="E36" s="51" t="n">
+        <v>108.5700000000002</v>
+      </c>
+      <c r="F36" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L36" s="51" t="n"/>
-      <c r="M36" s="51">
-        <f>+M34-M35</f>
-        <v/>
+      <c r="M36" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="37" s="26" spans="1:19">
@@ -2606,111 +2442,87 @@
       <c r="B38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="54">
-        <f>+C35+C37</f>
-        <v/>
-      </c>
-      <c r="D38" s="54">
-        <f>+D35+D37</f>
-        <v/>
-      </c>
-      <c r="E38" s="54">
-        <f>+E35+E37</f>
-        <v/>
-      </c>
-      <c r="F38" s="54">
-        <f>+F35+F37</f>
-        <v/>
-      </c>
-      <c r="G38" s="54">
-        <f>+G35+G37</f>
-        <v/>
-      </c>
-      <c r="H38" s="54">
-        <f>+H35+H37</f>
-        <v/>
-      </c>
-      <c r="I38" s="54">
-        <f>+I35+I37</f>
-        <v/>
-      </c>
-      <c r="J38" s="54">
-        <f>+J35+J37</f>
-        <v/>
-      </c>
-      <c r="K38" s="54">
-        <f>+K35+K37</f>
-        <v/>
+      <c r="C38" s="54" t="n">
+        <v>2730.31</v>
+      </c>
+      <c r="D38" s="54" t="n">
+        <v>2224.09</v>
+      </c>
+      <c r="E38" s="54" t="n">
+        <v>2391.43</v>
+      </c>
+      <c r="F38" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="54" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H38" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L38" s="54" t="n"/>
-      <c r="M38" s="54">
-        <f>+M35+M37</f>
-        <v/>
+      <c r="M38" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="56">
-        <f>+C34-C38</f>
-        <v/>
-      </c>
-      <c r="D39" s="56">
-        <f>+D34-D38</f>
-        <v/>
-      </c>
-      <c r="E39" s="56">
-        <f>+E34-E38</f>
-        <v/>
-      </c>
-      <c r="F39" s="56">
-        <f>+F34-F38</f>
-        <v/>
-      </c>
-      <c r="G39" s="56">
-        <f>+G34-G38</f>
-        <v/>
-      </c>
-      <c r="H39" s="56">
-        <f>+H34-H38</f>
-        <v/>
-      </c>
-      <c r="I39" s="56">
-        <f>+I34-I38</f>
-        <v/>
-      </c>
-      <c r="J39" s="56">
-        <f>+J34-J38</f>
-        <v/>
-      </c>
-      <c r="K39" s="56">
-        <f>+K34-K38</f>
-        <v/>
+      <c r="C39" s="56" t="n">
+        <v>-0.004800000000159343</v>
+      </c>
+      <c r="D39" s="56" t="n">
+        <v>875.73</v>
+      </c>
+      <c r="E39" s="56" t="n">
+        <v>108.5700000000002</v>
+      </c>
+      <c r="F39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L39" s="56" t="n"/>
-      <c r="M39" s="56">
-        <f>+M34-M38</f>
-        <v/>
+      <c r="M39" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="C40" s="29">
-        <f>+C33+1</f>
-        <v/>
-      </c>
-      <c r="D40" s="29">
-        <f>+D33+1</f>
-        <v/>
-      </c>
-      <c r="E40" s="29">
-        <f>+E33+1</f>
-        <v/>
+      <c r="C40" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="F40" s="29" t="n"/>
-      <c r="G40" s="27">
-        <f>+G33+1</f>
-        <v/>
+      <c r="G40" s="27" t="n">
+        <v>2</v>
       </c>
       <c r="H40" s="27" t="n"/>
       <c r="I40" s="27" t="n"/>
@@ -2719,22 +2531,18 @@
       <c r="B41" s="10" t="n">
         <v>43035</v>
       </c>
-      <c r="C41" s="48">
-        <f>+IF(C40&lt;&gt;0, C39+C4,0)</f>
-        <v/>
-      </c>
-      <c r="D41" s="48">
-        <f>2480+D39</f>
-        <v/>
-      </c>
-      <c r="E41" s="48">
-        <f>+IF(E40&lt;&gt;0, E39+E4,0)</f>
-        <v/>
+      <c r="C41" s="48" t="n">
+        <v>2730.264</v>
+      </c>
+      <c r="D41" s="48" t="n">
+        <v>3355.73</v>
+      </c>
+      <c r="E41" s="48" t="n">
+        <v>2608.57</v>
       </c>
       <c r="F41" s="48" t="n"/>
-      <c r="G41" s="48">
-        <f>+IF(G40&lt;&gt;0, G39+G4,0)</f>
-        <v/>
+      <c r="G41" s="48" t="n">
+        <v>2500</v>
       </c>
       <c r="H41" s="48" t="n"/>
       <c r="I41" s="48" t="n"/>
@@ -2774,22 +2582,18 @@
       <c r="B43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="51">
-        <f>+C41-C42</f>
-        <v/>
-      </c>
-      <c r="D43" s="51">
-        <f>+D41-D42</f>
-        <v/>
-      </c>
-      <c r="E43" s="51">
-        <f>+E41-E42</f>
-        <v/>
+      <c r="C43" s="51" t="n">
+        <v>489.1039999999998</v>
+      </c>
+      <c r="D43" s="51" t="n">
+        <v>2946.84</v>
+      </c>
+      <c r="E43" s="51" t="n">
+        <v>1675.19</v>
       </c>
       <c r="F43" s="51" t="n"/>
-      <c r="G43" s="51">
-        <f>+G41-G42</f>
-        <v/>
+      <c r="G43" s="51" t="n">
+        <v>56.51999999999998</v>
       </c>
       <c r="H43" s="51" t="n"/>
       <c r="I43" s="51" t="n"/>
@@ -2827,110 +2631,86 @@
       <c r="B45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="54">
-        <f>+C42+C44</f>
-        <v/>
-      </c>
-      <c r="D45" s="54">
-        <f>+D42+D44</f>
-        <v/>
-      </c>
-      <c r="E45" s="54">
-        <f>+E42+E44</f>
-        <v/>
-      </c>
-      <c r="F45" s="54">
-        <f>+F42+F44</f>
-        <v/>
-      </c>
-      <c r="G45" s="54">
-        <f>+G42+G44</f>
-        <v/>
-      </c>
-      <c r="H45" s="54">
-        <f>+H42+H44</f>
-        <v/>
-      </c>
-      <c r="I45" s="54">
-        <f>+I42+I44</f>
-        <v/>
-      </c>
-      <c r="J45" s="54">
-        <f>+J42+J44</f>
-        <v/>
-      </c>
-      <c r="K45" s="54">
-        <f>+K42+K44</f>
-        <v/>
+      <c r="C45" s="54" t="n">
+        <v>2956.04</v>
+      </c>
+      <c r="D45" s="54" t="n">
+        <v>3355.91</v>
+      </c>
+      <c r="E45" s="54" t="n">
+        <v>933.38</v>
+      </c>
+      <c r="F45" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="54" t="n">
+        <v>2443.48</v>
+      </c>
+      <c r="H45" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L45" s="54" t="n"/>
-      <c r="M45" s="54">
-        <f>+M42+M44</f>
-        <v/>
+      <c r="M45" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="56">
-        <f>+C41-C45</f>
-        <v/>
-      </c>
-      <c r="D46" s="56">
-        <f>+D41-D45</f>
-        <v/>
-      </c>
-      <c r="E46" s="56">
-        <f>+E41-E45</f>
-        <v/>
-      </c>
-      <c r="F46" s="56">
-        <f>+F41-F45</f>
-        <v/>
-      </c>
-      <c r="G46" s="56">
-        <f>+G41-G45</f>
-        <v/>
-      </c>
-      <c r="H46" s="56">
-        <f>+H41-H45</f>
-        <v/>
-      </c>
-      <c r="I46" s="56">
-        <f>+I41-I45</f>
-        <v/>
-      </c>
-      <c r="J46" s="56">
-        <f>+J41-J45</f>
-        <v/>
-      </c>
-      <c r="K46" s="56">
-        <f>+K41-K45</f>
-        <v/>
+      <c r="C46" s="56" t="n">
+        <v>-225.7760000000003</v>
+      </c>
+      <c r="D46" s="56" t="n">
+        <v>-0.1799999999998363</v>
+      </c>
+      <c r="E46" s="56" t="n">
+        <v>1675.19</v>
+      </c>
+      <c r="F46" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="56" t="n">
+        <v>56.51999999999998</v>
+      </c>
+      <c r="H46" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L46" s="56" t="n"/>
-      <c r="M46" s="56">
-        <f>+M41-M45</f>
-        <v/>
+      <c r="M46" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="C47" s="29">
-        <f>+C40+1</f>
-        <v/>
-      </c>
-      <c r="D47" s="29">
-        <f>+D40+1</f>
-        <v/>
-      </c>
-      <c r="E47" s="29">
-        <f>+E40+1</f>
-        <v/>
-      </c>
-      <c r="G47" s="27">
-        <f>+G40+1</f>
-        <v/>
+      <c r="C47" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="27" t="n">
+        <v>3</v>
       </c>
       <c r="H47" s="29" t="n"/>
       <c r="I47" s="27" t="n"/>
@@ -2939,46 +2719,36 @@
       <c r="B48" s="10" t="n">
         <v>43038</v>
       </c>
-      <c r="C48" s="48">
-        <f>+IF(C47&lt;&gt;0, C$4+C46)</f>
-        <v/>
-      </c>
-      <c r="D48" s="48">
-        <f>+IF(D47&lt;&gt;0, D$5+D46)</f>
-        <v/>
-      </c>
-      <c r="E48" s="48">
-        <f>+IF(E47&lt;&gt;0, E$4+E46,0)</f>
-        <v/>
-      </c>
-      <c r="F48" s="48">
-        <f>+IF(F47&lt;&gt;0, F$4+F46,0)</f>
-        <v/>
-      </c>
-      <c r="G48" s="48">
-        <f>+IF(G47&lt;&gt;0, G$4+G46,0)</f>
-        <v/>
-      </c>
-      <c r="H48" s="48">
-        <f>+IF(H47&lt;&gt;0, H$4+H46,0)</f>
-        <v/>
-      </c>
-      <c r="I48" s="48">
-        <f>+IF(I47&lt;&gt;0, I$4+I46,0)</f>
-        <v/>
-      </c>
-      <c r="J48" s="48">
-        <f>+IF(J47&lt;&gt;0, J$4+J46,0)</f>
-        <v/>
-      </c>
-      <c r="K48" s="48">
-        <f>+IF(K47&lt;&gt;0, K$4+K46,0)</f>
-        <v/>
+      <c r="C48" s="48" t="n">
+        <v>2504.4928</v>
+      </c>
+      <c r="D48" s="48" t="n">
+        <v>1859.82</v>
+      </c>
+      <c r="E48" s="48" t="n">
+        <v>4175.190000000001</v>
+      </c>
+      <c r="F48" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="48" t="n">
+        <v>2556.52</v>
+      </c>
+      <c r="H48" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L48" s="48" t="n"/>
-      <c r="M48" s="48">
-        <f>+IF(M47&lt;&gt;0, M$4+M46,0)</f>
-        <v/>
+      <c r="M48" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="49" s="26" spans="1:19">
@@ -3012,46 +2782,36 @@
       <c r="B50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="51">
-        <f>+C48-C49</f>
-        <v/>
-      </c>
-      <c r="D50" s="51">
-        <f>+D48-D49</f>
-        <v/>
-      </c>
-      <c r="E50" s="51">
-        <f>+E48-E49</f>
-        <v/>
-      </c>
-      <c r="F50" s="51">
-        <f>+F48-F49</f>
-        <v/>
-      </c>
-      <c r="G50" s="51">
-        <f>+G48-G49</f>
-        <v/>
-      </c>
-      <c r="H50" s="51">
-        <f>+H48-H49</f>
-        <v/>
-      </c>
-      <c r="I50" s="51">
-        <f>+I48-I49</f>
-        <v/>
-      </c>
-      <c r="J50" s="51">
-        <f>+J48-J49</f>
-        <v/>
-      </c>
-      <c r="K50" s="51">
-        <f>+K48-K49</f>
-        <v/>
+      <c r="C50" s="51" t="n">
+        <v>-20.70720000000028</v>
+      </c>
+      <c r="D50" s="51" t="n">
+        <v>305.2900000000002</v>
+      </c>
+      <c r="E50" s="51" t="n">
+        <v>2524.940000000001</v>
+      </c>
+      <c r="F50" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="51" t="n">
+        <v>176.1599999999999</v>
+      </c>
+      <c r="H50" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L50" s="51" t="n"/>
-      <c r="M50" s="51">
-        <f>+M48-M49</f>
-        <v/>
+      <c r="M50" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="51" s="26" spans="1:19">
@@ -3076,112 +2836,88 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="54">
-        <f>+C49+C51</f>
-        <v/>
-      </c>
-      <c r="D52" s="54">
-        <f>+D49+D51</f>
-        <v/>
-      </c>
-      <c r="E52" s="54">
-        <f>+E49+E51</f>
-        <v/>
-      </c>
-      <c r="F52" s="54">
-        <f>+F49+F51</f>
-        <v/>
-      </c>
-      <c r="G52" s="54">
-        <f>+G49+G51</f>
-        <v/>
-      </c>
-      <c r="H52" s="54">
-        <f>+H49+H51</f>
-        <v/>
-      </c>
-      <c r="I52" s="54">
-        <f>+I49+I51</f>
-        <v/>
-      </c>
-      <c r="J52" s="54">
-        <f>+J49+J51</f>
-        <v/>
-      </c>
-      <c r="K52" s="54">
-        <f>+K49+K51</f>
-        <v/>
+      <c r="C52" s="54" t="n">
+        <v>2525.2</v>
+      </c>
+      <c r="D52" s="54" t="n">
+        <v>1554.53</v>
+      </c>
+      <c r="E52" s="54" t="n">
+        <v>1650.25</v>
+      </c>
+      <c r="F52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="54" t="n">
+        <v>2380.36</v>
+      </c>
+      <c r="H52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L52" s="54" t="n"/>
-      <c r="M52" s="54">
-        <f>+M49+M51</f>
-        <v/>
+      <c r="M52" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="B53" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="56">
-        <f>+C48-C52</f>
-        <v/>
-      </c>
-      <c r="D53" s="56">
-        <f>+D48-D52</f>
-        <v/>
-      </c>
-      <c r="E53" s="56">
-        <f>+E48-E52</f>
-        <v/>
-      </c>
-      <c r="F53" s="56">
-        <f>+F48-F52</f>
-        <v/>
-      </c>
-      <c r="G53" s="56">
-        <f>+G48-G52</f>
-        <v/>
-      </c>
-      <c r="H53" s="56">
-        <f>+H48-H52</f>
-        <v/>
-      </c>
-      <c r="I53" s="56">
-        <f>+I48-I52</f>
-        <v/>
-      </c>
-      <c r="J53" s="56">
-        <f>+J48-J52</f>
-        <v/>
-      </c>
-      <c r="K53" s="56">
-        <f>+K48-K52</f>
-        <v/>
+      <c r="C53" s="56" t="n">
+        <v>-20.70720000000028</v>
+      </c>
+      <c r="D53" s="56" t="n">
+        <v>305.2900000000002</v>
+      </c>
+      <c r="E53" s="56" t="n">
+        <v>2524.940000000001</v>
+      </c>
+      <c r="F53" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="56" t="n">
+        <v>176.1599999999999</v>
+      </c>
+      <c r="H53" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L53" s="56" t="n"/>
-      <c r="M53" s="56">
-        <f>+M48-M52</f>
-        <v/>
+      <c r="M53" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="24" t="n"/>
-      <c r="C54" s="29">
-        <f>+C47+1</f>
-        <v/>
-      </c>
-      <c r="D54" s="29">
-        <f>+D47+1</f>
-        <v/>
-      </c>
-      <c r="E54" s="29">
-        <f>+E47+1</f>
-        <v/>
+      <c r="C54" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="F54" s="29" t="n"/>
-      <c r="G54" s="29">
-        <f>+G47+1</f>
-        <v/>
+      <c r="G54" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="H54" s="29" t="n"/>
       <c r="I54" s="29" t="n"/>
@@ -3191,46 +2927,36 @@
       <c r="B55" s="10" t="n">
         <v>43045</v>
       </c>
-      <c r="C55" s="48">
-        <f>+IF(C54&lt;&gt;0, C$4+C53)</f>
-        <v/>
-      </c>
-      <c r="D55" s="48">
-        <f>+IF(D54&lt;&gt;0, D$5+D53)</f>
-        <v/>
-      </c>
-      <c r="E55" s="48">
-        <f>+IF(E54&lt;&gt;0, E$4+E53,0)</f>
-        <v/>
-      </c>
-      <c r="F55" s="48">
-        <f>+IF(F54&lt;&gt;0, F$4+F53,0)</f>
-        <v/>
-      </c>
-      <c r="G55" s="48">
-        <f>+IF(G54&lt;&gt;0, G$4+G53,0)</f>
-        <v/>
-      </c>
-      <c r="H55" s="48">
-        <f>+IF(H54&lt;&gt;0, H$4+H53,0)</f>
-        <v/>
-      </c>
-      <c r="I55" s="48">
-        <f>+IF(I54&lt;&gt;0, I$4+I53,0)</f>
-        <v/>
-      </c>
-      <c r="J55" s="48">
-        <f>+IF(J54&lt;&gt;0, J$4+J53,0)</f>
-        <v/>
-      </c>
-      <c r="K55" s="48">
-        <f>+IF(K54&lt;&gt;0, K$4+K53,0)</f>
-        <v/>
+      <c r="C55" s="48" t="n">
+        <v>2709.5616</v>
+      </c>
+      <c r="D55" s="48" t="n">
+        <v>2165.29</v>
+      </c>
+      <c r="E55" s="48" t="n">
+        <v>5024.940000000001</v>
+      </c>
+      <c r="F55" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="48" t="n">
+        <v>2676.16</v>
+      </c>
+      <c r="H55" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L55" s="48" t="n"/>
-      <c r="M55" s="48">
-        <f>+IF(M54&lt;&gt;0, M$4+M53,0)</f>
-        <v/>
+      <c r="M55" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="56" s="26" spans="1:19">
@@ -3261,46 +2987,36 @@
       <c r="B57" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="51">
-        <f>+C55-C56</f>
-        <v/>
-      </c>
-      <c r="D57" s="51">
-        <f>+D55-D56</f>
-        <v/>
-      </c>
-      <c r="E57" s="51">
-        <f>+E55-E56</f>
-        <v/>
-      </c>
-      <c r="F57" s="51">
-        <f>+F55-F56</f>
-        <v/>
-      </c>
-      <c r="G57" s="51">
-        <f>+G55-G56</f>
-        <v/>
-      </c>
-      <c r="H57" s="51">
-        <f>+H55-H56</f>
-        <v/>
-      </c>
-      <c r="I57" s="51">
-        <f>+I55-I56</f>
-        <v/>
-      </c>
-      <c r="J57" s="51">
-        <f>+J55-J56</f>
-        <v/>
-      </c>
-      <c r="K57" s="51">
-        <f>+K55-K56</f>
-        <v/>
+      <c r="C57" s="51" t="n">
+        <v>2455.661599999999</v>
+      </c>
+      <c r="D57" s="51" t="n">
+        <v>686.6299999999999</v>
+      </c>
+      <c r="E57" s="51" t="n">
+        <v>4878.110000000001</v>
+      </c>
+      <c r="F57" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="51" t="n">
+        <v>1609.12</v>
+      </c>
+      <c r="H57" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L57" s="51" t="n"/>
-      <c r="M57" s="51">
-        <f>+M55-M56</f>
-        <v/>
+      <c r="M57" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="58" s="26" spans="1:19">
@@ -3330,111 +3046,87 @@
       <c r="B59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="54">
-        <f>+C56+C58</f>
-        <v/>
-      </c>
-      <c r="D59" s="54">
-        <f>+D56+D58</f>
-        <v/>
-      </c>
-      <c r="E59" s="54">
-        <f>+E56+E58</f>
-        <v/>
-      </c>
-      <c r="F59" s="54">
-        <f>+F56+F58</f>
-        <v/>
-      </c>
-      <c r="G59" s="54">
-        <f>+G56+G58</f>
-        <v/>
-      </c>
-      <c r="H59" s="54">
-        <f>+H56+H58</f>
-        <v/>
-      </c>
-      <c r="I59" s="54">
-        <f>+I56+I58</f>
-        <v/>
-      </c>
-      <c r="J59" s="54">
-        <f>+J56+J58</f>
-        <v/>
-      </c>
-      <c r="K59" s="54">
-        <f>+K56+K58</f>
-        <v/>
+      <c r="C59" s="54" t="n">
+        <v>2935.27</v>
+      </c>
+      <c r="D59" s="54" t="n">
+        <v>1478.66</v>
+      </c>
+      <c r="E59" s="54" t="n">
+        <v>146.83</v>
+      </c>
+      <c r="F59" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="54" t="n">
+        <v>1067.04</v>
+      </c>
+      <c r="H59" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L59" s="54" t="n"/>
-      <c r="M59" s="54">
-        <f>+M56+M58</f>
-        <v/>
+      <c r="M59" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="56">
-        <f>+C55-C59</f>
-        <v/>
-      </c>
-      <c r="D60" s="56">
-        <f>+D55-D59</f>
-        <v/>
-      </c>
-      <c r="E60" s="56">
-        <f>+E55-E59</f>
-        <v/>
-      </c>
-      <c r="F60" s="56">
-        <f>+F55-F59</f>
-        <v/>
-      </c>
-      <c r="G60" s="56">
-        <f>+G55-G59</f>
-        <v/>
-      </c>
-      <c r="H60" s="56">
-        <f>+H55-H59</f>
-        <v/>
-      </c>
-      <c r="I60" s="56">
-        <f>+I55-I59</f>
-        <v/>
-      </c>
-      <c r="J60" s="56">
-        <f>+J55-J59</f>
-        <v/>
-      </c>
-      <c r="K60" s="56">
-        <f>+K55-K59</f>
-        <v/>
+      <c r="C60" s="56" t="n">
+        <v>-225.7084000000004</v>
+      </c>
+      <c r="D60" s="56" t="n">
+        <v>686.6299999999999</v>
+      </c>
+      <c r="E60" s="56" t="n">
+        <v>4878.110000000001</v>
+      </c>
+      <c r="F60" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="56" t="n">
+        <v>1609.12</v>
+      </c>
+      <c r="H60" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L60" s="56" t="n"/>
-      <c r="M60" s="56">
-        <f>+M55-M59</f>
-        <v/>
+      <c r="M60" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:19">
-      <c r="C61" s="29">
-        <f>+C54+1</f>
-        <v/>
-      </c>
-      <c r="D61" s="29">
-        <f>+D54+1</f>
-        <v/>
-      </c>
-      <c r="E61" s="29">
-        <f>+E54+1</f>
-        <v/>
+      <c r="C61" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>5</v>
       </c>
       <c r="F61" s="27" t="n"/>
-      <c r="G61" s="29">
-        <f>+G54+1</f>
-        <v/>
+      <c r="G61" s="29" t="n">
+        <v>5</v>
       </c>
       <c r="H61" s="29" t="n"/>
       <c r="I61" s="29" t="n"/>
@@ -3443,46 +3135,36 @@
       <c r="B62" s="10" t="n">
         <v>43052</v>
       </c>
-      <c r="C62" s="48">
-        <f>+IF(C61&lt;&gt;0, C$4+C60)</f>
-        <v/>
-      </c>
-      <c r="D62" s="48">
-        <f>+IF(D61&lt;&gt;0, D$5+D60)</f>
-        <v/>
-      </c>
-      <c r="E62" s="48">
-        <f>+IF(E61&lt;&gt;0, E$4+E60,0)</f>
-        <v/>
-      </c>
-      <c r="F62" s="48">
-        <f>+IF(F61&lt;&gt;0, F$4+F60,0)</f>
-        <v/>
-      </c>
-      <c r="G62" s="48">
-        <f>+IF(G61&lt;&gt;0, G$4+G60,0)</f>
-        <v/>
-      </c>
-      <c r="H62" s="48">
-        <f>+IF(H61&lt;&gt;0, H$4+H60,0)</f>
-        <v/>
-      </c>
-      <c r="I62" s="48">
-        <f>+IF(I61&lt;&gt;0, I$4+I60,0)</f>
-        <v/>
-      </c>
-      <c r="J62" s="48">
-        <f>+IF(J61&lt;&gt;0, J$4+J60,0)</f>
-        <v/>
-      </c>
-      <c r="K62" s="48">
-        <f>+IF(K61&lt;&gt;0, K$4+K60,0)</f>
-        <v/>
+      <c r="C62" s="48" t="n">
+        <v>2504.560399999999</v>
+      </c>
+      <c r="D62" s="48" t="n">
+        <v>2546.63</v>
+      </c>
+      <c r="E62" s="48" t="n">
+        <v>7378.110000000001</v>
+      </c>
+      <c r="F62" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="48" t="n">
+        <v>4109.12</v>
+      </c>
+      <c r="H62" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L62" s="48" t="n"/>
-      <c r="M62" s="48">
-        <f>+IF(M61&lt;&gt;0, M$4+M60,0)</f>
-        <v/>
+      <c r="M62" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="63" s="26" spans="1:19">
@@ -3513,46 +3195,36 @@
       <c r="B64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="51">
-        <f>+C62-C63</f>
-        <v/>
-      </c>
-      <c r="D64" s="51">
-        <f>+D62-D63</f>
-        <v/>
-      </c>
-      <c r="E64" s="51">
-        <f>+E62-E63</f>
-        <v/>
-      </c>
-      <c r="F64" s="51">
-        <f>+F62-F63</f>
-        <v/>
-      </c>
-      <c r="G64" s="51">
-        <f>+G62-G63</f>
-        <v/>
-      </c>
-      <c r="H64" s="51">
-        <f>+H62-H63</f>
-        <v/>
-      </c>
-      <c r="I64" s="51">
-        <f>+I62-I63</f>
-        <v/>
-      </c>
-      <c r="J64" s="51">
-        <f>+J62-J63</f>
-        <v/>
-      </c>
-      <c r="K64" s="51">
-        <f>+K62-K63</f>
-        <v/>
+      <c r="C64" s="51" t="n">
+        <v>870.0103999999994</v>
+      </c>
+      <c r="D64" s="51" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E64" s="51" t="n">
+        <v>6112.48</v>
+      </c>
+      <c r="F64" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="51" t="n">
+        <v>576.6599999999999</v>
+      </c>
+      <c r="H64" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L64" s="51" t="n"/>
-      <c r="M64" s="51">
-        <f>+M62-M63</f>
-        <v/>
+      <c r="M64" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="65" s="26" spans="1:19">
@@ -3582,22 +3254,18 @@
       <c r="B66" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="54">
-        <f>+C63+C65</f>
-        <v/>
-      </c>
-      <c r="D66" s="54">
-        <f>+D63+D65</f>
-        <v/>
-      </c>
-      <c r="E66" s="54">
-        <f>+E63+E65</f>
-        <v/>
+      <c r="C66" s="54" t="n">
+        <v>2730.27</v>
+      </c>
+      <c r="D66" s="54" t="n">
+        <v>2578.88</v>
+      </c>
+      <c r="E66" s="54" t="n">
+        <v>1265.63</v>
       </c>
       <c r="F66" s="54" t="n"/>
-      <c r="G66" s="54">
-        <f>+G63+G65</f>
-        <v/>
+      <c r="G66" s="54" t="n">
+        <v>3532.46</v>
       </c>
       <c r="H66" s="54" t="n"/>
       <c r="I66" s="54" t="n"/>
@@ -3610,71 +3278,56 @@
       <c r="B67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="56">
-        <f>+C62-C66</f>
-        <v/>
-      </c>
-      <c r="D67" s="56">
-        <f>+D62-D66</f>
-        <v/>
-      </c>
-      <c r="E67" s="56">
-        <f>+E62-E66</f>
-        <v/>
-      </c>
-      <c r="F67" s="56">
-        <f>+F62-F66</f>
-        <v/>
-      </c>
-      <c r="G67" s="56">
-        <f>+G62-G66</f>
-        <v/>
-      </c>
-      <c r="H67" s="56">
-        <f>+H62-H66</f>
-        <v/>
-      </c>
-      <c r="I67" s="56">
-        <f>+I62-I66</f>
-        <v/>
-      </c>
-      <c r="J67" s="56">
-        <f>+J62-J66</f>
-        <v/>
-      </c>
-      <c r="K67" s="56">
-        <f>+K62-K66</f>
-        <v/>
+      <c r="C67" s="56" t="n">
+        <v>-225.7096000000006</v>
+      </c>
+      <c r="D67" s="56" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E67" s="56" t="n">
+        <v>6112.48</v>
+      </c>
+      <c r="F67" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="56" t="n">
+        <v>576.6599999999999</v>
+      </c>
+      <c r="H67" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="56" t="n">
+        <v>0</v>
       </c>
       <c r="L67" s="56" t="n"/>
-      <c r="M67" s="56">
-        <f>+M62-M66</f>
-        <v/>
+      <c r="M67" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="B68" s="25" t="n"/>
-      <c r="C68" s="29">
-        <f>+C61+1</f>
-        <v/>
-      </c>
-      <c r="D68" s="29">
-        <f>+D61+1</f>
-        <v/>
-      </c>
-      <c r="E68" s="29">
-        <f>+E61+1</f>
-        <v/>
+      <c r="C68" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" s="29" t="n">
+        <v>6</v>
       </c>
       <c r="F68" s="29" t="n"/>
-      <c r="G68" s="29">
-        <f>+G61+1</f>
-        <v/>
+      <c r="G68" s="29" t="n">
+        <v>6</v>
       </c>
       <c r="H68" s="29" t="n"/>
-      <c r="I68" s="29">
-        <f>+I61+1</f>
-        <v/>
+      <c r="I68" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="J68" s="27" t="n"/>
     </row>
@@ -3682,46 +3335,36 @@
       <c r="B69" s="10" t="n">
         <v>43059</v>
       </c>
-      <c r="C69" s="48">
-        <f>+IF(C68&lt;&gt;0, C$4+C67)</f>
-        <v/>
-      </c>
-      <c r="D69" s="48">
-        <f>+IF(D68&lt;&gt;0, D$5+D67)</f>
-        <v/>
-      </c>
-      <c r="E69" s="48">
-        <f>+IF(E68&lt;&gt;0, E$4+E67,0)</f>
-        <v/>
-      </c>
-      <c r="F69" s="48">
-        <f>+IF(F68&lt;&gt;0, F$4+F67,0)</f>
-        <v/>
-      </c>
-      <c r="G69" s="48">
-        <f>+IF(G68&lt;&gt;0, G$4+G67,0)</f>
-        <v/>
-      </c>
-      <c r="H69" s="48">
-        <f>+IF(H68&lt;&gt;0, H$4+H67,0)</f>
-        <v/>
-      </c>
-      <c r="I69" s="48">
-        <f>+IF(I68&lt;&gt;0, I$4+I67,0)</f>
-        <v/>
-      </c>
-      <c r="J69" s="48">
-        <f>+IF(J68&lt;&gt;0, J$4+J67,0)</f>
-        <v/>
-      </c>
-      <c r="K69" s="48">
-        <f>+IF(K68&lt;&gt;0, K$4+K67,0)</f>
-        <v/>
+      <c r="C69" s="48" t="n">
+        <v>2504.559199999999</v>
+      </c>
+      <c r="D69" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E69" s="48" t="n">
+        <v>8612.48</v>
+      </c>
+      <c r="F69" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="48" t="n">
+        <v>3076.66</v>
+      </c>
+      <c r="H69" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J69" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L69" s="48" t="n"/>
-      <c r="M69" s="48">
-        <f>+IF(M68&lt;&gt;0, M$4+M67,0)</f>
-        <v/>
+      <c r="M69" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="70" s="26" spans="1:19">
@@ -3754,46 +3397,36 @@
       <c r="B71" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="51">
-        <f>+C69-C70</f>
-        <v/>
-      </c>
-      <c r="D71" s="51">
-        <f>+D69-D70</f>
-        <v/>
-      </c>
-      <c r="E71" s="51">
-        <f>+E69-E70</f>
-        <v/>
-      </c>
-      <c r="F71" s="51">
-        <f>+F69-F70</f>
-        <v/>
-      </c>
-      <c r="G71" s="51">
-        <f>+G69-G70</f>
-        <v/>
-      </c>
-      <c r="H71" s="51">
-        <f>+H69-H70</f>
-        <v/>
-      </c>
-      <c r="I71" s="51">
-        <f>+I69-I70</f>
-        <v/>
-      </c>
-      <c r="J71" s="51">
-        <f>+J69-J70</f>
-        <v/>
-      </c>
-      <c r="K71" s="51">
-        <f>+K69-K70</f>
-        <v/>
+      <c r="C71" s="51" t="n">
+        <v>1700.179199999999</v>
+      </c>
+      <c r="D71" s="51" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E71" s="51" t="n">
+        <v>8539.439999999999</v>
+      </c>
+      <c r="F71" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="51" t="n">
+        <v>1848.25</v>
+      </c>
+      <c r="H71" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L71" s="51" t="n"/>
-      <c r="M71" s="51">
-        <f>+M69-M70</f>
-        <v/>
+      <c r="M71" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="72" s="26" spans="1:19">
@@ -3823,160 +3456,125 @@
       <c r="B73" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="54">
-        <f>+C70+C72</f>
-        <v/>
-      </c>
-      <c r="D73" s="54">
-        <f>+D70+D72</f>
-        <v/>
-      </c>
-      <c r="E73" s="54">
-        <f>+E70+E72</f>
-        <v/>
-      </c>
-      <c r="F73" s="54">
-        <f>+F70+F72</f>
-        <v/>
-      </c>
-      <c r="G73" s="54">
-        <f>+G70+G72</f>
-        <v/>
-      </c>
-      <c r="H73" s="54">
-        <f>+H70+H72</f>
-        <v/>
-      </c>
-      <c r="I73" s="54">
-        <f>+I70+I72</f>
-        <v/>
-      </c>
-      <c r="J73" s="54">
-        <f>+J70+J72</f>
-        <v/>
-      </c>
-      <c r="K73" s="54">
-        <f>+K70+K72</f>
-        <v/>
+      <c r="C73" s="54" t="n">
+        <v>2733.27</v>
+      </c>
+      <c r="D73" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="54" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="F73" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="54" t="n">
+        <v>1228.41</v>
+      </c>
+      <c r="H73" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J73" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L73" s="54" t="n"/>
-      <c r="M73" s="54">
-        <f>+M70+M72</f>
-        <v/>
+      <c r="M73" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="48">
-        <f>+C69-C73</f>
-        <v/>
-      </c>
-      <c r="D74" s="48">
-        <f>+D69-D73</f>
-        <v/>
-      </c>
-      <c r="E74" s="48">
-        <f>+E69-E73</f>
-        <v/>
-      </c>
-      <c r="F74" s="48">
-        <f>+F69-F73</f>
-        <v/>
-      </c>
-      <c r="G74" s="48">
-        <f>+G69-G73</f>
-        <v/>
-      </c>
-      <c r="H74" s="48">
-        <f>+H69-H73</f>
-        <v/>
-      </c>
-      <c r="I74" s="48">
-        <f>+I69-I73</f>
-        <v/>
-      </c>
-      <c r="J74" s="48">
-        <f>+J69-J73</f>
-        <v/>
-      </c>
-      <c r="K74" s="48">
-        <f>+K69-K73</f>
-        <v/>
+      <c r="C74" s="48" t="n">
+        <v>-228.7108000000007</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E74" s="48" t="n">
+        <v>8539.439999999999</v>
+      </c>
+      <c r="F74" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="48" t="n">
+        <v>1848.25</v>
+      </c>
+      <c r="H74" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L74" s="48" t="n"/>
-      <c r="M74" s="48">
-        <f>+M69-M73</f>
-        <v/>
+      <c r="M74" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:19">
-      <c r="C75" s="39">
-        <f>+C68+1</f>
-        <v/>
-      </c>
-      <c r="D75" s="39">
-        <f>+D68+1</f>
-        <v/>
-      </c>
-      <c r="E75" s="39">
-        <f>+E68+1</f>
-        <v/>
-      </c>
-      <c r="G75" s="39">
-        <f>+G68+1</f>
-        <v/>
-      </c>
-      <c r="I75" s="39">
-        <f>+I68+1</f>
-        <v/>
+      <c r="C75" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="D75" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I75" s="39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="B76" s="10" t="n">
         <v>43066</v>
       </c>
-      <c r="C76" s="48">
-        <f>+IF(C75&lt;&gt;0, C$4+C74)</f>
-        <v/>
-      </c>
-      <c r="D76" s="48">
-        <f>+IF(D75&lt;&gt;0, D$5+D74)</f>
-        <v/>
-      </c>
-      <c r="E76" s="48">
-        <f>+IF(E75&lt;&gt;0, E$4+E74,0)</f>
-        <v/>
-      </c>
-      <c r="F76" s="48">
-        <f>+IF(F75&lt;&gt;0, F$4+F74,0)</f>
-        <v/>
-      </c>
-      <c r="G76" s="48">
-        <f>+IF(G75&lt;&gt;0, G$4+G74,0)</f>
-        <v/>
-      </c>
-      <c r="H76" s="48">
-        <f>+IF(H75&lt;&gt;0, H$4+H74,0)</f>
-        <v/>
-      </c>
-      <c r="I76" s="48">
-        <f>+IF(I75&lt;&gt;0, I$4+I74,0)</f>
-        <v/>
-      </c>
-      <c r="J76" s="48">
-        <f>+IF(J75&lt;&gt;0, J$4+J74,0)</f>
-        <v/>
-      </c>
-      <c r="K76" s="48">
-        <f>+IF(K75&lt;&gt;0, K$4+K74,0)</f>
-        <v/>
+      <c r="C76" s="48" t="n">
+        <v>2501.557999999999</v>
+      </c>
+      <c r="D76" s="48" t="n">
+        <v>3687.75</v>
+      </c>
+      <c r="E76" s="48" t="n">
+        <v>11039.44</v>
+      </c>
+      <c r="F76" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="48" t="n">
+        <v>4348.25</v>
+      </c>
+      <c r="H76" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J76" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L76" s="48" t="n"/>
-      <c r="M76" s="48">
-        <f>+IF(M75&lt;&gt;0, M$4+M74,0)</f>
-        <v/>
+      <c r="M76" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="77" s="26" spans="1:19">
@@ -4009,46 +3607,36 @@
       <c r="B78" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="51">
-        <f>+C76-C77</f>
-        <v/>
-      </c>
-      <c r="D78" s="51">
-        <f>+D76-D77</f>
-        <v/>
-      </c>
-      <c r="E78" s="51">
-        <f>+E76-E77</f>
-        <v/>
-      </c>
-      <c r="F78" s="51">
-        <f>+F76-F77</f>
-        <v/>
-      </c>
-      <c r="G78" s="51">
-        <f>+G76-G77</f>
-        <v/>
-      </c>
-      <c r="H78" s="51">
-        <f>+H76-H77</f>
-        <v/>
-      </c>
-      <c r="I78" s="51">
-        <f>+I76-I77</f>
-        <v/>
-      </c>
-      <c r="J78" s="51">
-        <f>+J76-J77</f>
-        <v/>
-      </c>
-      <c r="K78" s="51">
-        <f>+K76-K77</f>
-        <v/>
+      <c r="C78" s="51" t="n">
+        <v>1680.807999999999</v>
+      </c>
+      <c r="D78" s="51" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E78" s="51" t="n">
+        <v>10249.68</v>
+      </c>
+      <c r="F78" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="51" t="n">
+        <v>2254.49</v>
+      </c>
+      <c r="H78" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L78" s="51" t="n"/>
-      <c r="M78" s="51">
-        <f>+M76-M77</f>
-        <v/>
+      <c r="M78" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="79" s="26" spans="1:19">
@@ -4078,170 +3666,134 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="54">
-        <f>+C77+C79</f>
-        <v/>
-      </c>
-      <c r="D80" s="54">
-        <f>+D77+D79</f>
-        <v/>
-      </c>
-      <c r="E80" s="54">
-        <f>+E77+E79</f>
-        <v/>
-      </c>
-      <c r="F80" s="54">
-        <f>+F77+F79</f>
-        <v/>
-      </c>
-      <c r="G80" s="54">
-        <f>+G77+G79</f>
-        <v/>
-      </c>
-      <c r="H80" s="54">
-        <f>+H77+H79</f>
-        <v/>
-      </c>
-      <c r="I80" s="54">
-        <f>+I77+I79</f>
-        <v/>
-      </c>
-      <c r="J80" s="54">
-        <f>+J77+J79</f>
-        <v/>
-      </c>
-      <c r="K80" s="54">
-        <f>+K77+K79</f>
-        <v/>
+      <c r="C80" s="54" t="n">
+        <v>2727.27</v>
+      </c>
+      <c r="D80" s="54" t="n">
+        <v>3720</v>
+      </c>
+      <c r="E80" s="54" t="n">
+        <v>789.76</v>
+      </c>
+      <c r="F80" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="54" t="n">
+        <v>2093.76</v>
+      </c>
+      <c r="H80" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J80" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L80" s="54" t="n"/>
-      <c r="M80" s="54">
-        <f>+M77+M79</f>
-        <v/>
+      <c r="M80" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="B81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="48">
-        <f>+C76-C80</f>
-        <v/>
-      </c>
-      <c r="D81" s="48">
-        <f>+D76-D80</f>
-        <v/>
-      </c>
-      <c r="E81" s="48">
-        <f>+E76-E80</f>
-        <v/>
-      </c>
-      <c r="F81" s="48">
-        <f>+F76-F80</f>
-        <v/>
-      </c>
-      <c r="G81" s="48">
-        <f>+G76-G80</f>
-        <v/>
-      </c>
-      <c r="H81" s="48">
-        <f>+H76-H80</f>
-        <v/>
-      </c>
-      <c r="I81" s="48">
-        <f>+I76-I80</f>
-        <v/>
-      </c>
-      <c r="J81" s="48">
-        <f>+J76-J80</f>
-        <v/>
-      </c>
-      <c r="K81" s="48">
-        <f>+K76-K80</f>
-        <v/>
+      <c r="C81" s="48" t="n">
+        <v>-225.7120000000009</v>
+      </c>
+      <c r="D81" s="48" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E81" s="48" t="n">
+        <v>10249.68</v>
+      </c>
+      <c r="F81" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="48" t="n">
+        <v>2254.49</v>
+      </c>
+      <c r="H81" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L81" s="48" t="n"/>
-      <c r="M81" s="48">
-        <f>+M76-M80</f>
-        <v/>
+      <c r="M81" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:19">
-      <c r="C82" s="29">
-        <f>+C75+1</f>
-        <v/>
-      </c>
-      <c r="D82" s="29">
-        <f>+D75+1</f>
-        <v/>
+      <c r="C82" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D82" s="29" t="n">
+        <v>11</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="29">
-        <f>+F75+1</f>
-        <v/>
-      </c>
-      <c r="G82" s="29">
-        <f>+G75+1</f>
-        <v/>
+      <c r="F82" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="29" t="n">
+        <v>8</v>
       </c>
       <c r="H82" s="29" t="n"/>
-      <c r="I82" s="29">
-        <f>+I75+1</f>
-        <v/>
+      <c r="I82" s="29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:19">
       <c r="B83" s="10" t="n">
         <v>43073</v>
       </c>
-      <c r="C83" s="48">
-        <f>+IF(C82&lt;&gt;0, C$4+C81)</f>
-        <v/>
-      </c>
-      <c r="D83" s="48">
-        <f>+IF(D82&lt;&gt;0, D$5+D81)</f>
-        <v/>
-      </c>
-      <c r="E83" s="48">
-        <f>+IF(E82&lt;&gt;0, E$4+E81,0)</f>
-        <v/>
-      </c>
-      <c r="F83" s="48">
-        <f>+IF(F82&lt;&gt;0, F$4+F81,0)</f>
-        <v/>
-      </c>
-      <c r="G83" s="48">
-        <f>+IF(G82&lt;&gt;0, G$4+G81,0)</f>
-        <v/>
-      </c>
-      <c r="H83" s="48">
-        <f>+IF(H82&lt;&gt;0, H$4+H81,0)</f>
-        <v/>
-      </c>
-      <c r="I83" s="48">
-        <f>+IF(I82&lt;&gt;0, I$4+I81,0)</f>
-        <v/>
-      </c>
-      <c r="J83" s="48">
-        <f>+IF(J82&lt;&gt;0, J$4+J81,0)</f>
-        <v/>
-      </c>
-      <c r="K83" s="48">
-        <f>+IF(K82&lt;&gt;0, K$4+K81,0)</f>
-        <v/>
+      <c r="C83" s="48" t="n">
+        <v>2504.556799999999</v>
+      </c>
+      <c r="D83" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E83" s="48" t="n">
+        <v>12749.68</v>
+      </c>
+      <c r="F83" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G83" s="48" t="n">
+        <v>4754.49</v>
+      </c>
+      <c r="H83" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J83" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L83" s="48" t="n"/>
-      <c r="M83" s="48">
-        <f>+IF(M82&lt;&gt;0, M$4+M81,0)</f>
-        <v/>
+      <c r="M83" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="84" s="26" spans="1:19">
-      <c r="A84" s="48">
-        <f>+E84-1112.48</f>
-        <v/>
+      <c r="A84" s="48" t="n">
+        <v>154.95</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>36</v>
@@ -4272,46 +3824,36 @@
       <c r="B85" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="51">
-        <f>+C83-C84</f>
-        <v/>
-      </c>
-      <c r="D85" s="51">
-        <f>+D83-D84</f>
-        <v/>
-      </c>
-      <c r="E85" s="51">
-        <f>+E83-E84</f>
-        <v/>
-      </c>
-      <c r="F85" s="51">
-        <f>+F83-F84</f>
-        <v/>
-      </c>
-      <c r="G85" s="51">
-        <f>+G83-G84</f>
-        <v/>
-      </c>
-      <c r="H85" s="51">
-        <f>+H83-H84</f>
-        <v/>
-      </c>
-      <c r="I85" s="51">
-        <f>+I83-I84</f>
-        <v/>
-      </c>
-      <c r="J85" s="51">
-        <f>+J83-J84</f>
-        <v/>
-      </c>
-      <c r="K85" s="51">
-        <f>+K83-K84</f>
-        <v/>
+      <c r="C85" s="51" t="n">
+        <v>2504.556799999999</v>
+      </c>
+      <c r="D85" s="51" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E85" s="51" t="n">
+        <v>11482.25</v>
+      </c>
+      <c r="F85" s="51" t="n">
+        <v>-141.96</v>
+      </c>
+      <c r="G85" s="51" t="n">
+        <v>2741.92</v>
+      </c>
+      <c r="H85" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="51" t="n">
+        <v>0</v>
       </c>
       <c r="L85" s="51" t="n"/>
-      <c r="M85" s="51">
-        <f>+M83-M84</f>
-        <v/>
+      <c r="M85" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="1" r="86" s="26" spans="1:19">
@@ -4336,126 +3878,98 @@
       <c r="B87" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="54">
-        <f>+C84+C86</f>
-        <v/>
-      </c>
-      <c r="D87" s="54">
-        <f>+D84+D86</f>
-        <v/>
-      </c>
-      <c r="E87" s="54">
-        <f>+E84+E86</f>
-        <v/>
-      </c>
-      <c r="F87" s="54">
-        <f>+F84+F86</f>
-        <v/>
-      </c>
-      <c r="G87" s="54">
-        <f>+G84+G86</f>
-        <v/>
-      </c>
-      <c r="H87" s="54">
-        <f>+H84+H86</f>
-        <v/>
-      </c>
-      <c r="I87" s="54">
-        <f>+I84+I86</f>
-        <v/>
-      </c>
-      <c r="J87" s="54">
-        <f>+J84+J86</f>
-        <v/>
-      </c>
-      <c r="K87" s="54">
-        <f>+K84+K86</f>
-        <v/>
+      <c r="C87" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E87" s="54" t="n">
+        <v>1267.43</v>
+      </c>
+      <c r="F87" s="54" t="n">
+        <v>2001.96</v>
+      </c>
+      <c r="G87" s="54" t="n">
+        <v>2012.57</v>
+      </c>
+      <c r="H87" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J87" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L87" s="54" t="n"/>
-      <c r="M87" s="54">
-        <f>+M84+M86</f>
-        <v/>
+      <c r="M87" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="B88" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="48">
-        <f>+C83-C87</f>
-        <v/>
-      </c>
-      <c r="D88" s="48">
-        <f>+D83-D87</f>
-        <v/>
-      </c>
-      <c r="E88" s="48">
-        <f>+E83-E87</f>
-        <v/>
-      </c>
-      <c r="F88" s="48">
-        <f>+F83-F87</f>
-        <v/>
-      </c>
-      <c r="G88" s="48">
-        <f>+G83-G87</f>
-        <v/>
-      </c>
-      <c r="H88" s="48">
-        <f>+H83-H87</f>
-        <v/>
-      </c>
-      <c r="I88" s="48">
-        <f>+I83-I87</f>
-        <v/>
-      </c>
-      <c r="J88" s="48">
-        <f>+J83-J87</f>
-        <v/>
-      </c>
-      <c r="K88" s="48">
-        <f>+K83-K87</f>
-        <v/>
+      <c r="C88" s="48" t="n">
+        <v>2504.556799999999</v>
+      </c>
+      <c r="D88" s="48" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E88" s="48" t="n">
+        <v>11482.25</v>
+      </c>
+      <c r="F88" s="48" t="n">
+        <v>-141.96</v>
+      </c>
+      <c r="G88" s="48" t="n">
+        <v>2741.92</v>
+      </c>
+      <c r="H88" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="L88" s="48" t="n"/>
-      <c r="M88" s="48">
-        <f>+M83-M87</f>
-        <v/>
+      <c r="M88" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:19">
-      <c r="C89" s="39">
-        <f>+C82+1</f>
-        <v/>
-      </c>
-      <c r="D89" s="39">
-        <f>+D82+1</f>
-        <v/>
-      </c>
-      <c r="E89" s="39">
-        <f>+E82+1</f>
-        <v/>
-      </c>
-      <c r="F89" s="39">
-        <f>+F82+1</f>
-        <v/>
-      </c>
-      <c r="G89" s="39">
-        <f>+G82+1</f>
-        <v/>
-      </c>
-      <c r="I89" s="39">
-        <f>+I82+1</f>
-        <v/>
-      </c>
-      <c r="J89" s="39">
-        <f>+J82+1</f>
-        <v/>
-      </c>
-      <c r="K89" s="39">
-        <f>+K82+1</f>
-        <v/>
+      <c r="C89" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="D89" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="E89" s="39" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I89" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -4463,42 +3977,33 @@
         <v>43080</v>
       </c>
       <c r="C90" s="48" t="n"/>
-      <c r="D90" s="48">
-        <f>+IF(D89&lt;&gt;0, D$5+D88)</f>
-        <v/>
-      </c>
-      <c r="E90" s="48">
-        <f>+IF(E89&lt;&gt;0, E$4+E88,0)</f>
-        <v/>
-      </c>
-      <c r="F90" s="48">
-        <f>+IF(F89&lt;&gt;0, F$4+F88,0)</f>
-        <v/>
-      </c>
-      <c r="G90" s="48">
-        <f>+IF(G89&lt;&gt;0, G$4+G88,0)</f>
-        <v/>
-      </c>
-      <c r="H90" s="48">
-        <f>+IF(H89&lt;&gt;0, H$4+H88,0)</f>
-        <v/>
-      </c>
-      <c r="I90" s="48">
-        <f>+IF(I89&lt;&gt;0, I$4+I88,0)</f>
-        <v/>
-      </c>
-      <c r="J90" s="48">
-        <f>+IF(J89&lt;&gt;0, J$4+J88,0)</f>
-        <v/>
-      </c>
-      <c r="K90" s="48">
-        <f>+IF(K89&lt;&gt;0, K$4+K88,0)</f>
-        <v/>
+      <c r="D90" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E90" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" s="48" t="n">
+        <v>1718.04</v>
+      </c>
+      <c r="G90" s="48" t="n">
+        <v>5241.92</v>
+      </c>
+      <c r="H90" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J90" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K90" s="48" t="n">
+        <v>2500</v>
       </c>
       <c r="L90" s="48" t="n"/>
-      <c r="M90" s="48">
-        <f>+IF(M89&lt;&gt;0, M$4+M88,0)</f>
-        <v/>
+      <c r="M90" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -4531,43 +4036,34 @@
       <c r="B92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="51">
-        <f>+C90-C91</f>
-        <v/>
-      </c>
-      <c r="D92" s="51">
-        <f>+D90-D91</f>
-        <v/>
-      </c>
-      <c r="E92" s="51">
-        <f>+E90-E91</f>
-        <v/>
-      </c>
-      <c r="F92" s="51">
-        <f>+F90-F91</f>
-        <v/>
-      </c>
-      <c r="G92" s="51">
-        <f>+G90-G91</f>
-        <v/>
+      <c r="C92" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="51" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E92" s="51" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="51" t="n">
+        <v>4764.26</v>
       </c>
       <c r="H92" s="51" t="n"/>
-      <c r="I92" s="51">
-        <f>+I90-I91</f>
-        <v/>
-      </c>
-      <c r="J92" s="51">
-        <f>+J90-J91</f>
-        <v/>
-      </c>
-      <c r="K92" s="51">
-        <f>+K90-K91</f>
-        <v/>
+      <c r="I92" s="51" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J92" s="51" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K92" s="51" t="n">
+        <v>2500</v>
       </c>
       <c r="L92" s="51" t="n"/>
-      <c r="M92" s="51">
-        <f>+M90-M91</f>
-        <v/>
+      <c r="M92" s="51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -4591,127 +4087,100 @@
       <c r="M93" s="55" t="n"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="48">
-        <f>+G94-241.92</f>
-        <v/>
+      <c r="A94" s="48" t="n">
+        <v>235.74</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="54">
-        <f>+C91+C93</f>
-        <v/>
-      </c>
-      <c r="D94" s="54">
-        <f>+D91+D93</f>
-        <v/>
-      </c>
-      <c r="E94" s="54">
-        <f>+E91+E93</f>
-        <v/>
-      </c>
-      <c r="F94" s="54">
-        <f>+F91+F93</f>
-        <v/>
-      </c>
-      <c r="G94" s="54">
-        <f>+G91+G93</f>
-        <v/>
+      <c r="C94" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E94" s="54" t="n">
+        <v>2620.09</v>
+      </c>
+      <c r="F94" s="54" t="n">
+        <v>1718.04</v>
+      </c>
+      <c r="G94" s="54" t="n">
+        <v>477.66</v>
       </c>
       <c r="H94" s="54" t="n"/>
-      <c r="I94" s="54">
-        <f>+I91+I93</f>
-        <v/>
-      </c>
-      <c r="J94" s="54">
-        <f>+J91+J93</f>
-        <v/>
-      </c>
-      <c r="K94" s="54">
-        <f>+K91+K93</f>
-        <v/>
+      <c r="I94" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J94" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L94" s="54" t="n"/>
-      <c r="M94" s="54">
-        <f>+M91+M93</f>
-        <v/>
+      <c r="M94" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
       <c r="B95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="48">
-        <f>+C90-C94</f>
-        <v/>
-      </c>
-      <c r="D95" s="48">
-        <f>+D90-D94</f>
-        <v/>
-      </c>
-      <c r="E95" s="48">
-        <f>+E90-E94</f>
-        <v/>
-      </c>
-      <c r="F95" s="48">
-        <f>+F90-F94</f>
-        <v/>
-      </c>
-      <c r="G95" s="48">
-        <f>+G90-G94</f>
-        <v/>
+      <c r="C95" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="48" t="n">
+        <v>-32.25</v>
+      </c>
+      <c r="E95" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="48" t="n">
+        <v>4764.26</v>
       </c>
       <c r="H95" s="48" t="n"/>
-      <c r="I95" s="48">
-        <f>+I90-I94</f>
-        <v/>
-      </c>
-      <c r="J95" s="48">
-        <f>+J90-J94</f>
-        <v/>
-      </c>
-      <c r="K95" s="48">
-        <f>+K90-K94</f>
-        <v/>
+      <c r="I95" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K95" s="48" t="n">
+        <v>2500</v>
       </c>
       <c r="L95" s="48" t="n"/>
-      <c r="M95" s="48">
-        <f>+M90-M94</f>
-        <v/>
+      <c r="M95" s="48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="96" s="29" spans="1:19">
-      <c r="C96" s="29">
-        <f>+C89+1</f>
-        <v/>
-      </c>
-      <c r="D96" s="29">
-        <f>+D89+1</f>
-        <v/>
-      </c>
-      <c r="E96" s="29">
-        <f>+E89+1</f>
-        <v/>
-      </c>
-      <c r="F96" s="29">
-        <f>+F89+1</f>
-        <v/>
-      </c>
-      <c r="G96" s="29">
-        <f>+G89+1</f>
-        <v/>
-      </c>
-      <c r="I96" s="29">
-        <f>+I89+1</f>
-        <v/>
-      </c>
-      <c r="J96" s="29">
-        <f>+J89+1</f>
-        <v/>
-      </c>
-      <c r="K96" s="29">
-        <f>+K89+1</f>
-        <v/>
+      <c r="C96" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D96" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="E96" s="29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J96" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="M96" s="29" t="n">
         <v>1</v>
@@ -4725,39 +4194,31 @@
       <c r="C97" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D97" s="48">
-        <f>+IF(D96&lt;&gt;0, D$5+D95)</f>
-        <v/>
-      </c>
-      <c r="E97" s="48">
-        <f>+IF(E96&lt;&gt;0, E$4+E95,0)</f>
-        <v/>
-      </c>
-      <c r="F97" s="48">
-        <f>+IF(F96&lt;&gt;0, F$4+F95,0)</f>
-        <v/>
-      </c>
-      <c r="G97" s="48">
-        <f>+IF(G96&lt;&gt;0, G$4+G95,0)</f>
-        <v/>
+      <c r="D97" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E97" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G97" s="48" t="n">
+        <v>7264.26</v>
       </c>
       <c r="H97" s="48" t="n"/>
-      <c r="I97" s="48">
-        <f>+IF(I96&lt;&gt;0, I$4+I95,0)</f>
-        <v/>
-      </c>
-      <c r="J97" s="48">
-        <f>+IF(J96&lt;&gt;0, J$4+J95,0)</f>
-        <v/>
-      </c>
-      <c r="K97" s="48">
-        <f>+IF(K96&lt;&gt;0, K$4+K95,0)</f>
-        <v/>
+      <c r="I97" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J97" s="48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K97" s="48" t="n">
+        <v>5000</v>
       </c>
       <c r="L97" s="48" t="n"/>
-      <c r="M97" s="48">
-        <f>+IF(M96&lt;&gt;0, M$4+M95,0)</f>
-        <v/>
+      <c r="M97" s="48" t="n">
+        <v>2500</v>
       </c>
       <c r="O97" s="48" t="n"/>
     </row>
@@ -4784,38 +4245,30 @@
       <c r="B99" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="51">
-        <f>+C97-C98</f>
-        <v/>
-      </c>
-      <c r="D99" s="51">
-        <f>+D97-D98</f>
-        <v/>
-      </c>
-      <c r="E99" s="51">
-        <f>+E97-E98</f>
-        <v/>
-      </c>
-      <c r="F99" s="51">
-        <f>+F97-F98</f>
-        <v/>
-      </c>
-      <c r="G99" s="51">
-        <f>+G97-G98</f>
-        <v/>
+      <c r="C99" s="51" t="n">
+        <v>3640.3588</v>
+      </c>
+      <c r="D99" s="51" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E99" s="51" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" s="51" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G99" s="51" t="n">
+        <v>7264.26</v>
       </c>
       <c r="H99" s="51" t="n"/>
-      <c r="I99" s="51">
-        <f>+I97-I98</f>
-        <v/>
-      </c>
-      <c r="J99" s="51">
-        <f>+J97-J98</f>
-        <v/>
-      </c>
-      <c r="K99" s="51">
-        <f>+K97-K98</f>
-        <v/>
+      <c r="I99" s="51" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J99" s="51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K99" s="51" t="n">
+        <v>5000</v>
       </c>
       <c r="L99" s="51" t="n"/>
       <c r="M99" s="51" t="n"/>
@@ -4856,129 +4309,101 @@
       <c r="B101" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="54">
-        <f>+C98+C100</f>
-        <v/>
-      </c>
-      <c r="D101" s="54">
-        <f>+D98+D100</f>
-        <v/>
-      </c>
-      <c r="E101" s="54">
-        <f>+E98+E100</f>
-        <v/>
-      </c>
-      <c r="F101" s="54">
-        <f>+F98+F100</f>
-        <v/>
-      </c>
-      <c r="G101" s="54">
-        <f>+G98+G100</f>
-        <v/>
+      <c r="C101" s="54" t="n">
+        <v>3640.36</v>
+      </c>
+      <c r="D101" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="54" t="n">
+        <v>2500</v>
       </c>
       <c r="H101" s="54" t="n"/>
-      <c r="I101" s="54">
-        <f>+I98+I100</f>
-        <v/>
-      </c>
-      <c r="J101" s="54">
-        <f>+J98+J100</f>
-        <v/>
-      </c>
-      <c r="K101" s="54">
-        <f>+K98+K100</f>
-        <v/>
+      <c r="I101" s="54" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J101" s="54" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L101" s="54" t="n"/>
-      <c r="M101" s="54">
-        <f>+M98+M100</f>
-        <v/>
+      <c r="M101" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:19">
       <c r="B102" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="48">
-        <f>+C97-C101</f>
-        <v/>
-      </c>
-      <c r="D102" s="48">
-        <f>+D97-D101</f>
-        <v/>
-      </c>
-      <c r="E102" s="48">
-        <f>+E97-E101</f>
-        <v/>
-      </c>
-      <c r="F102" s="48">
-        <f>+F97-F101</f>
-        <v/>
-      </c>
-      <c r="G102" s="48">
-        <f>+G97-G101</f>
-        <v/>
+      <c r="C102" s="48" t="n">
+        <v>-0.001200000000153523</v>
+      </c>
+      <c r="D102" s="48" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="E102" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F102" s="48" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G102" s="48" t="n">
+        <v>4764.26</v>
       </c>
       <c r="H102" s="48" t="n"/>
-      <c r="I102" s="48">
-        <f>+I97-I101</f>
-        <v/>
-      </c>
-      <c r="J102" s="48">
-        <f>+J97-J101</f>
-        <v/>
-      </c>
-      <c r="K102" s="48">
-        <f>+K97-K101</f>
-        <v/>
+      <c r="I102" s="48" t="n">
+        <v>-1860</v>
+      </c>
+      <c r="J102" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K102" s="48" t="n">
+        <v>5000</v>
       </c>
       <c r="L102" s="48" t="n"/>
-      <c r="M102" s="48">
-        <f>+M97-M101</f>
-        <v/>
+      <c r="M102" s="48" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="103" spans="1:19">
-      <c r="C103" s="27">
-        <f>+C96+1</f>
-        <v/>
-      </c>
-      <c r="D103" s="27">
-        <f>+D96+1</f>
-        <v/>
-      </c>
-      <c r="E103" s="27">
-        <f>+E96+1</f>
-        <v/>
-      </c>
-      <c r="F103" s="27">
-        <f>+F96+1</f>
-        <v/>
-      </c>
-      <c r="G103" s="27">
-        <f>+G96+1</f>
-        <v/>
-      </c>
-      <c r="H103" s="27">
-        <f>+H96+1</f>
-        <v/>
-      </c>
-      <c r="I103" s="27">
-        <f>+I96+1</f>
-        <v/>
-      </c>
-      <c r="J103" s="27">
-        <f>+J96+1</f>
-        <v/>
-      </c>
-      <c r="K103" s="27">
-        <f>+K96+1</f>
-        <v/>
+      <c r="C103" s="27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D103" s="27" t="n">
+        <v>14</v>
+      </c>
+      <c r="E103" s="27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="H103" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" s="27" t="n">
+        <v>3</v>
       </c>
       <c r="L103" s="27" t="n"/>
-      <c r="M103" s="38">
-        <f>+M96+1</f>
-        <v/>
+      <c r="M103" s="38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -4988,39 +4413,31 @@
       <c r="C104" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D104" s="48">
-        <f>+IF(D103&lt;&gt;0, D$5+D102)</f>
-        <v/>
-      </c>
-      <c r="E104" s="48">
-        <f>+IF(E103&lt;&gt;0, E$4+E102,0)</f>
-        <v/>
-      </c>
-      <c r="F104" s="48">
-        <f>+IF(F103&lt;&gt;0, F$4+F102,0)</f>
-        <v/>
-      </c>
-      <c r="G104" s="48">
-        <f>+IF(G103&lt;&gt;0, G$4+G102,0)</f>
-        <v/>
+      <c r="D104" s="48" t="n">
+        <v>3687.75</v>
+      </c>
+      <c r="E104" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F104" s="48" t="n">
+        <v>3720</v>
+      </c>
+      <c r="G104" s="48" t="n">
+        <v>7264.26</v>
       </c>
       <c r="H104" s="48" t="n"/>
-      <c r="I104" s="48">
-        <f>+IF(I103&lt;&gt;0, I$4+I102,0)</f>
-        <v/>
-      </c>
-      <c r="J104" s="48">
-        <f>+IF(J103&lt;&gt;0, J$4+J102,0)</f>
-        <v/>
-      </c>
-      <c r="K104" s="48">
-        <f>+IF(K103&lt;&gt;0, K$4+K102,0)</f>
-        <v/>
+      <c r="I104" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K104" s="48" t="n">
+        <v>7500</v>
       </c>
       <c r="L104" s="48" t="n"/>
-      <c r="M104" s="48">
-        <f>+IF(M103&lt;&gt;0, M$4+M102,0)</f>
-        <v/>
+      <c r="M104" s="48" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row outlineLevel="1" r="105" s="26" spans="1:19">
@@ -5045,38 +4462,30 @@
       <c r="B106" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="51">
-        <f>+C104-C105</f>
-        <v/>
-      </c>
-      <c r="D106" s="51">
-        <f>+D104-D105</f>
-        <v/>
-      </c>
-      <c r="E106" s="51">
-        <f>+E104-E105</f>
-        <v/>
-      </c>
-      <c r="F106" s="51">
-        <f>+F104-F105</f>
-        <v/>
-      </c>
-      <c r="G106" s="51">
-        <f>+G104-G105</f>
-        <v/>
+      <c r="C106" s="51" t="n">
+        <v>3640.3588</v>
+      </c>
+      <c r="D106" s="51" t="n">
+        <v>3687.75</v>
+      </c>
+      <c r="E106" s="51" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="51" t="n">
+        <v>3720</v>
+      </c>
+      <c r="G106" s="51" t="n">
+        <v>7264.26</v>
       </c>
       <c r="H106" s="51" t="n"/>
-      <c r="I106" s="51">
-        <f>+I104-I105</f>
-        <v/>
-      </c>
-      <c r="J106" s="51">
-        <f>+J104-J105</f>
-        <v/>
-      </c>
-      <c r="K106" s="51">
-        <f>+K104-K105</f>
-        <v/>
+      <c r="I106" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K106" s="51" t="n">
+        <v>7500</v>
       </c>
       <c r="L106" s="51" t="n"/>
       <c r="M106" s="51" t="n"/>
@@ -5113,132 +4522,103 @@
       <c r="B108" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="54">
-        <f>+C105+C107</f>
-        <v/>
-      </c>
-      <c r="D108" s="54">
-        <f>+D105+D107</f>
-        <v/>
-      </c>
-      <c r="E108" s="54">
-        <f>+E105+E107</f>
-        <v/>
-      </c>
-      <c r="F108" s="54">
-        <f>+F105+F107</f>
-        <v/>
-      </c>
-      <c r="G108" s="54">
-        <f>+G105+G107</f>
-        <v/>
+      <c r="C108" s="54" t="n">
+        <v>3640.36</v>
+      </c>
+      <c r="D108" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F108" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="54" t="n">
+        <v>2500</v>
       </c>
       <c r="H108" s="54" t="n"/>
-      <c r="I108" s="54">
-        <f>+I105+I107</f>
-        <v/>
-      </c>
-      <c r="J108" s="54">
-        <f>+J105+J107</f>
-        <v/>
-      </c>
-      <c r="K108" s="54">
-        <f>+K105+K107</f>
-        <v/>
+      <c r="I108" s="54" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J108" s="54" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K108" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="L108" s="54" t="n"/>
-      <c r="M108" s="54">
-        <f>+M105+M107</f>
-        <v/>
+      <c r="M108" s="54" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="B109" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="48">
-        <f>+C104-C108</f>
-        <v/>
-      </c>
-      <c r="D109" s="48">
-        <f>+D104-D108</f>
-        <v/>
-      </c>
-      <c r="E109" s="48">
-        <f>+E104-E108</f>
-        <v/>
-      </c>
-      <c r="F109" s="48">
-        <f>+F104-F108</f>
-        <v/>
-      </c>
-      <c r="G109" s="48">
-        <f>+G104-G108</f>
-        <v/>
-      </c>
-      <c r="H109" s="48">
-        <f>+H104-H108</f>
-        <v/>
-      </c>
-      <c r="I109" s="48">
-        <f>+I104-I108</f>
-        <v/>
-      </c>
-      <c r="J109" s="48">
-        <f>+J104-J108</f>
-        <v/>
-      </c>
-      <c r="K109" s="48">
-        <f>+K104-K108</f>
-        <v/>
+      <c r="C109" s="48" t="n">
+        <v>-0.001200000000153523</v>
+      </c>
+      <c r="D109" s="48" t="n">
+        <v>3687.75</v>
+      </c>
+      <c r="E109" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F109" s="48" t="n">
+        <v>3720</v>
+      </c>
+      <c r="G109" s="48" t="n">
+        <v>4764.26</v>
+      </c>
+      <c r="H109" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="48" t="n">
+        <v>-3720</v>
+      </c>
+      <c r="J109" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K109" s="48" t="n">
+        <v>7500</v>
       </c>
       <c r="L109" s="48" t="n"/>
-      <c r="M109" s="48">
-        <f>+M104-M108</f>
-        <v/>
+      <c r="M109" s="48" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="110" spans="1:19">
-      <c r="C110" s="39">
-        <f>+C103+1</f>
-        <v/>
-      </c>
-      <c r="D110" s="39">
-        <f>+D103+1</f>
-        <v/>
-      </c>
-      <c r="E110" s="39">
-        <f>+E103+1</f>
-        <v/>
-      </c>
-      <c r="F110" s="39">
-        <f>+F103+1</f>
-        <v/>
-      </c>
-      <c r="G110" s="39">
-        <f>+G103+1</f>
-        <v/>
-      </c>
-      <c r="H110" s="39">
-        <f>+H103+1</f>
-        <v/>
-      </c>
-      <c r="I110" s="39">
-        <f>+I103+1</f>
-        <v/>
-      </c>
-      <c r="J110" s="39">
-        <f>+J103+1</f>
-        <v/>
-      </c>
-      <c r="K110" s="39">
-        <f>+K103+1</f>
-        <v/>
+      <c r="C110" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D110" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="E110" s="39" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F110" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J110" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K110" s="39" t="n">
+        <v>4</v>
       </c>
       <c r="L110" s="39" t="n"/>
-      <c r="M110" s="39">
-        <f>+M103+1</f>
-        <v/>
+      <c r="M110" s="39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -5248,39 +4628,31 @@
       <c r="C111" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D111" s="48">
-        <f>+IF(D110&lt;&gt;0, D$5+D109)</f>
-        <v/>
-      </c>
-      <c r="E111" s="48">
-        <f>+IF(E110&lt;&gt;0, E$4+E109,0)</f>
-        <v/>
-      </c>
-      <c r="F111" s="48">
-        <f>+IF(F110&lt;&gt;0, F$4+F109,0)</f>
-        <v/>
-      </c>
-      <c r="G111" s="48">
-        <f>+IF(G110&lt;&gt;0, G$4+G109,0)</f>
-        <v/>
+      <c r="D111" s="48" t="n">
+        <v>5547.75</v>
+      </c>
+      <c r="E111" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F111" s="48" t="n">
+        <v>5580</v>
+      </c>
+      <c r="G111" s="48" t="n">
+        <v>7264.26</v>
       </c>
       <c r="H111" s="48" t="n"/>
-      <c r="I111" s="48">
-        <f>+IF(I110&lt;&gt;0, I$4+I109,0)</f>
-        <v/>
-      </c>
-      <c r="J111" s="48">
-        <f>+IF(J110&lt;&gt;0, J$4+J109,0)</f>
-        <v/>
-      </c>
-      <c r="K111" s="48">
-        <f>+IF(K110&lt;&gt;0, K$4+K109,0)</f>
-        <v/>
+      <c r="I111" s="48" t="n">
+        <v>-1860</v>
+      </c>
+      <c r="J111" s="48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K111" s="48" t="n">
+        <v>10000</v>
       </c>
       <c r="L111" s="48" t="n"/>
-      <c r="M111" s="48">
-        <f>+IF(M110&lt;&gt;0, M$4+M109,0)</f>
-        <v/>
+      <c r="M111" s="48" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -5322,38 +4694,30 @@
       <c r="B113" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="51">
-        <f>+C111-C112</f>
-        <v/>
-      </c>
-      <c r="D113" s="51">
-        <f>+D111-D112</f>
-        <v/>
-      </c>
-      <c r="E113" s="51">
-        <f>+E111-E112</f>
-        <v/>
-      </c>
-      <c r="F113" s="51">
-        <f>+F111-F112</f>
-        <v/>
-      </c>
-      <c r="G113" s="51">
-        <f>+G111-G112</f>
-        <v/>
+      <c r="C113" s="51" t="n">
+        <v>2337.7588</v>
+      </c>
+      <c r="D113" s="51" t="n">
+        <v>5547.75</v>
+      </c>
+      <c r="E113" s="51" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F113" s="51" t="n">
+        <v>4450.75</v>
+      </c>
+      <c r="G113" s="51" t="n">
+        <v>6828.6</v>
       </c>
       <c r="H113" s="51" t="n"/>
-      <c r="I113" s="51">
-        <f>+I111-I112</f>
-        <v/>
-      </c>
-      <c r="J113" s="51">
-        <f>+J111-J112</f>
-        <v/>
-      </c>
-      <c r="K113" s="51">
-        <f>+K111-K112</f>
-        <v/>
+      <c r="I113" s="51" t="n">
+        <v>-3720</v>
+      </c>
+      <c r="J113" s="51" t="n">
+        <v>3869.51</v>
+      </c>
+      <c r="K113" s="51" t="n">
+        <v>9754.719999999999</v>
       </c>
       <c r="L113" s="51" t="n"/>
       <c r="M113" s="51" t="n"/>
@@ -5378,131 +4742,103 @@
       <c r="B115" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="54">
-        <f>+C112+C114</f>
-        <v/>
-      </c>
-      <c r="D115" s="54">
-        <f>+D112+D114</f>
-        <v/>
-      </c>
-      <c r="E115" s="54">
-        <f>+E112+E114</f>
-        <v/>
-      </c>
-      <c r="F115" s="54">
-        <f>+F112+F114</f>
-        <v/>
-      </c>
-      <c r="G115" s="54">
-        <f>+G112+G114</f>
-        <v/>
+      <c r="C115" s="54" t="n">
+        <v>1302.6</v>
+      </c>
+      <c r="D115" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="54" t="n">
+        <v>279.91</v>
+      </c>
+      <c r="F115" s="54" t="n">
+        <v>1129.25</v>
+      </c>
+      <c r="G115" s="54" t="n">
+        <v>435.66</v>
       </c>
       <c r="H115" s="54" t="n"/>
-      <c r="I115" s="54">
-        <f>+I112+I114</f>
-        <v/>
-      </c>
-      <c r="J115" s="54">
-        <f>+J112+J114</f>
-        <v/>
-      </c>
-      <c r="K115" s="54">
-        <f>+K112+K114</f>
-        <v/>
+      <c r="I115" s="54" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J115" s="54" t="n">
+        <v>1130.49</v>
+      </c>
+      <c r="K115" s="54" t="n">
+        <v>245.28</v>
       </c>
       <c r="L115" s="54" t="n"/>
-      <c r="M115" s="54">
-        <f>+M112+M114</f>
-        <v/>
+      <c r="M115" s="54" t="n">
+        <v>2585.76</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="B116" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="48">
-        <f>+C111-C115</f>
-        <v/>
-      </c>
-      <c r="D116" s="48">
-        <f>+D111-D115</f>
-        <v/>
-      </c>
-      <c r="E116" s="48">
-        <f>+E111-E115</f>
-        <v/>
-      </c>
-      <c r="F116" s="48">
-        <f>+F111-F115</f>
-        <v/>
-      </c>
-      <c r="G116" s="48">
-        <f>+G111-G115</f>
-        <v/>
+      <c r="C116" s="48" t="n">
+        <v>2337.7588</v>
+      </c>
+      <c r="D116" s="48" t="n">
+        <v>5547.75</v>
+      </c>
+      <c r="E116" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F116" s="48" t="n">
+        <v>4450.75</v>
+      </c>
+      <c r="G116" s="48" t="n">
+        <v>6828.6</v>
       </c>
       <c r="H116" s="48" t="n"/>
-      <c r="I116" s="48">
-        <f>+I111-I115</f>
-        <v/>
-      </c>
-      <c r="J116" s="48">
-        <f>+J111-J115</f>
-        <v/>
-      </c>
-      <c r="K116" s="48">
-        <f>+K111-K115</f>
-        <v/>
+      <c r="I116" s="48" t="n">
+        <v>-3720</v>
+      </c>
+      <c r="J116" s="48" t="n">
+        <v>3869.51</v>
+      </c>
+      <c r="K116" s="48" t="n">
+        <v>9754.719999999999</v>
       </c>
       <c r="L116" s="48" t="n"/>
-      <c r="M116" s="48">
-        <f>+M111-M115</f>
-        <v/>
+      <c r="M116" s="48" t="n">
+        <v>2414.24</v>
       </c>
     </row>
     <row customFormat="1" r="117" s="27" spans="1:19">
-      <c r="C117" s="27">
-        <f>+C110+1</f>
-        <v/>
-      </c>
-      <c r="D117" s="27">
-        <f>+D110+1</f>
-        <v/>
-      </c>
-      <c r="E117" s="27">
-        <f>+E110+1</f>
-        <v/>
-      </c>
-      <c r="F117" s="27">
-        <f>+F110+1</f>
-        <v/>
-      </c>
-      <c r="G117" s="27">
-        <f>+G110+1</f>
-        <v/>
-      </c>
-      <c r="H117" s="27">
-        <f>+H110+1</f>
-        <v/>
-      </c>
-      <c r="I117" s="27">
-        <f>+I110+1</f>
-        <v/>
-      </c>
-      <c r="J117" s="27">
-        <f>+J110+1</f>
-        <v/>
-      </c>
-      <c r="K117" s="27">
-        <f>+K110+1</f>
-        <v/>
+      <c r="C117" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D117" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="E117" s="27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F117" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G117" s="27" t="n">
+        <v>13</v>
+      </c>
+      <c r="H117" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K117" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="L117" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="M117" s="27">
-        <f>+M110+1</f>
-        <v/>
+      <c r="M117" s="27" t="n">
+        <v>4</v>
       </c>
       <c r="N117" s="27" t="n">
         <v>1</v>
@@ -5518,46 +4854,36 @@
       <c r="C118" s="48" t="n">
         <v>3640.3588</v>
       </c>
-      <c r="D118" s="48">
-        <f>+IF(D117&lt;&gt;0, D$5+D116)</f>
-        <v/>
-      </c>
-      <c r="E118" s="48">
-        <f>+IF(E117&lt;&gt;0, E$4+E116,0)</f>
-        <v/>
-      </c>
-      <c r="F118" s="48">
-        <f>+IF(F117&lt;&gt;0, F$4+F116,0)</f>
-        <v/>
-      </c>
-      <c r="G118" s="48">
-        <f>+IF(G117&lt;&gt;0, G$4+G116,0)</f>
-        <v/>
+      <c r="D118" s="48" t="n">
+        <v>7407.75</v>
+      </c>
+      <c r="E118" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F118" s="48" t="n">
+        <v>6310.75</v>
+      </c>
+      <c r="G118" s="48" t="n">
+        <v>9328.6</v>
       </c>
       <c r="H118" s="48" t="n"/>
-      <c r="I118" s="48">
-        <f>+IF(I117&lt;&gt;0, I$4+I116,0)</f>
-        <v/>
-      </c>
-      <c r="J118" s="48">
-        <f>+IF(J117&lt;&gt;0, J$4+J116,0)</f>
-        <v/>
-      </c>
-      <c r="K118" s="48">
-        <f>+IF(K117&lt;&gt;0, K$4+K116,0)</f>
-        <v/>
-      </c>
-      <c r="L118" s="48">
-        <f>+IF(L117&lt;&gt;0, L$4+L116,0)</f>
-        <v/>
-      </c>
-      <c r="M118" s="48">
-        <f>+IF(M117&lt;&gt;0, M$4+M116,0)</f>
-        <v/>
-      </c>
-      <c r="N118" s="48">
-        <f>+IF(N117&lt;&gt;0, N$4+N116,0)</f>
-        <v/>
+      <c r="I118" s="48" t="n">
+        <v>-1860</v>
+      </c>
+      <c r="J118" s="48" t="n">
+        <v>6369.51</v>
+      </c>
+      <c r="K118" s="48" t="n">
+        <v>12254.72</v>
+      </c>
+      <c r="L118" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M118" s="48" t="n">
+        <v>4914.24</v>
+      </c>
+      <c r="N118" s="48" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -5581,38 +4907,30 @@
       <c r="B120" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="51">
-        <f>+C118-C119</f>
-        <v/>
-      </c>
-      <c r="D120" s="51">
-        <f>+D118-D119</f>
-        <v/>
-      </c>
-      <c r="E120" s="51">
-        <f>+E118-E119</f>
-        <v/>
-      </c>
-      <c r="F120" s="51">
-        <f>+F118-F119</f>
-        <v/>
-      </c>
-      <c r="G120" s="51">
-        <f>+G118-G119</f>
-        <v/>
+      <c r="C120" s="51" t="n">
+        <v>3640.3588</v>
+      </c>
+      <c r="D120" s="51" t="n">
+        <v>7407.75</v>
+      </c>
+      <c r="E120" s="51" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F120" s="51" t="n">
+        <v>6310.75</v>
+      </c>
+      <c r="G120" s="51" t="n">
+        <v>9328.6</v>
       </c>
       <c r="H120" s="51" t="n"/>
-      <c r="I120" s="51">
-        <f>+I118-I119</f>
-        <v/>
-      </c>
-      <c r="J120" s="51">
-        <f>+J118-J119</f>
-        <v/>
-      </c>
-      <c r="K120" s="51">
-        <f>+K118-K119</f>
-        <v/>
+      <c r="I120" s="51" t="n">
+        <v>-1860</v>
+      </c>
+      <c r="J120" s="51" t="n">
+        <v>6369.51</v>
+      </c>
+      <c r="K120" s="51" t="n">
+        <v>12254.72</v>
       </c>
       <c r="L120" s="51" t="n"/>
       <c r="M120" s="51" t="n"/>
@@ -5639,100 +4957,78 @@
       <c r="B122" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="54">
-        <f>+C119+C121</f>
-        <v/>
-      </c>
-      <c r="D122" s="54">
-        <f>+D119+D121</f>
-        <v/>
-      </c>
-      <c r="E122" s="54">
-        <f>+E119+E121</f>
-        <v/>
-      </c>
-      <c r="F122" s="54">
-        <f>+F119+F121</f>
-        <v/>
-      </c>
-      <c r="G122" s="54">
-        <f>+G119+G121</f>
-        <v/>
+      <c r="C122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="H122" s="54" t="n"/>
-      <c r="I122" s="54">
-        <f>+I119+I121</f>
-        <v/>
-      </c>
-      <c r="J122" s="54">
-        <f>+J119+J121</f>
-        <v/>
-      </c>
-      <c r="K122" s="54">
-        <f>+K119+K121</f>
-        <v/>
-      </c>
-      <c r="L122" s="54">
-        <f>+L119+L121</f>
-        <v/>
-      </c>
-      <c r="M122" s="54">
-        <f>+M119+M121</f>
-        <v/>
-      </c>
-      <c r="N122" s="54">
-        <f>+N119+N121</f>
-        <v/>
+      <c r="I122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" s="54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:19">
       <c r="B123" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="48">
-        <f>+C118-C122</f>
-        <v/>
-      </c>
-      <c r="D123" s="48">
-        <f>+D118-D122</f>
-        <v/>
-      </c>
-      <c r="E123" s="48">
-        <f>+E118-E122</f>
-        <v/>
-      </c>
-      <c r="F123" s="48">
-        <f>+F118-F122</f>
-        <v/>
-      </c>
-      <c r="G123" s="48">
-        <f>+G118-G122</f>
-        <v/>
+      <c r="C123" s="48" t="n">
+        <v>3640.3588</v>
+      </c>
+      <c r="D123" s="48" t="n">
+        <v>7407.75</v>
+      </c>
+      <c r="E123" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F123" s="48" t="n">
+        <v>6310.75</v>
+      </c>
+      <c r="G123" s="48" t="n">
+        <v>9328.6</v>
       </c>
       <c r="H123" s="48" t="n"/>
-      <c r="I123" s="48">
-        <f>+I118-I122</f>
-        <v/>
-      </c>
-      <c r="J123" s="48">
-        <f>+J118-J122</f>
-        <v/>
-      </c>
-      <c r="K123" s="48">
-        <f>+K118-K122</f>
-        <v/>
-      </c>
-      <c r="L123" s="48">
-        <f>+L118-L122</f>
-        <v/>
-      </c>
-      <c r="M123" s="48">
-        <f>+M118-M122</f>
-        <v/>
-      </c>
-      <c r="N123" s="48">
-        <f>+N118-N122</f>
-        <v/>
+      <c r="I123" s="48" t="n">
+        <v>-1860</v>
+      </c>
+      <c r="J123" s="48" t="n">
+        <v>6369.51</v>
+      </c>
+      <c r="K123" s="48" t="n">
+        <v>12254.72</v>
+      </c>
+      <c r="L123" s="48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M123" s="48" t="n">
+        <v>4914.24</v>
+      </c>
+      <c r="N123" s="48" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -5740,30 +5036,37 @@
         <v>43115</v>
       </c>
       <c r="C125" t="n">
-        <v>804.38</v>
+        <v>6370.6288</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>73.04000000000001</v>
+        <v>9267.75</v>
       </c>
       <c r="F125" t="n">
-        <v>1228.41</v>
+        <v>8170.75</v>
       </c>
       <c r="G125" t="n">
-        <v>1860</v>
+        <v>11828.6</v>
       </c>
     </row>
     <row r="126" spans="1:19">
       <c r="B126" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="60" t="n"/>
-      <c r="D126" s="60" t="n"/>
-      <c r="E126" s="60" t="n"/>
-      <c r="F126" s="60" t="n"/>
-      <c r="G126" s="60" t="n"/>
+      <c r="C126" s="60" t="n">
+        <v>804.38</v>
+      </c>
+      <c r="D126" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="60" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="F126" s="60" t="n">
+        <v>1228.41</v>
+      </c>
+      <c r="G126" s="60" t="n">
+        <v>1860</v>
+      </c>
       <c r="H126" s="60" t="n"/>
       <c r="I126" s="60" t="n"/>
       <c r="J126" s="60" t="n"/>
@@ -5775,6 +5078,18 @@
     <row r="127" spans="1:19">
       <c r="B127" t="s">
         <v>37</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5566.2488</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9267.75</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6942.34</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9968.6</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -6123,109 +5438,84 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="45" r="6" s="41" spans="1:11">
-      <c r="B6" s="2">
-        <f>+Hoja1!C2</f>
-        <v/>
-      </c>
-      <c r="C6" s="2">
-        <f>+Hoja1!D2</f>
-        <v/>
-      </c>
-      <c r="D6" s="2">
-        <f>+Hoja1!E2</f>
-        <v/>
-      </c>
-      <c r="E6" s="2">
-        <f>+Hoja1!F2</f>
-        <v/>
-      </c>
-      <c r="F6" s="2">
-        <f>+Hoja1!G2</f>
-        <v/>
-      </c>
-      <c r="G6" s="2">
-        <f>+Hoja1!H2</f>
-        <v/>
-      </c>
-      <c r="H6" s="2">
-        <f>+Hoja1!I2</f>
-        <v/>
-      </c>
-      <c r="I6" s="2">
-        <f>+Hoja1!J2</f>
-        <v/>
-      </c>
-      <c r="J6" s="2">
-        <f>+Hoja1!K2</f>
-        <v/>
-      </c>
-      <c r="K6" s="2">
-        <f>+Hoja1!M2</f>
-        <v/>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="5">
-        <f>+Hoja1!C3</f>
-        <v/>
-      </c>
-      <c r="C7" s="5">
-        <f>+Hoja1!D3</f>
-        <v/>
-      </c>
-      <c r="D7" s="5">
-        <f>+Hoja1!E3</f>
-        <v/>
-      </c>
-      <c r="E7" s="5">
-        <f>+Hoja1!F3</f>
-        <v/>
-      </c>
-      <c r="F7" s="5">
-        <f>+Hoja1!G3</f>
-        <v/>
-      </c>
-      <c r="G7" s="5">
-        <f>+Hoja1!H3</f>
-        <v/>
-      </c>
-      <c r="H7" s="5">
-        <f>+Hoja1!I3</f>
-        <v/>
-      </c>
-      <c r="I7" s="5">
-        <f>+Hoja1!J3</f>
-        <v/>
-      </c>
-      <c r="J7" s="5">
-        <f>+Hoja1!K3</f>
-        <v/>
-      </c>
-      <c r="K7" s="5">
-        <f>+Hoja1!M3</f>
-        <v/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="42">
-        <f>+Hoja1!C121</f>
-        <v/>
-      </c>
-      <c r="C8" s="42">
-        <f>+Hoja1!D121</f>
-        <v/>
-      </c>
-      <c r="D8" s="42">
-        <f>+Hoja1!E121</f>
-        <v/>
-      </c>
-      <c r="E8" s="42">
-        <f>+Hoja1!F121</f>
-        <v/>
-      </c>
-      <c r="F8" s="42">
-        <f>+Hoja1!G121</f>
-        <v/>
+      <c r="B8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="42" t="n">
         <v>0</v>
@@ -6233,17 +5523,14 @@
       <c r="H8" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="42">
-        <f>+Hoja1!J121</f>
-        <v/>
-      </c>
-      <c r="J8" s="42">
-        <f>+Hoja1!K121</f>
-        <v/>
-      </c>
-      <c r="K8" s="42">
-        <f>+Hoja1!M121</f>
-        <v/>
+      <c r="I8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/Prubes.xlsx
+++ b/Prubes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Avisar Visor</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Primera Retención</t>
   </si>
   <si>
-    <t>S</t>
+    <t>JM</t>
   </si>
   <si>
     <t>V</t>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>27 y 24 oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1242,13 +1239,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="I101" xSplit="2" ySplit="11"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C108" xSplit="2" ySplit="11"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A11" pane="bottomLeft" sqref="A11"/>
-      <selection activeCell="B124" pane="bottomRight" sqref="B124"/>
+      <selection activeCell="C7" pane="bottomRight" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -1268,7 +1265,7 @@
     <col customWidth="1" max="16384" min="16" style="39" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="27" spans="1:19">
+    <row customFormat="1" r="1" s="27" spans="1:15">
       <c r="B1" s="36" t="n"/>
       <c r="C1" s="27" t="n">
         <v>5460.54</v>
@@ -1283,7 +1280,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="56.25" r="2" s="26" spans="1:19">
+    <row customHeight="1" ht="56.25" r="2" s="26" spans="1:15">
+      <c r="A2" s="39" t="n">
+        <v>5460.5376</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1321,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:15">
+      <c r="A3" s="39" t="n">
+        <v>910.0895999999999</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1362,8 +1365,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="48" t="n"/>
+    <row r="4" spans="1:15">
+      <c r="A4" s="48" t="n">
+        <v>3640.3584</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1403,11 +1408,8 @@
       <c r="N4" s="50" t="n">
         <v>2500</v>
       </c>
-      <c r="S4" s="39" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:15">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:15">
       <c r="B7" s="4" t="n"/>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -1520,7 +1522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:15">
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:15">
       <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:15">
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12" s="26" spans="1:19">
+    <row customHeight="1" ht="15.75" r="12" s="26" spans="1:15">
       <c r="C12" s="39" t="n">
         <v>1</v>
       </c>
@@ -1653,7 +1655,7 @@
       <c r="F12" s="51" t="n"/>
       <c r="J12" s="51" t="n"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:15">
       <c r="B13" s="10" t="n">
         <v>43007</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="14" s="26" spans="1:19">
+    <row outlineLevel="1" r="14" s="26" spans="1:15">
       <c r="A14" s="12" t="n">
         <v>43007</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="15" s="26" spans="1:19">
+    <row outlineLevel="1" r="15" s="26" spans="1:15">
       <c r="A15" s="15" t="n"/>
       <c r="B15" s="16" t="s">
         <v>37</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="16" s="26" spans="1:19">
+    <row outlineLevel="1" r="16" s="26" spans="1:15">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="17" s="26" spans="1:19">
+    <row outlineLevel="1" r="17" s="26" spans="1:15">
       <c r="A17" s="15" t="n"/>
       <c r="B17" s="18" t="s">
         <v>40</v>
@@ -1841,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="18" s="26" spans="1:19">
+    <row customHeight="1" ht="14.25" r="18" s="26" spans="1:15">
       <c r="A18" s="15" t="n"/>
       <c r="B18" s="18" t="s">
         <v>41</v>
@@ -1878,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:15">
       <c r="A19" s="15" t="n"/>
       <c r="C19" s="39" t="n">
         <v>2</v>
@@ -1891,7 +1893,7 @@
       <c r="I19" s="48" t="n"/>
       <c r="J19" s="48" t="n"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:15">
       <c r="A20" s="15" t="n"/>
       <c r="B20" s="10" t="n">
         <v>43014</v>
@@ -1928,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="21" s="26" spans="1:19">
+    <row outlineLevel="1" r="21" s="26" spans="1:15">
       <c r="A21" s="12" t="n">
         <v>43010</v>
       </c>
@@ -1955,7 +1957,7 @@
       <c r="L21" s="55" t="n"/>
       <c r="M21" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="22" s="26" spans="1:19">
+    <row outlineLevel="1" r="22" s="26" spans="1:15">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -1992,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="23" s="26" spans="1:19">
+    <row outlineLevel="1" r="23" s="26" spans="1:15">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2019,7 +2021,7 @@
       <c r="L23" s="55" t="n"/>
       <c r="M23" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="24" s="26" spans="1:19">
+    <row outlineLevel="1" r="24" s="26" spans="1:15">
       <c r="A24" s="15" t="n"/>
       <c r="B24" s="18" t="s">
         <v>40</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:15">
       <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:15">
       <c r="C26" s="39" t="n">
         <v>3</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="H26" s="57" t="n"/>
       <c r="I26" s="48" t="n"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:15">
       <c r="B27" s="10" t="n">
         <v>43021</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="28" s="26" spans="1:19">
+    <row outlineLevel="1" r="28" s="26" spans="1:15">
       <c r="A28" s="23" t="n">
         <v>43017</v>
       </c>
@@ -2166,7 +2168,7 @@
       <c r="L28" s="55" t="n"/>
       <c r="M28" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="29" s="26" spans="1:19">
+    <row outlineLevel="1" r="29" s="26" spans="1:15">
       <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="30" s="26" spans="1:19">
+    <row outlineLevel="1" r="30" s="26" spans="1:15">
       <c r="A30" s="23" t="s">
         <v>43</v>
       </c>
@@ -2229,7 +2231,7 @@
       <c r="L30" s="55" t="n"/>
       <c r="M30" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="31" s="26" spans="1:19">
+    <row outlineLevel="1" r="31" s="26" spans="1:15">
       <c r="B31" s="18" t="s">
         <v>40</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:15">
       <c r="B32" s="18" t="s">
         <v>41</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:15">
       <c r="C33" s="39" t="n">
         <v>4</v>
       </c>
@@ -2316,7 +2318,7 @@
       </c>
       <c r="I33" s="48" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="34" s="26" spans="1:19">
+    <row customHeight="1" ht="14.25" r="34" s="26" spans="1:15">
       <c r="B34" s="10" t="n">
         <v>43028</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="35" s="26" spans="1:19">
+    <row outlineLevel="1" r="35" s="26" spans="1:15">
       <c r="A35" s="23" t="n">
         <v>43024</v>
       </c>
@@ -2379,7 +2381,7 @@
       <c r="L35" s="55" t="n"/>
       <c r="M35" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="36" s="26" spans="1:19">
+    <row outlineLevel="1" r="36" s="26" spans="1:15">
       <c r="B36" s="16" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="37" s="26" spans="1:19">
+    <row outlineLevel="1" r="37" s="26" spans="1:15">
       <c r="A37" s="23" t="n">
         <v>43028</v>
       </c>
@@ -2438,7 +2440,7 @@
       <c r="L37" s="55" t="n"/>
       <c r="M37" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="38" s="26" spans="1:19">
+    <row outlineLevel="1" r="38" s="26" spans="1:15">
       <c r="B38" s="18" t="s">
         <v>40</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:15">
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:15">
       <c r="C40" s="29" t="n">
         <v>5</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="H40" s="27" t="n"/>
       <c r="I40" s="27" t="n"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:15">
       <c r="B41" s="10" t="n">
         <v>43035</v>
       </c>
@@ -2551,7 +2553,7 @@
       <c r="L41" s="48" t="n"/>
       <c r="M41" s="48" t="n"/>
     </row>
-    <row outlineLevel="1" r="42" s="26" spans="1:19">
+    <row outlineLevel="1" r="42" s="26" spans="1:15">
       <c r="A42" s="23" t="n">
         <v>43031</v>
       </c>
@@ -2578,7 +2580,7 @@
       <c r="L42" s="55" t="n"/>
       <c r="M42" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="43" s="26" spans="1:19">
+    <row outlineLevel="1" r="43" s="26" spans="1:15">
       <c r="B43" s="16" t="s">
         <v>37</v>
       </c>
@@ -2602,7 +2604,7 @@
       <c r="L43" s="51" t="n"/>
       <c r="M43" s="51" t="n"/>
     </row>
-    <row outlineLevel="1" r="44" s="26" spans="1:19">
+    <row outlineLevel="1" r="44" s="26" spans="1:15">
       <c r="A44" s="28" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2629,7 @@
       <c r="L44" s="55" t="n"/>
       <c r="M44" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="45" s="26" spans="1:19">
+    <row outlineLevel="1" r="45" s="26" spans="1:15">
       <c r="B45" s="18" t="s">
         <v>40</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:15">
       <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:15">
       <c r="C47" s="29" t="n">
         <v>6</v>
       </c>
@@ -2715,7 +2717,7 @@
       <c r="H47" s="29" t="n"/>
       <c r="I47" s="27" t="n"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:15">
       <c r="B48" s="10" t="n">
         <v>43038</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="49" s="26" spans="1:19">
+    <row outlineLevel="1" r="49" s="26" spans="1:15">
       <c r="A49" s="23" t="n">
         <v>43038</v>
       </c>
@@ -2778,7 +2780,7 @@
       <c r="L49" s="55" t="n"/>
       <c r="M49" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="50" s="26" spans="1:19">
+    <row outlineLevel="1" r="50" s="26" spans="1:15">
       <c r="B50" s="16" t="s">
         <v>37</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="51" s="26" spans="1:19">
+    <row outlineLevel="1" r="51" s="26" spans="1:15">
       <c r="B51" s="17" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2834,7 @@
       <c r="L51" s="55" t="n"/>
       <c r="M51" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="52" s="26" spans="1:19">
+    <row outlineLevel="1" r="52" s="26" spans="1:15">
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:15">
       <c r="B53" s="18" t="s">
         <v>41</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:15">
       <c r="A54" s="24" t="n"/>
       <c r="C54" s="29" t="n">
         <v>7</v>
@@ -2922,7 +2924,7 @@
       <c r="H54" s="29" t="n"/>
       <c r="I54" s="29" t="n"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:15">
       <c r="A55" s="24" t="n"/>
       <c r="B55" s="10" t="n">
         <v>43045</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="56" s="26" spans="1:19">
+    <row outlineLevel="1" r="56" s="26" spans="1:15">
       <c r="B56" s="13" t="s">
         <v>36</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="L56" s="55" t="n"/>
       <c r="M56" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="57" s="26" spans="1:19">
+    <row outlineLevel="1" r="57" s="26" spans="1:15">
       <c r="B57" s="16" t="s">
         <v>37</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="58" s="26" spans="1:19">
+    <row outlineLevel="1" r="58" s="26" spans="1:15">
       <c r="A58" s="23" t="n">
         <v>43046</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="L58" s="55" t="n"/>
       <c r="M58" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="59" s="26" spans="1:19">
+    <row outlineLevel="1" r="59" s="26" spans="1:15">
       <c r="B59" s="18" t="s">
         <v>40</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:15">
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:15">
       <c r="C61" s="29" t="n">
         <v>8</v>
       </c>
@@ -3131,7 +3133,7 @@
       <c r="H61" s="29" t="n"/>
       <c r="I61" s="29" t="n"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:15">
       <c r="B62" s="10" t="n">
         <v>43052</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="63" s="26" spans="1:19">
+    <row outlineLevel="1" r="63" s="26" spans="1:15">
       <c r="B63" s="13" t="s">
         <v>36</v>
       </c>
@@ -3191,7 +3193,7 @@
       <c r="L63" s="55" t="n"/>
       <c r="M63" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="64" s="26" spans="1:19">
+    <row outlineLevel="1" r="64" s="26" spans="1:15">
       <c r="B64" s="16" t="s">
         <v>37</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="65" s="26" spans="1:19">
+    <row outlineLevel="1" r="65" s="26" spans="1:15">
       <c r="A65" s="23" t="n">
         <v>43055</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="L65" s="55" t="n"/>
       <c r="M65" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="66" s="26" spans="1:19">
+    <row outlineLevel="1" r="66" s="26" spans="1:15">
       <c r="B66" s="18" t="s">
         <v>40</v>
       </c>
@@ -3274,7 +3276,7 @@
       <c r="L66" s="54" t="n"/>
       <c r="M66" s="54" t="n"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:15">
       <c r="B67" s="18" t="s">
         <v>41</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:15">
       <c r="B68" s="25" t="n"/>
       <c r="C68" s="29" t="n">
         <v>9</v>
@@ -3331,7 +3333,7 @@
       </c>
       <c r="J68" s="27" t="n"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:15">
       <c r="B69" s="10" t="n">
         <v>43059</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="70" s="26" spans="1:19">
+    <row outlineLevel="1" r="70" s="26" spans="1:15">
       <c r="B70" s="13" t="s">
         <v>36</v>
       </c>
@@ -3393,7 +3395,7 @@
       <c r="L70" s="55" t="n"/>
       <c r="M70" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="71" s="26" spans="1:19">
+    <row outlineLevel="1" r="71" s="26" spans="1:15">
       <c r="B71" s="16" t="s">
         <v>37</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="72" s="26" spans="1:19">
+    <row outlineLevel="1" r="72" s="26" spans="1:15">
       <c r="A72" s="23" t="n">
         <v>43062</v>
       </c>
@@ -3452,7 +3454,7 @@
       <c r="L72" s="55" t="n"/>
       <c r="M72" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="73" s="26" spans="1:19">
+    <row outlineLevel="1" r="73" s="26" spans="1:15">
       <c r="B73" s="18" t="s">
         <v>40</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:15">
       <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:15">
       <c r="C75" s="39" t="n">
         <v>10</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:15">
       <c r="B76" s="10" t="n">
         <v>43066</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="77" s="26" spans="1:19">
+    <row outlineLevel="1" r="77" s="26" spans="1:15">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="L77" s="55" t="n"/>
       <c r="M77" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="78" s="26" spans="1:19">
+    <row outlineLevel="1" r="78" s="26" spans="1:15">
       <c r="B78" s="16" t="s">
         <v>37</v>
       </c>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="79" s="26" spans="1:19">
+    <row outlineLevel="1" r="79" s="26" spans="1:15">
       <c r="A79" s="23" t="n">
         <v>43073</v>
       </c>
@@ -3662,7 +3664,7 @@
       <c r="L79" s="55" t="n"/>
       <c r="M79" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="80" s="26" spans="1:19">
+    <row outlineLevel="1" r="80" s="26" spans="1:15">
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:15">
       <c r="B81" s="18" t="s">
         <v>41</v>
       </c>
@@ -3734,15 +3736,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:15">
       <c r="C82" s="29" t="n">
         <v>11</v>
       </c>
       <c r="D82" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="E82" s="29" t="s">
-        <v>45</v>
+      <c r="E82" s="29" t="n">
+        <v>8</v>
       </c>
       <c r="F82" s="29" t="n">
         <v>1</v>
@@ -3755,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:15">
       <c r="B83" s="10" t="n">
         <v>43073</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="84" s="26" spans="1:19">
+    <row outlineLevel="1" r="84" s="26" spans="1:15">
       <c r="A84" s="48" t="n">
         <v>154.95</v>
       </c>
@@ -3820,7 +3822,7 @@
       <c r="L84" s="55" t="n"/>
       <c r="M84" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="85" s="26" spans="1:19">
+    <row outlineLevel="1" r="85" s="26" spans="1:15">
       <c r="B85" s="16" t="s">
         <v>37</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row outlineLevel="1" r="86" s="26" spans="1:19">
+    <row outlineLevel="1" r="86" s="26" spans="1:15">
       <c r="B86" s="17" t="s">
         <v>39</v>
       </c>
@@ -3874,7 +3876,7 @@
       <c r="L86" s="55" t="n"/>
       <c r="M86" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="87" s="26" spans="1:19">
+    <row outlineLevel="1" r="87" s="26" spans="1:15">
       <c r="B87" s="18" t="s">
         <v>40</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:15">
       <c r="B88" s="18" t="s">
         <v>41</v>
       </c>
@@ -3946,15 +3948,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:15">
       <c r="C89" s="39" t="n">
         <v>12</v>
       </c>
       <c r="D89" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="E89" s="39" t="e">
-        <v>#VALUE!</v>
+      <c r="E89" s="39" t="n">
+        <v>9</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>2</v>
@@ -3972,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:15">
       <c r="B90" s="10" t="n">
         <v>43080</v>
       </c>
@@ -3980,8 +3982,8 @@
       <c r="D90" s="48" t="n">
         <v>1827.75</v>
       </c>
-      <c r="E90" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E90" s="48" t="n">
+        <v>13982.25</v>
       </c>
       <c r="F90" s="48" t="n">
         <v>1718.04</v>
@@ -4006,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:15">
       <c r="B91" s="13" t="s">
         <v>36</v>
       </c>
@@ -4032,7 +4034,7 @@
       <c r="L91" s="55" t="n"/>
       <c r="M91" s="55" t="n"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:15">
       <c r="B92" s="16" t="s">
         <v>37</v>
       </c>
@@ -4042,8 +4044,8 @@
       <c r="D92" s="51" t="n">
         <v>-32.25</v>
       </c>
-      <c r="E92" s="51" t="e">
-        <v>#VALUE!</v>
+      <c r="E92" s="51" t="n">
+        <v>11362.16</v>
       </c>
       <c r="F92" s="51" t="n">
         <v>0</v>
@@ -4066,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:15">
       <c r="B93" s="17" t="s">
         <v>39</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="L93" s="55" t="n"/>
       <c r="M93" s="55" t="n"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:15">
       <c r="A94" s="48" t="n">
         <v>235.74</v>
       </c>
@@ -4123,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:15">
       <c r="B95" s="18" t="s">
         <v>41</v>
       </c>
@@ -4133,8 +4135,8 @@
       <c r="D95" s="48" t="n">
         <v>-32.25</v>
       </c>
-      <c r="E95" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E95" s="48" t="n">
+        <v>11362.16</v>
       </c>
       <c r="F95" s="48" t="n">
         <v>0</v>
@@ -4157,15 +4159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="96" s="29" spans="1:19">
+    <row customFormat="1" r="96" s="29" spans="1:15">
       <c r="C96" s="29" t="n">
         <v>13</v>
       </c>
       <c r="D96" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="E96" s="29" t="e">
-        <v>#VALUE!</v>
+      <c r="E96" s="29" t="n">
+        <v>10</v>
       </c>
       <c r="F96" s="29" t="n">
         <v>3</v>
@@ -4187,7 +4189,7 @@
       </c>
       <c r="O96" s="58" t="n"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:15">
       <c r="B97" s="10" t="n">
         <v>43087</v>
       </c>
@@ -4197,8 +4199,8 @@
       <c r="D97" s="48" t="n">
         <v>1827.75</v>
       </c>
-      <c r="E97" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E97" s="48" t="n">
+        <v>13862.16</v>
       </c>
       <c r="F97" s="48" t="n">
         <v>1860</v>
@@ -4222,7 +4224,7 @@
       </c>
       <c r="O97" s="48" t="n"/>
     </row>
-    <row outlineLevel="1" r="98" s="26" spans="1:19">
+    <row outlineLevel="1" r="98" s="26" spans="1:15">
       <c r="B98" s="13" t="s">
         <v>36</v>
       </c>
@@ -4241,7 +4243,7 @@
       <c r="M98" s="55" t="n"/>
       <c r="N98" s="48" t="n"/>
     </row>
-    <row outlineLevel="1" r="99" s="26" spans="1:19">
+    <row outlineLevel="1" r="99" s="26" spans="1:15">
       <c r="B99" s="16" t="s">
         <v>37</v>
       </c>
@@ -4251,8 +4253,8 @@
       <c r="D99" s="51" t="n">
         <v>1827.75</v>
       </c>
-      <c r="E99" s="51" t="e">
-        <v>#VALUE!</v>
+      <c r="E99" s="51" t="n">
+        <v>13862.16</v>
       </c>
       <c r="F99" s="51" t="n">
         <v>1860</v>
@@ -4273,7 +4275,7 @@
       <c r="L99" s="51" t="n"/>
       <c r="M99" s="51" t="n"/>
     </row>
-    <row outlineLevel="1" r="100" s="26" spans="1:19">
+    <row outlineLevel="1" r="100" s="26" spans="1:15">
       <c r="A100" s="25" t="n">
         <v>43088</v>
       </c>
@@ -4302,10 +4304,10 @@
       <c r="L100" s="55" t="n"/>
       <c r="M100" s="55" t="n"/>
       <c r="O100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row outlineLevel="1" r="101" s="26" spans="1:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="1" r="101" s="26" spans="1:15">
       <c r="B101" s="18" t="s">
         <v>40</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:15">
       <c r="B102" s="18" t="s">
         <v>41</v>
       </c>
@@ -4349,8 +4351,8 @@
       <c r="D102" s="48" t="n">
         <v>1827.75</v>
       </c>
-      <c r="E102" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E102" s="48" t="n">
+        <v>11862.16</v>
       </c>
       <c r="F102" s="48" t="n">
         <v>1860</v>
@@ -4373,15 +4375,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:15">
       <c r="C103" s="27" t="n">
         <v>14</v>
       </c>
       <c r="D103" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="E103" s="27" t="e">
-        <v>#VALUE!</v>
+      <c r="E103" s="27" t="n">
+        <v>11</v>
       </c>
       <c r="F103" s="27" t="n">
         <v>4</v>
@@ -4406,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:15">
       <c r="B104" s="10" t="n">
         <v>43094</v>
       </c>
@@ -4416,8 +4418,8 @@
       <c r="D104" s="48" t="n">
         <v>3687.75</v>
       </c>
-      <c r="E104" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E104" s="48" t="n">
+        <v>14362.16</v>
       </c>
       <c r="F104" s="48" t="n">
         <v>3720</v>
@@ -4440,7 +4442,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row outlineLevel="1" r="105" s="26" spans="1:19">
+    <row outlineLevel="1" r="105" s="26" spans="1:15">
       <c r="B105" s="13" t="s">
         <v>36</v>
       </c>
@@ -4458,7 +4460,7 @@
       <c r="L105" s="55" t="n"/>
       <c r="M105" s="55" t="n"/>
     </row>
-    <row outlineLevel="1" r="106" s="26" spans="1:19">
+    <row outlineLevel="1" r="106" s="26" spans="1:15">
       <c r="B106" s="16" t="s">
         <v>37</v>
       </c>
@@ -4468,8 +4470,8 @@
       <c r="D106" s="51" t="n">
         <v>3687.75</v>
       </c>
-      <c r="E106" s="51" t="e">
-        <v>#VALUE!</v>
+      <c r="E106" s="51" t="n">
+        <v>14362.16</v>
       </c>
       <c r="F106" s="51" t="n">
         <v>3720</v>
@@ -4490,7 +4492,7 @@
       <c r="L106" s="51" t="n"/>
       <c r="M106" s="51" t="n"/>
     </row>
-    <row outlineLevel="1" r="107" s="26" spans="1:19">
+    <row outlineLevel="1" r="107" s="26" spans="1:15">
       <c r="B107" s="17" t="s">
         <v>39</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row outlineLevel="1" r="108" s="26" spans="1:19">
+    <row outlineLevel="1" r="108" s="26" spans="1:15">
       <c r="B108" s="18" t="s">
         <v>40</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:15">
       <c r="B109" s="18" t="s">
         <v>41</v>
       </c>
@@ -4562,8 +4564,8 @@
       <c r="D109" s="48" t="n">
         <v>3687.75</v>
       </c>
-      <c r="E109" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E109" s="48" t="n">
+        <v>12362.16</v>
       </c>
       <c r="F109" s="48" t="n">
         <v>3720</v>
@@ -4588,15 +4590,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:15">
       <c r="C110" s="39" t="n">
         <v>15</v>
       </c>
       <c r="D110" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="E110" s="39" t="e">
-        <v>#VALUE!</v>
+      <c r="E110" s="39" t="n">
+        <v>12</v>
       </c>
       <c r="F110" s="39" t="n">
         <v>5</v>
@@ -4621,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:15">
       <c r="B111" s="10" t="n">
         <v>43101</v>
       </c>
@@ -4631,8 +4633,8 @@
       <c r="D111" s="48" t="n">
         <v>5547.75</v>
       </c>
-      <c r="E111" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E111" s="48" t="n">
+        <v>14862.16</v>
       </c>
       <c r="F111" s="48" t="n">
         <v>5580</v>
@@ -4655,7 +4657,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:15">
       <c r="B112" s="13" t="s">
         <v>36</v>
       </c>
@@ -4690,7 +4692,7 @@
       </c>
       <c r="N112" s="48" t="n"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:15">
       <c r="B113" s="16" t="s">
         <v>37</v>
       </c>
@@ -4700,8 +4702,8 @@
       <c r="D113" s="51" t="n">
         <v>5547.75</v>
       </c>
-      <c r="E113" s="51" t="e">
-        <v>#VALUE!</v>
+      <c r="E113" s="51" t="n">
+        <v>14582.25</v>
       </c>
       <c r="F113" s="51" t="n">
         <v>4450.75</v>
@@ -4722,7 +4724,7 @@
       <c r="L113" s="51" t="n"/>
       <c r="M113" s="51" t="n"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:15">
       <c r="B114" s="17" t="s">
         <v>39</v>
       </c>
@@ -4738,7 +4740,7 @@
       <c r="L114" s="55" t="n"/>
       <c r="M114" s="55" t="n"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:15">
       <c r="B115" s="18" t="s">
         <v>40</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>2585.76</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:15">
       <c r="B116" s="18" t="s">
         <v>41</v>
       </c>
@@ -4782,8 +4784,8 @@
       <c r="D116" s="48" t="n">
         <v>5547.75</v>
       </c>
-      <c r="E116" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E116" s="48" t="n">
+        <v>14582.25</v>
       </c>
       <c r="F116" s="48" t="n">
         <v>4450.75</v>
@@ -4806,15 +4808,15 @@
         <v>2414.24</v>
       </c>
     </row>
-    <row customFormat="1" r="117" s="27" spans="1:19">
+    <row customFormat="1" r="117" s="27" spans="1:15">
       <c r="C117" s="27" t="n">
         <v>16</v>
       </c>
       <c r="D117" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="E117" s="27" t="e">
-        <v>#VALUE!</v>
+      <c r="E117" s="27" t="n">
+        <v>13</v>
       </c>
       <c r="F117" s="27" t="n">
         <v>6</v>
@@ -4844,9 +4846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:15">
       <c r="A118" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B118" s="46" t="n">
         <v>43108</v>
@@ -4857,8 +4859,8 @@
       <c r="D118" s="48" t="n">
         <v>7407.75</v>
       </c>
-      <c r="E118" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E118" s="48" t="n">
+        <v>17082.25</v>
       </c>
       <c r="F118" s="48" t="n">
         <v>6310.75</v>
@@ -4886,7 +4888,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:15">
       <c r="B119" s="13" t="s">
         <v>36</v>
       </c>
@@ -4903,7 +4905,7 @@
       <c r="M119" s="55" t="n"/>
       <c r="N119" s="55" t="n"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:15">
       <c r="B120" s="16" t="s">
         <v>37</v>
       </c>
@@ -4913,8 +4915,8 @@
       <c r="D120" s="51" t="n">
         <v>7407.75</v>
       </c>
-      <c r="E120" s="51" t="e">
-        <v>#VALUE!</v>
+      <c r="E120" s="51" t="n">
+        <v>17082.25</v>
       </c>
       <c r="F120" s="51" t="n">
         <v>6310.75</v>
@@ -4936,7 +4938,7 @@
       <c r="M120" s="51" t="n"/>
       <c r="N120" s="51" t="n"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:15">
       <c r="B121" s="17" t="s">
         <v>39</v>
       </c>
@@ -4953,7 +4955,7 @@
       <c r="M121" s="55" t="n"/>
       <c r="N121" s="55" t="n"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:15">
       <c r="B122" s="18" t="s">
         <v>40</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:15">
       <c r="B123" s="18" t="s">
         <v>41</v>
       </c>
@@ -5002,8 +5004,8 @@
       <c r="D123" s="48" t="n">
         <v>7407.75</v>
       </c>
-      <c r="E123" s="48" t="e">
-        <v>#VALUE!</v>
+      <c r="E123" s="48" t="n">
+        <v>17082.25</v>
       </c>
       <c r="F123" s="48" t="n">
         <v>6310.75</v>
@@ -5031,16 +5033,19 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:15">
       <c r="B125" s="59" t="n">
         <v>43115</v>
       </c>
       <c r="C125" t="n">
-        <v>6370.6288</v>
+        <v>7280.3588</v>
       </c>
       <c r="D125" t="n">
         <v>9267.75</v>
       </c>
+      <c r="E125" t="n">
+        <v>19582.25</v>
+      </c>
       <c r="F125" t="n">
         <v>8170.75</v>
       </c>
@@ -5048,9 +5053,9 @@
         <v>11828.6</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:15">
       <c r="B126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C126" s="60" t="n">
         <v>804.38</v>
@@ -5075,16 +5080,19 @@
       <c r="M126" s="60" t="n"/>
       <c r="N126" s="60" t="n"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:15">
       <c r="B127" t="s">
         <v>37</v>
       </c>
       <c r="C127" t="n">
-        <v>5566.2488</v>
+        <v>6475.9788</v>
       </c>
       <c r="D127" t="n">
         <v>9267.75</v>
       </c>
+      <c r="E127" t="n">
+        <v>19509.21</v>
+      </c>
       <c r="F127" t="n">
         <v>6942.34</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>9968.6</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:15">
       <c r="B128" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5117,7 @@
       <c r="M128" s="60" t="n"/>
       <c r="N128" s="60" t="n"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:15">
       <c r="B129" t="s">
         <v>40</v>
       </c>
@@ -5126,12 +5134,12 @@
       <c r="M129" s="61" t="n"/>
       <c r="N129" s="61" t="n"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:15">
       <c r="B130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="B131" s="61" t="n"/>
     </row>
   </sheetData>

--- a/Prubes.xlsx
+++ b/Prubes.xlsx
@@ -5038,7 +5038,7 @@
         <v>43115</v>
       </c>
       <c r="C125" t="n">
-        <v>7280.3588</v>
+        <v>7280.718800000001</v>
       </c>
       <c r="D125" t="n">
         <v>9267.75</v>
@@ -5085,7 +5085,7 @@
         <v>37</v>
       </c>
       <c r="C127" t="n">
-        <v>6475.9788</v>
+        <v>6476.3388</v>
       </c>
       <c r="D127" t="n">
         <v>9267.75</v>
@@ -5121,11 +5121,26 @@
       <c r="B129" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="61" t="n"/>
-      <c r="D129" s="61" t="n"/>
-      <c r="E129" s="61" t="n"/>
-      <c r="F129" s="61" t="n"/>
-      <c r="G129" s="61" t="n"/>
+      <c r="C129" s="61">
+        <f>C126+C128</f>
+        <v/>
+      </c>
+      <c r="D129" s="61">
+        <f>D126+D128</f>
+        <v/>
+      </c>
+      <c r="E129" s="61">
+        <f>E126+E128</f>
+        <v/>
+      </c>
+      <c r="F129" s="61">
+        <f>F126+F128</f>
+        <v/>
+      </c>
+      <c r="G129" s="61">
+        <f>G126+G128</f>
+        <v/>
+      </c>
       <c r="H129" s="61" t="n"/>
       <c r="I129" s="61" t="n"/>
       <c r="J129" s="61" t="n"/>
@@ -5137,6 +5152,26 @@
     <row r="130" spans="1:15">
       <c r="B130" t="s">
         <v>48</v>
+      </c>
+      <c r="C130">
+        <f>C125-C129</f>
+        <v/>
+      </c>
+      <c r="D130">
+        <f>D125-D129</f>
+        <v/>
+      </c>
+      <c r="E130">
+        <f>E125-E129</f>
+        <v/>
+      </c>
+      <c r="F130">
+        <f>F125-F129</f>
+        <v/>
+      </c>
+      <c r="G130">
+        <f>G125-G129</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:15">

--- a/Prubes.xlsx
+++ b/Prubes.xlsx
@@ -168,9 +168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" numFmtId="164"/>
     <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="[Red]&quot;$&quot;#,##0.00_);[Color 10]&quot;-$&quot;#,##0.00" numFmtId="166"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -361,7 +362,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -473,9 +474,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5037,19 +5042,19 @@
       <c r="B125" s="59" t="n">
         <v>43115</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="60" t="n">
         <v>7280.718800000001</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="60" t="n">
         <v>9267.75</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="60" t="n">
         <v>19582.25</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" s="60" t="n">
         <v>8170.75</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125" s="60" t="n">
         <v>11828.6</v>
       </c>
     </row>
@@ -5057,46 +5062,46 @@
       <c r="B126" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="60" t="n">
+      <c r="C126" s="61" t="n">
         <v>804.38</v>
       </c>
-      <c r="D126" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="60" t="n">
+      <c r="D126" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="61" t="n">
         <v>73.04000000000001</v>
       </c>
-      <c r="F126" s="60" t="n">
+      <c r="F126" s="61" t="n">
         <v>1228.41</v>
       </c>
-      <c r="G126" s="60" t="n">
+      <c r="G126" s="61" t="n">
         <v>1860</v>
       </c>
-      <c r="H126" s="60" t="n"/>
-      <c r="I126" s="60" t="n"/>
-      <c r="J126" s="60" t="n"/>
-      <c r="K126" s="60" t="n"/>
-      <c r="L126" s="60" t="n"/>
-      <c r="M126" s="60" t="n"/>
-      <c r="N126" s="60" t="n"/>
+      <c r="H126" s="62" t="n"/>
+      <c r="I126" s="62" t="n"/>
+      <c r="J126" s="62" t="n"/>
+      <c r="K126" s="62" t="n"/>
+      <c r="L126" s="62" t="n"/>
+      <c r="M126" s="62" t="n"/>
+      <c r="N126" s="62" t="n"/>
     </row>
     <row r="127" spans="1:15">
       <c r="B127" t="s">
         <v>37</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="60" t="n">
         <v>6476.3388</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="60" t="n">
         <v>9267.75</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="60" t="n">
         <v>19509.21</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" s="60" t="n">
         <v>6942.34</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127" s="60" t="n">
         <v>9968.6</v>
       </c>
     </row>
@@ -5104,78 +5109,78 @@
       <c r="B128" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="60" t="n"/>
-      <c r="D128" s="60" t="n"/>
-      <c r="E128" s="60" t="n"/>
-      <c r="F128" s="60" t="n"/>
-      <c r="G128" s="60" t="n"/>
-      <c r="H128" s="60" t="n"/>
-      <c r="I128" s="60" t="n"/>
-      <c r="J128" s="60" t="n"/>
-      <c r="K128" s="60" t="n"/>
-      <c r="L128" s="60" t="n"/>
-      <c r="M128" s="60" t="n"/>
-      <c r="N128" s="60" t="n"/>
+      <c r="C128" s="61" t="n"/>
+      <c r="D128" s="61" t="n"/>
+      <c r="E128" s="61" t="n"/>
+      <c r="F128" s="61" t="n"/>
+      <c r="G128" s="61" t="n"/>
+      <c r="H128" s="62" t="n"/>
+      <c r="I128" s="62" t="n"/>
+      <c r="J128" s="62" t="n"/>
+      <c r="K128" s="62" t="n"/>
+      <c r="L128" s="62" t="n"/>
+      <c r="M128" s="62" t="n"/>
+      <c r="N128" s="62" t="n"/>
     </row>
     <row r="129" spans="1:15">
       <c r="B129" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="61">
+      <c r="C129" s="63">
         <f>C126+C128</f>
         <v/>
       </c>
-      <c r="D129" s="61">
+      <c r="D129" s="63">
         <f>D126+D128</f>
         <v/>
       </c>
-      <c r="E129" s="61">
+      <c r="E129" s="63">
         <f>E126+E128</f>
         <v/>
       </c>
-      <c r="F129" s="61">
+      <c r="F129" s="63">
         <f>F126+F128</f>
         <v/>
       </c>
-      <c r="G129" s="61">
+      <c r="G129" s="63">
         <f>G126+G128</f>
         <v/>
       </c>
-      <c r="H129" s="61" t="n"/>
-      <c r="I129" s="61" t="n"/>
-      <c r="J129" s="61" t="n"/>
-      <c r="K129" s="61" t="n"/>
-      <c r="L129" s="61" t="n"/>
-      <c r="M129" s="61" t="n"/>
-      <c r="N129" s="61" t="n"/>
+      <c r="H129" s="64" t="n"/>
+      <c r="I129" s="64" t="n"/>
+      <c r="J129" s="64" t="n"/>
+      <c r="K129" s="64" t="n"/>
+      <c r="L129" s="64" t="n"/>
+      <c r="M129" s="64" t="n"/>
+      <c r="N129" s="64" t="n"/>
     </row>
     <row r="130" spans="1:15">
       <c r="B130" t="s">
         <v>48</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="65">
         <f>C125-C129</f>
         <v/>
       </c>
-      <c r="D130">
+      <c r="D130" s="65">
         <f>D125-D129</f>
         <v/>
       </c>
-      <c r="E130">
+      <c r="E130" s="65">
         <f>E125-E129</f>
         <v/>
       </c>
-      <c r="F130">
+      <c r="F130" s="65">
         <f>F125-F129</f>
         <v/>
       </c>
-      <c r="G130">
+      <c r="G130" s="65">
         <f>G125-G129</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:15">
-      <c r="B131" s="61" t="n"/>
+      <c r="B131" s="64" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H26 C74:D74 C95:D95 C25:F25 F95 H95:M95 H25:M25">
